--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
+    <sheet name="Allocation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rhenium!$A$1:$H$19</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="143">
   <si>
     <t>Activity</t>
   </si>
@@ -120,9 +121,6 @@
     <t>Nitrogen oxides</t>
   </si>
   <si>
-    <t>Particulates, &gt; 10 um</t>
-  </si>
-  <si>
     <t>natural resource::in ground</t>
   </si>
   <si>
@@ -132,105 +130,39 @@
     <t>Dissolved solids</t>
   </si>
   <si>
-    <t>Copper, ion</t>
-  </si>
-  <si>
     <t>Sulfate</t>
   </si>
   <si>
-    <t>Cobalt</t>
-  </si>
-  <si>
     <t>DOC, Dissolved Organic Carbon</t>
   </si>
   <si>
-    <t>Chromium</t>
-  </si>
-  <si>
-    <t>Chromium, ion</t>
-  </si>
-  <si>
     <t>Water, well, in ground</t>
   </si>
   <si>
-    <t>Beryllium</t>
-  </si>
-  <si>
-    <t>Cadmium, ion</t>
-  </si>
-  <si>
     <t>Water, river</t>
   </si>
   <si>
-    <t>Zinc</t>
-  </si>
-  <si>
     <t>Boron</t>
   </si>
   <si>
     <t>COD, Chemical Oxygen Demand</t>
   </si>
   <si>
-    <t>Cadmium</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
     <t>Selenium</t>
   </si>
   <si>
-    <t>Antimony</t>
-  </si>
-  <si>
     <t>BOD5, Biological Oxygen Demand</t>
   </si>
   <si>
-    <t>Arsenic</t>
-  </si>
-  <si>
-    <t>Arsenic, ion</t>
-  </si>
-  <si>
-    <t>Particulates, &lt; 2.5 um</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Nickel</t>
-  </si>
-  <si>
-    <t>Zinc, ion</t>
-  </si>
-  <si>
-    <t>Nickel, ion</t>
-  </si>
-  <si>
-    <t>Particulates, &gt; 2.5 um, and &lt; 10um</t>
-  </si>
-  <si>
     <t>TOC, Total Organic Carbon</t>
   </si>
   <si>
     <t>Nitrogen, organic bound</t>
   </si>
   <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Manganese</t>
-  </si>
-  <si>
     <t>Fluorine</t>
   </si>
   <si>
-    <t>Iron, ion</t>
-  </si>
-  <si>
-    <t>Calcium, ion</t>
-  </si>
-  <si>
     <t>Copper</t>
   </si>
   <si>
@@ -297,9 +229,6 @@
     <t>Transformation, from unspecified</t>
   </si>
   <si>
-    <t>Copper, in ground</t>
-  </si>
-  <si>
     <t>Transformation, to mineral extraction site</t>
   </si>
   <si>
@@ -411,45 +340,18 @@
     <t>steel, chromium steel 18/8, hot rolled</t>
   </si>
   <si>
-    <t>Gangue, in ground</t>
-  </si>
-  <si>
     <t>Rhenium, in ground</t>
   </si>
   <si>
-    <t>Selenium, in ground</t>
-  </si>
-  <si>
-    <t>Barium</t>
-  </si>
-  <si>
-    <t>Tellurium, in ground</t>
-  </si>
-  <si>
-    <t>Molybdenum, in ground</t>
-  </si>
-  <si>
-    <t>Gold, in ground</t>
-  </si>
-  <si>
     <t>Molybdenum</t>
   </si>
   <si>
-    <t>Silver, in ground</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.26%) and divided by former allocation value of copper (98.07%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>CN</t>
   </si>
   <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.05%) and divided by former allocation value of copper (89.21%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
     <t>market group for electricity, high voltage</t>
   </si>
   <si>
@@ -459,14 +361,119 @@
     <t>US</t>
   </si>
   <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.37%) and divided by former allocation value of copper (91.81%). Allocation method can be found in the supplementary excel file.</t>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>copper concentrate, sulfide ore</t>
+  </si>
+  <si>
+    <t>molybdenite</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>kg/kg copper</t>
+  </si>
+  <si>
+    <t>usgs</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.07%) and divided by former allocation value of copper (95.09%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Aluminium III</t>
+  </si>
+  <si>
+    <t>Antimony ion</t>
+  </si>
+  <si>
+    <t>Arsenic ion</t>
+  </si>
+  <si>
+    <t>Barium II</t>
+  </si>
+  <si>
+    <t>Beryllium II</t>
+  </si>
+  <si>
+    <t>Cadmium II</t>
+  </si>
+  <si>
+    <t>Calcium II</t>
+  </si>
+  <si>
+    <t>Chromium III</t>
+  </si>
+  <si>
+    <t>Cobalt II</t>
+  </si>
+  <si>
+    <t>Copper ion</t>
+  </si>
+  <si>
+    <t>Gangue</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Iron ion</t>
+  </si>
+  <si>
+    <t>Lead II</t>
+  </si>
+  <si>
+    <t>Manganese II</t>
+  </si>
+  <si>
+    <t>Mercury II</t>
+  </si>
+  <si>
+    <t>Molybdenum VI</t>
+  </si>
+  <si>
+    <t>Nickel II</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &lt; 2.5 um</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &gt; 10 um</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &gt; 2.5 um and &lt; 10um</t>
+  </si>
+  <si>
+    <t>Rhenium</t>
+  </si>
+  <si>
+    <t>Selenium IV</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Tellurium</t>
+  </si>
+  <si>
+    <t>Zinc II</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.01%) and divided by former allocation value of copper (76.2%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.09%) and divided by former allocation value of copper (81.21%). Allocation method can be found in the supplementary excel file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,13 +504,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -515,12 +535,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -530,15 +551,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Per cent 2" xfId="2"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288:Q301"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,6 +857,7 @@
     <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -837,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -848,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -856,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -864,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -880,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -920,58 +948,62 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1.4742203629092045E-13</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4.1581000000000002E-7</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6">
-        <v>8.1264716356951809E-11</v>
+        <f>H12*0.07/0.9509</f>
+        <v>3.1511967422016977E-11</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4.2806756887994201E-10</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6">
-        <v>1.3816034759007329E-10</v>
+        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509</f>
+        <v>8.5112014746289104E-9</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -983,17 +1015,20 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.1561859260320899E-7</v>
+      </c>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6">
-        <v>1.3538478360175144E-10</v>
+        <f t="shared" si="0"/>
+        <v>3.149454652904937E-3</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1005,16 +1040,21 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4.2783091849247203E-2</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6">
-        <v>6.2541721131308786E-11</v>
+        <f t="shared" si="0"/>
+        <v>6.550262069217069E-9</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1026,19 +1066,22 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8.8980631451693004E-8</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6">
-        <v>3.3791450680603435E-13</v>
+        <f t="shared" si="0"/>
+        <v>2.4222792537936773E-3</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -1047,16 +1090,19 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3.2904933463320102E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6">
-        <v>1.1427171279037293E-9</v>
+        <f t="shared" si="0"/>
+        <v>8.4733971140052281E-4</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1068,19 +1114,22 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.1510504736725101E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.9663483238649267E-6</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8378989987378276E-7</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -1089,82 +1138,94 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3.8550830827139996E-6</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3.9024200470080265E-5</v>
+        <v>83</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.9121571942184168E-8</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3.9559575371175598E-7</v>
+      </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6">
-        <v>2.0196769710101164E-10</v>
+        <f t="shared" si="0"/>
+        <v>1.4470124389270461E-8</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.96566304025104E-7</v>
+      </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4.6425820286069536E-4</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0594407393488142E-4</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2.7976031414954101E-3</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3.0070905947924516E-5</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4179427696174688E-8</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1176,63 +1237,72 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.9261739708989301E-7</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2.3127855342591877E-5</v>
+        <v>77</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8623748139846774E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.66051888723114704</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B24" s="6">
-        <v>2.7096181176014619E-9</v>
+        <f t="shared" si="0"/>
+        <v>2.7227728802062482E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.36986924739830301</v>
+      </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B25" s="6">
-        <v>1.3247473657813565E-12</v>
+        <f t="shared" si="0"/>
+        <v>1.1968165447569261E-7</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1244,64 +1314,73 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1.62578978915623E-6</v>
+      </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="2">
-        <v>-6.1498301721650703E-2</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>4.0871714992302133E-3</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5.55213054088287E-2</v>
+      </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.0544316132002126E-6</v>
+        <v>74</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5391232229163953E-11</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4.8076461038159999E-10</v>
+      </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="2">
-        <v>8.090376136695455E-6</v>
+        <v>50</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>1.544014067754439E-11</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -1310,42 +1389,48 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2.09743282432528E-10</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="2">
-        <v>-3.483372397294561E-2</v>
+        <v>79</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.4409802896667658</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-87.496116534916098</v>
+      </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B30" s="6">
-        <v>3.0087539368363591E-13</v>
+        <f t="shared" si="0"/>
+        <v>1.3874646019341583E-10</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
@@ -1354,515 +1439,595 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1.88477155711313E-9</v>
+      </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B31" s="6">
-        <v>2.7805196373328063E-10</v>
+        <f t="shared" si="0"/>
+        <v>1.1043513474833243E-4</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1.50018242331699E-3</v>
+      </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2.5996960179351094E-4</v>
+        <v>84</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7132808563392146E-3</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3.6857982375613697E-2</v>
+      </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2.5906330597909832E-5</v>
+        <v>81</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.6482849646959834</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="H33" s="7">
+        <v>-49.559345327563001</v>
+      </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>2.115294113429197E-8</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>2.87347596065689E-7</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2.0294380115548879E-5</v>
+        <v>115</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>5.7578053415189837E-8</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7">
+        <v>7.8215672846434299E-7</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B36" s="6">
-        <v>6.6311670194215469E-8</v>
+        <f t="shared" si="0"/>
+        <v>3.4256472948005415E-10</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>4.6534971608940498E-9</v>
+      </c>
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B37" s="6">
-        <v>1.6353992828201938E-9</v>
+        <f t="shared" si="0"/>
+        <v>2.5692354711004083E-9</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>3.4901228706705398E-8</v>
+      </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B38" s="6">
-        <v>4.9708910107525909E-12</v>
+        <f t="shared" si="0"/>
+        <v>1.9667740723090234E-9</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>2.6717220933695E-8</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B39" s="6">
-        <v>6.6312455806621099E-8</v>
+        <f t="shared" si="0"/>
+        <v>7.1026413004047242E-13</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>9.6484308750783592E-12</v>
+      </c>
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B40" s="6">
-        <v>1.7807337842449822E-11</v>
+        <f t="shared" si="0"/>
+        <v>4.4558641648405037E-9</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>6.0529731919240498E-8</v>
+      </c>
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="2">
-        <v>8.0387302537366628E-7</v>
+        <v>37</v>
+      </c>
+      <c r="B41" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9451872466825583E-6</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>9.4345407898149196E-5</v>
+      </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B42" s="6">
-        <v>3.2707985656403885E-12</v>
+        <f t="shared" si="0"/>
+        <v>1.7128236474002673E-8</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>2.32674858044702E-7</v>
+      </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B43" s="6">
-        <v>1.5479101212513966E-10</v>
+        <f t="shared" si="0"/>
+        <v>1.8841060121402999E-10</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>2.5594234384917299E-9</v>
+      </c>
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="2">
-        <v>6.7776199650512334E-2</v>
+        <v>120</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1047452646147537E-10</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>2.8591461030316699E-9</v>
+      </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B45" s="6">
-        <v>1.5536293186791853E-8</v>
+        <f t="shared" si="0"/>
+        <v>4.5724160978700317E-4</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>6.2113006678065899E-3</v>
+      </c>
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B46" s="6">
-        <v>5.0380764544682193E-11</v>
+        <f t="shared" si="0"/>
+        <v>2.1255172688652651E-3</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>2.8873633870914E-2</v>
+      </c>
       <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" si="0"/>
+        <v>3.7235296682614622E-4</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>5.0581490879283196E-3</v>
+      </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="2">
-        <v>5.3565918699687517E-7</v>
+        <v>122</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7128236474002675E-7</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>2.3267485804470201E-6</v>
+      </c>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B49" s="6">
-        <v>1.3083194262561527E-9</v>
+        <f t="shared" si="0"/>
+        <v>3.6436987021264404E-10</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>4.9497044226457598E-9</v>
+      </c>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B50" s="6">
-        <v>8.1769964141010051E-10</v>
+        <f t="shared" si="0"/>
+        <v>3.4256472948005499E-8</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>4.6534971608940602E-7</v>
+      </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B51" s="6">
-        <v>4.2544467847491292E-11</v>
+        <f t="shared" si="0"/>
+        <v>5.2062268592804513E-10</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="7">
+        <v>7.0722873149854002E-9</v>
+      </c>
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B52" s="6">
-        <v>5.4975366205566537E-10</v>
+        <f t="shared" si="0"/>
+        <v>6.9451049661336942E-6</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7">
+        <v>9.4344290175664696E-5</v>
+      </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="B53" s="6">
-        <v>6.7815822758176106E-15</v>
+        <f t="shared" si="0"/>
+        <v>2.0081760163705165E-2</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="7"/>
+      <c r="H53" s="7">
+        <v>0.27279636770953197</v>
+      </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="2">
-        <v>8.3158675709775414E-6</v>
+        <v>124</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>8.5641182370013377E-8</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="7">
+        <v>1.16337429022351E-6</v>
+      </c>
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="2">
-        <v>3.5333691391953159E-5</v>
+        <v>124</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>5.276593049339407E-9</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7">
+        <v>7.1678747580240596E-8</v>
+      </c>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B56" s="6">
-        <v>3.5660009636436256E-10</v>
+        <f t="shared" si="0"/>
+        <v>2.1560664181021941E-17</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7">
+        <v>2.9288622242476801E-16</v>
+      </c>
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -1870,718 +2035,832 @@
         <v>42</v>
       </c>
       <c r="B57" s="6">
-        <v>1.6353992828201939E-10</v>
+        <f t="shared" si="0"/>
+        <v>2.2766731645591203E-6</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7">
+        <v>3.0926978745418101E-5</v>
+      </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B58" s="6">
-        <v>1.5536293186791853E-8</v>
+        <f t="shared" si="0"/>
+        <v>3.4442563732866091E-6</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="7">
+        <v>4.6787762647974799E-5</v>
+      </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B59" s="6">
-        <v>3.1072586373583706E-9</v>
+        <f t="shared" si="0"/>
+        <v>2.716987083707795E-6</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="7">
+        <v>3.69083288271106E-5</v>
+      </c>
       <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="2">
-        <v>3.1832739628190689E-6</v>
+        <v>40</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6271824650302548E-6</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="7"/>
+      <c r="H60" s="7">
+        <v>2.21041115142467E-5</v>
+      </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B61" s="6">
-        <v>1.8495189013169757E-9</v>
+        <f t="shared" si="0"/>
+        <v>7.0984914027923818</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7">
+        <v>96.427935355932505</v>
+      </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1.4998410953878633E-5</v>
+        <v>126</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9060488262470242E-7</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7">
+        <v>2.58923118411185E-6</v>
+      </c>
       <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="B63" s="6">
-        <v>4.827535352571157E-10</v>
+        <f t="shared" si="0"/>
+        <v>1.9370802859999645E-7</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="7">
+        <v>2.63138520565338E-6</v>
+      </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="2">
-        <v>1.3417686093072437E-7</v>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3979531063603829E-8</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7">
+        <v>3.2574480126258397E-7</v>
+      </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="B65" s="6">
-        <v>2.4530989242302941E-11</v>
+        <f t="shared" si="0"/>
+        <v>1.8650386895850984E-9</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7">
+        <v>2.5335218427520999E-8</v>
+      </c>
       <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="B66" s="6">
-        <v>1.8778704463857025E-11</v>
+        <f t="shared" si="0"/>
+        <v>1.6271824650302548E-6</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7">
+        <v>2.21041115142467E-5</v>
+      </c>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="9">
-        <v>2.9773091949887004E-6</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6437286367441806E-8</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7">
+        <v>2.23288794382863E-7</v>
+      </c>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="10">
-        <v>2.3954931105632116E-13</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="6">
+        <f t="shared" si="0"/>
+        <v>8.564118237001337E-11</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7">
+        <v>1.16337429022351E-9</v>
+      </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="10">
-        <v>1.8198901493425096E-9</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5089024375023E-11</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="7">
+        <v>3.40816475402991E-10</v>
+      </c>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1182633185486143E-4</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="7">
+        <v>4.2359379851541097E-3</v>
+      </c>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4577620185883896E-16</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="7">
+        <v>7.4139798621081407E-15</v>
+      </c>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3702589179202168E-7</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1.8613988643576201E-6</v>
+      </c>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6211925048404871E-8</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="7">
+        <v>2.2022742183611699E-7</v>
+      </c>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0425124987343096E-9</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="7">
+        <v>2.7746073357806499E-8</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5158264809161323E-5</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="7">
+        <v>2.0591420010045001E-4</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9599168149586396E-4</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="7">
+        <v>2.6624069990631E-3</v>
+      </c>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="6">
+        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509</f>
+        <v>8.4193061708624998E-5</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1.14370260541045E-3</v>
+      </c>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="6">
+        <f t="shared" si="1"/>
+        <v>8.7095639418752571E-4</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1.18313205033274E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5767419150412772E-4</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="7">
+        <v>1.02924626957325E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6101878732224454E-5</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="7">
+        <v>7.6210394980674603E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="6">
+        <f t="shared" si="1"/>
+        <v>8.564118237001337E-11</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="7">
+        <v>1.16337429022351E-9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7855338214394308E-6</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="7">
+        <v>9.21766301543822E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5708477571868369E-3</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="7">
+        <v>2.1338844747270901E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8329695505373162E-6</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="7">
+        <v>6.5652439222941899E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="6">
+        <f t="shared" si="1"/>
+        <v>2.7168971973355424E-6</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="7">
+        <v>3.6907107784948099E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="6">
+        <f t="shared" si="1"/>
+        <v>6.5161769194575589E-6</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="7">
+        <v>8.8517609038745603E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="6">
+        <f t="shared" si="1"/>
+        <v>6.5161769194575589E-6</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="7">
+        <v>8.8517609038745603E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="9">
-        <v>3.1832384541816104E-6</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B88" s="6">
+        <f t="shared" si="1"/>
+        <v>3.3339790331004697E-4</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="10">
-        <v>3.2707985656403956E-10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="7"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="10">
-        <v>8.1769964141010056E-13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="7"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="9">
-        <v>1.8713231560269057E-6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="10">
-        <v>5.2110560854003104E-18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="7"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="10">
-        <v>6.2216277063811722E-8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="7"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" s="10">
-        <v>2.5940859321755932E-8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>67</v>
-      </c>
-      <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="7"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" s="10">
-        <v>2.1737612428384846E-8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="7"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="11">
-        <v>3.4789934464735351E-12</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>67</v>
-      </c>
-      <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="12">
-        <v>6.4788089316593324E-8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="12">
-        <v>2.5941717554352965E-8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="12">
-        <v>3.2885664623273808E-8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>67</v>
-      </c>
-      <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="7">
+        <v>4.5289723751074798E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="12">
-        <v>2.0121561226892909E-10</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B89" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1074172071667593E-8</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D82" t="s">
-        <v>67</v>
-      </c>
-      <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="8">
-        <v>3.5552158322178163E-6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>68</v>
-      </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="8">
-        <v>1.4473069329307274E-7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>67</v>
-      </c>
-      <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="12">
-        <v>6.2216277063811722E-8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="8">
-        <v>4.3657302481559456E-6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" t="s">
-        <v>67</v>
-      </c>
-      <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="8">
-        <v>7.2342522318507671E-6</v>
-      </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>68</v>
-      </c>
-      <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="D89" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="12">
-        <v>1.7989392111022111E-12</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89" s="12">
-        <v>8.1769964141010056E-13</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>68</v>
-      </c>
       <c r="F89" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="7"/>
+      <c r="H89" s="7">
+        <v>2.8627757461355301E-7</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" s="8">
-        <v>1.9174009081050373E-4</v>
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="6">
+        <f t="shared" si="1"/>
+        <v>3.333941843385049E-4</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="7"/>
+      <c r="H90" s="7">
+        <v>4.5289218555354897E-3</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B91" s="6">
-        <v>2.0096049593281762E-12</v>
+        <f t="shared" si="1"/>
+        <v>3.7006486918421113E-3</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
       </c>
-      <c r="H91" s="7"/>
+      <c r="H91" s="7">
+        <v>5.0270669158180903E-2</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B92" s="6">
-        <v>1.9501852865304207E-11</v>
+        <f t="shared" si="1"/>
+        <v>3.7348253978979514E-8</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="7">
+        <v>5.0734935298016596E-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B93" s="6">
-        <v>1.5694275576837931E-10</v>
-      </c>
-      <c r="C93" t="s">
+        <f t="shared" si="1"/>
+        <v>3.254364930060517E-7</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="7"/>
+      <c r="H93" s="7">
+        <v>4.4208223028493503E-6</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>59</v>
+      <c r="A94" t="s">
+        <v>140</v>
       </c>
       <c r="B94" s="6">
-        <v>2.2895589959482772E-10</v>
-      </c>
-      <c r="C94" t="s">
+        <f t="shared" si="1"/>
+        <v>5.0560843442988125E-8</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="7"/>
+      <c r="H94" s="7">
+        <v>6.8683294328482002E-7</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="6">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B95" s="12">
+        <v>4.1581000000000002E-7</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -2596,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -2604,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -2612,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -2628,7 +2907,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,18 +2947,19 @@
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B106" s="6">
-        <v>1.3767892448060082E-5</v>
+        <f>H106*0.01/76.2</f>
+        <v>2.8582553364908397E-14</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
@@ -2688,37 +2968,43 @@
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="H106" s="6">
+        <v>2.17799056640602E-10</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2">
-        <v>-1.3977879647716511E-2</v>
+        <v>70</v>
+      </c>
+      <c r="B107" s="6">
+        <f t="shared" ref="B107:B170" si="2">H107*0.01/76.2</f>
+        <v>7.7199835570436614E-12</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>120</v>
-      </c>
-      <c r="H107" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="H107" s="6">
+        <v>5.8826274704672697E-8</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B108" s="6">
-        <v>1.7901054497877087E-5</v>
+        <f t="shared" si="2"/>
+        <v>4.1914778786236484E-6</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -2730,19 +3016,22 @@
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>81</v>
-      </c>
-      <c r="H108" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="H108" s="6">
+        <v>3.1939061435112201E-2</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>73</v>
       </c>
       <c r="B109" s="6">
-        <v>5.9811981931681979E-14</v>
+        <f t="shared" si="2"/>
+        <v>8.7174706697196712E-12</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
@@ -2751,37 +3040,43 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>79</v>
-      </c>
-      <c r="H109" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="H109" s="6">
+        <v>6.6427126503263895E-8</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B110" s="6">
-        <v>3.297067296529128E-11</v>
+        <f t="shared" si="2"/>
+        <v>3.2237104600825065E-6</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>109</v>
-      </c>
-      <c r="H110" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="H110" s="6">
+        <v>2.45646737058287E-2</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B111" s="6">
-        <v>7.8861524264811677E-13</v>
+        <f t="shared" si="2"/>
+        <v>7.6856935636427419E-7</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -2793,19 +3088,22 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>117</v>
-      </c>
-      <c r="H111" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="H111" s="6">
+        <v>5.8564984954957702E-3</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B112" s="6">
-        <v>1.1705569685287413E-6</v>
+        <f t="shared" si="2"/>
+        <v>2.5740823633553939E-10</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E112" t="s">
         <v>3</v>
@@ -2814,61 +3112,70 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1.9614507608768098E-6</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B113" s="6">
-        <v>1.8835856524421926E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.8756685851573222E-11</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>116</v>
-      </c>
-      <c r="H113" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="H113" s="6">
+        <v>2.9532594618898798E-7</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B114" s="6">
-        <v>1.6552289327933413E-10</v>
+        <f t="shared" si="2"/>
+        <v>1.9257685206744357E-11</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>122</v>
-      </c>
-      <c r="H114" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1.4674356127539201E-7</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="B115" s="6">
-        <v>1.0510701226379608E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.7408238100380316E-7</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E115" t="s">
         <v>3</v>
@@ -2877,79 +3184,91 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>123</v>
-      </c>
-      <c r="H115" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="H115" s="6">
+        <v>2.08850774324898E-3</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B116" s="6">
-        <v>8.2246139040126106E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.2861280394908242E-11</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>110</v>
-      </c>
-      <c r="H116" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="H116" s="6">
+        <v>9.8002956609200806E-8</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B117" s="6">
-        <v>3.7230762528451906E-11</v>
+        <f t="shared" si="2"/>
+        <v>4.4103589515582022E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>112</v>
-      </c>
-      <c r="H117" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="H117" s="6">
+        <v>0.33606935210873501</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B118" s="6">
-        <v>1.0993446703714942E-9</v>
+        <f t="shared" si="2"/>
+        <v>3.6236248981627562E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>77</v>
-      </c>
-      <c r="H118" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="H118" s="6">
+        <v>0.27612021724000202</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B119" s="6">
-        <v>5.4928234844300414E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.5927932372331495E-10</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -2961,16 +3280,19 @@
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>111</v>
-      </c>
-      <c r="H119" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1.21370844677166E-6</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B120" s="6">
-        <v>6.2769767578233379E-7</v>
+        <f t="shared" si="2"/>
+        <v>5.43944613057479E-6</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -2982,19 +3304,22 @@
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>119</v>
-      </c>
-      <c r="H120" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H120" s="6">
+        <v>4.1448579514979898E-2</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B121" s="6">
-        <v>8.1942215381901685E-11</v>
+        <f t="shared" si="2"/>
+        <v>3.2101194136585955E-14</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E121" t="s">
         <v>3</v>
@@ -3003,16 +3328,19 @@
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>115</v>
-      </c>
-      <c r="H121" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="H121" s="6">
+        <v>2.4461109932078497E-10</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="B122" s="6">
-        <v>1.220709879164903E-13</v>
+        <f t="shared" si="2"/>
+        <v>1.4004795034449737E-14</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -3024,82 +3352,94 @@
         <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>121</v>
-      </c>
-      <c r="H122" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H122" s="6">
+        <v>1.06716538162507E-10</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>72</v>
-      </c>
-      <c r="B123" s="2">
-        <v>2.3230904335265048E-5</v>
+        <v>79</v>
+      </c>
+      <c r="B123" s="6">
+        <f t="shared" si="2"/>
+        <v>-5.842214178067952E-3</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>78</v>
-      </c>
-      <c r="H123" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="H123" s="2">
+        <v>-44.517672036877798</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="B124" s="6">
-        <v>1.5475855691066194E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8465187873133465E-13</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="H124" s="6">
+        <v>1.40704731593277E-9</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B125" s="6">
-        <v>3.2824226518864363E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.469735161589029E-7</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>76</v>
-      </c>
-      <c r="H125" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="H125" s="6">
+        <v>1.1199381931308401E-3</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B126" s="6">
-        <v>1.3709847512654747E-13</v>
+        <f t="shared" si="2"/>
+        <v>2.46104896694311E-6</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E126" t="s">
         <v>3</v>
@@ -3108,37 +3448,43 @@
         <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>113</v>
-      </c>
-      <c r="H126" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="H126" s="6">
+        <v>1.8753193128106499E-2</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.2728783290624278E-3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
         <v>103</v>
-      </c>
-      <c r="B127" s="6">
-        <v>-2.4951054835151778E-2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" t="s">
-        <v>3</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>118</v>
-      </c>
-      <c r="H127" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="H127" s="6">
+        <v>-24.9393328674557</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B128" s="6">
-        <v>6.8025358523241226E-10</v>
+        <f t="shared" si="2"/>
+        <v>1.9186522399525986E-11</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -3150,1128 +3496,1312 @@
         <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>114</v>
-      </c>
-      <c r="H128" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="H128" s="6">
+        <v>1.4620130068438801E-7</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>92</v>
-      </c>
-      <c r="B129" s="6">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B129" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B130" s="6">
-        <v>2.1142266127017261E-18</v>
+        <f t="shared" si="2"/>
+        <v>5.2207543390071923E-11</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
       </c>
-      <c r="H130" s="7"/>
+      <c r="H130" s="7">
+        <v>3.9782148063234802E-7</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B131" s="6">
-        <v>7.6188849398072539E-12</v>
+        <f t="shared" si="2"/>
+        <v>3.1071924295205902E-13</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="7"/>
+      <c r="H131" s="7">
+        <v>2.3676806312946898E-9</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B132" s="6">
-        <v>9.7189805711087882E-14</v>
+        <f t="shared" si="2"/>
+        <v>2.3303943221404332E-12</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="7"/>
+      <c r="H132" s="7">
+        <v>1.7757604734710101E-8</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133" s="2">
-        <v>1.1652000937237194E-5</v>
+        <v>117</v>
+      </c>
+      <c r="B133" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7839389120215222E-12</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="7"/>
+      <c r="H133" s="7">
+        <v>1.3593614509604001E-8</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B134" s="6">
-        <v>7.2986455958528754E-13</v>
+        <f t="shared" si="2"/>
+        <v>6.442365888547428E-16</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
       </c>
-      <c r="H134" s="7"/>
+      <c r="H134" s="7">
+        <v>4.9090828070731402E-12</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B135" s="6">
-        <v>8.2338239745277979E-6</v>
+        <f t="shared" si="2"/>
+        <v>4.0416383265664179E-12</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="7"/>
+      <c r="H135" s="7">
+        <v>3.0797284048436102E-8</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B136" s="6">
-        <v>2.5242351369056551E-8</v>
+        <f t="shared" si="2"/>
+        <v>6.2995490712803937E-9</v>
       </c>
       <c r="C136" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="7"/>
+      <c r="H136" s="7">
+        <v>4.8002563923156597E-5</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B137" s="6">
-        <v>1.771261510769017E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.5535962147602885E-11</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="7"/>
+      <c r="H137" s="7">
+        <v>1.1838403156473399E-7</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B138" s="6">
-        <v>7.5038572177616863E-10</v>
+        <f t="shared" si="2"/>
+        <v>1.7089558362363125E-13</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
         <v>20</v>
       </c>
-      <c r="H138" s="7"/>
+      <c r="H138" s="7">
+        <v>1.3022243472120701E-9</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>40</v>
-      </c>
-      <c r="B139" s="2">
-        <v>1.4306411787920973E-5</v>
+        <v>120</v>
+      </c>
+      <c r="B139" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9090840327334385E-13</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
-      <c r="H139" s="7"/>
+      <c r="H139" s="7">
+        <v>1.45472203294288E-9</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B140" s="6">
-        <v>2.6903931863274184E-8</v>
+        <f t="shared" si="2"/>
+        <v>4.1473553641916932E-7</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
       </c>
-      <c r="H140" s="7"/>
+      <c r="H140" s="7">
+        <v>3.1602847875140702E-3</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B141" s="6">
-        <v>5.3081058878930453E-10</v>
+        <f t="shared" si="2"/>
+        <v>1.9279250308861546E-6</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
       </c>
-      <c r="H141" s="7"/>
+      <c r="H141" s="7">
+        <v>1.4690788735352499E-2</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>128</v>
-      </c>
-      <c r="B142" s="2">
-        <v>8.5695003696066594E-8</v>
+        <v>61</v>
+      </c>
+      <c r="B142" s="6">
+        <f t="shared" si="2"/>
+        <v>3.377383075565853E-7</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
       </c>
-      <c r="H142" s="7"/>
+      <c r="H142" s="7">
+        <v>2.5735659035811798E-3</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="B143" s="6">
-        <v>1.3270264719732595E-12</v>
+        <f t="shared" si="2"/>
+        <v>1.5535962147602887E-10</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
       </c>
-      <c r="H143" s="7"/>
+      <c r="H143" s="7">
+        <v>1.1838403156473401E-6</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B144" s="6">
-        <v>1.3342352525758381E-8</v>
+        <f t="shared" si="2"/>
+        <v>3.3049733520100919E-13</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
       </c>
-      <c r="H144" s="7"/>
+      <c r="H144" s="7">
+        <v>2.5183896942316898E-9</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B145" s="6">
-        <v>1.2606751483745938E-9</v>
+        <f t="shared" si="2"/>
+        <v>3.1071924295205899E-11</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
         <v>20</v>
       </c>
-      <c r="H145" s="7"/>
+      <c r="H145" s="7">
+        <v>2.36768063129469E-7</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B146" s="6">
-        <v>2.751419575761204E-15</v>
+        <f t="shared" si="2"/>
+        <v>4.7222458389326908E-13</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
         <v>20</v>
       </c>
-      <c r="H146" s="7"/>
+      <c r="H146" s="7">
+        <v>3.5983513292667102E-9</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147" s="6">
-        <v>6.6351323598663266E-10</v>
+        <f t="shared" si="2"/>
+        <v>6.2994744396920993E-9</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
         <v>20</v>
       </c>
-      <c r="H147" s="7"/>
+      <c r="H147" s="7">
+        <v>4.8001995230453797E-5</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" s="2">
-        <v>1.2915160415502522E-6</v>
+        <v>41</v>
+      </c>
+      <c r="B148" s="6">
+        <f t="shared" si="2"/>
+        <v>2.8707756148051313E-5</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
         <v>20</v>
       </c>
-      <c r="H148" s="7"/>
+      <c r="H148" s="7">
+        <v>0.218753101848151</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B149" s="6">
-        <v>1.7261116493911112E-11</v>
+        <f t="shared" si="2"/>
+        <v>7.7679810738014708E-11</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
-      <c r="H149" s="7"/>
+      <c r="H149" s="7">
+        <v>5.9192015782367205E-7</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="B150" s="6">
-        <v>9.2891853038128017E-11</v>
+        <f t="shared" si="2"/>
+        <v>4.7860706504879529E-12</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
         <v>20</v>
       </c>
-      <c r="H150" s="7"/>
+      <c r="H150" s="7">
+        <v>3.6469858356718201E-8</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B151" s="12">
-        <v>8.1637079965790262E-11</v>
+        <v>42</v>
+      </c>
+      <c r="B151" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9556342715255383E-20</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
         <v>20</v>
       </c>
-      <c r="H151" s="7"/>
+      <c r="H151" s="7">
+        <v>1.4901933149024601E-16</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>60</v>
-      </c>
-      <c r="B152" s="7">
-        <v>6.3674722643244024E-11</v>
+        <v>42</v>
+      </c>
+      <c r="B152" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0650291792000261E-9</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F152" t="s">
         <v>20</v>
       </c>
-      <c r="H152" s="7"/>
+      <c r="H152" s="7">
+        <v>1.5735522345504199E-5</v>
+      </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>55</v>
-      </c>
-      <c r="B153" s="7">
-        <v>6.2801718476776709E-11</v>
+        <v>29</v>
+      </c>
+      <c r="B153" s="6">
+        <f t="shared" si="2"/>
+        <v>3.1240715717136483E-9</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
       </c>
-      <c r="H153" s="7"/>
+      <c r="H153" s="7">
+        <v>2.3805425376457999E-5</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>51</v>
-      </c>
-      <c r="B154">
-        <v>3.2614689146019956E-7</v>
+        <v>31</v>
+      </c>
+      <c r="B154" s="6">
+        <f t="shared" si="2"/>
+        <v>2.464410656174567E-9</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
-      <c r="H154" s="7"/>
+      <c r="H154" s="7">
+        <v>1.87788092000502E-5</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>84</v>
-      </c>
-      <c r="B155">
-        <v>1.442420078231807E-6</v>
+        <v>40</v>
+      </c>
+      <c r="B155" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4759164040222705E-9</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
-      <c r="H155" s="7"/>
+      <c r="H155" s="7">
+        <v>1.1246482998649701E-5</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>61</v>
-      </c>
-      <c r="B156" s="7">
-        <v>6.3033757418729969E-9</v>
+        <v>125</v>
+      </c>
+      <c r="B156" s="6">
+        <f t="shared" si="2"/>
+        <v>6.432929484385866E-3</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F156" t="s">
         <v>20</v>
       </c>
-      <c r="H156" s="7"/>
+      <c r="H156" s="7">
+        <v>49.018922671020299</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B157" s="7">
-        <v>2.5242351369056551E-8</v>
+        <v>126</v>
+      </c>
+      <c r="B157" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7215205154044493E-10</v>
       </c>
       <c r="C157" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
-      <c r="H157" s="7"/>
+      <c r="H157" s="7">
+        <v>2.0737986327381901E-6</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>27</v>
-      </c>
-      <c r="B158">
-        <v>3.3739089040937451E-6</v>
+        <v>127</v>
+      </c>
+      <c r="B158" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7570055181010894E-10</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
       </c>
-      <c r="H158" s="7"/>
+      <c r="H158" s="7">
+        <v>1.33883820479303E-6</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="B159" s="6">
-        <v>6.635132359866326E-11</v>
+        <f t="shared" si="2"/>
+        <v>2.1750347006644095E-11</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
       </c>
-      <c r="H159" s="7"/>
+      <c r="H159" s="7">
+        <v>1.65737644190628E-7</v>
+      </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B160" s="6">
-        <v>6.3033757418729969E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.6916610492380577E-12</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
         <v>20</v>
       </c>
-      <c r="H160" s="7"/>
+      <c r="H160" s="7">
+        <v>1.2890457195194E-8</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>86</v>
-      </c>
-      <c r="B161" s="2">
-        <v>1.2260570667422486E-4</v>
+        <v>129</v>
+      </c>
+      <c r="B161" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4759164040222705E-9</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
         <v>20</v>
       </c>
-      <c r="H161" s="7"/>
+      <c r="H161" s="7">
+        <v>1.1246482998649701E-5</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>56</v>
-      </c>
-      <c r="B162" s="2">
-        <v>2.9350765643123529E-6</v>
+        <v>129</v>
+      </c>
+      <c r="B162" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4909244112870866E-11</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
       </c>
-      <c r="H162" s="7"/>
+      <c r="H162" s="7">
+        <v>1.13608440140076E-7</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B163" s="6">
-        <v>3.3175661799331468E-13</v>
+        <f t="shared" si="2"/>
+        <v>7.7679810738014566E-14</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
       </c>
-      <c r="H163" s="7"/>
+      <c r="H163" s="7">
+        <v>5.91920157823671E-10</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B164" s="6">
-        <v>2.6904250601477746E-8</v>
+        <f t="shared" si="2"/>
+        <v>2.275669965219449E-14</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
       </c>
-      <c r="H164" s="7"/>
+      <c r="H164" s="7">
+        <v>1.7340605134972201E-10</v>
+      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B165" s="6">
-        <v>1.433062377195135E-10</v>
+        <f t="shared" si="2"/>
+        <v>2.7282808493725065E-6</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
       </c>
-      <c r="H165" s="7"/>
+      <c r="H165" s="7">
+        <v>2.0789500072218501E-2</v>
+      </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="B166" s="6">
-        <v>1.2915016350067256E-6</v>
+        <f t="shared" si="2"/>
+        <v>4.9503977984021124E-19</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
       </c>
-      <c r="H166" s="7"/>
+      <c r="H166" s="7">
+        <v>3.7722031223824099E-15</v>
+      </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="B167" s="6">
-        <v>1.4114951766795707E-12</v>
+        <f t="shared" si="2"/>
+        <v>1.2428769718082375E-10</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
       </c>
-      <c r="H167" s="7"/>
+      <c r="H167" s="7">
+        <v>9.4707225251787704E-7</v>
+      </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="B168" s="6">
-        <v>1.0525058401552685E-8</v>
+        <f t="shared" si="2"/>
+        <v>1.4704832822344487E-11</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
       </c>
-      <c r="H168" s="7"/>
+      <c r="H168" s="7">
+        <v>1.12050826106265E-7</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B169" s="6">
-        <v>4.1378338373209179E-8</v>
+        <f t="shared" si="2"/>
+        <v>1.8526365463546458E-12</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
       </c>
-      <c r="H169" s="7"/>
+      <c r="H169" s="7">
+        <v>1.4117090483222401E-8</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B170" s="6">
-        <v>3.3175661799331468E-13</v>
+        <f t="shared" si="2"/>
+        <v>1.3749122897498032E-8</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
       </c>
-      <c r="H170" s="7"/>
+      <c r="H170" s="7">
+        <v>1.04768316478935E-4</v>
+      </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B171" s="6">
-        <v>8.153357431582166E-13</v>
+        <f t="shared" ref="B171:B190" si="3">H171*0.01/76.2</f>
+        <v>1.7777191187115878E-7</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D171" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
       </c>
-      <c r="H171" s="7"/>
+      <c r="H171" s="7">
+        <v>1.3546219684582299E-3</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B172" s="6">
-        <v>3.3175661799331473E-10</v>
+        <f t="shared" si="3"/>
+        <v>7.6366310202531106E-8</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
       </c>
-      <c r="H172" s="7"/>
+      <c r="H172" s="7">
+        <v>5.8191128374328696E-4</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B173" s="6">
-        <v>1.9586248063534918E-10</v>
+        <f t="shared" si="3"/>
+        <v>7.8999058617901046E-7</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
       </c>
-      <c r="H173" s="7"/>
+      <c r="H173" s="7">
+        <v>6.0197282666840596E-3</v>
+      </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="B174" s="6">
-        <v>7.9122802842856182E-12</v>
+        <f t="shared" si="3"/>
+        <v>6.8723931837875318E-7</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
       </c>
-      <c r="H174" s="7"/>
+      <c r="H174" s="7">
+        <v>5.2367636060460998E-3</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>59</v>
-      </c>
-      <c r="B175" s="6">
-        <v>7.2247826449915928E-12</v>
+        <v>136</v>
+      </c>
+      <c r="B175" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
       </c>
-      <c r="H175" s="7"/>
+      <c r="H175" s="7">
+        <v>3.69591112394996E-7</v>
+      </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B176" s="6">
-        <v>2.2296910695681428E-10</v>
+        <f t="shared" si="3"/>
+        <v>8.0104146242208516E-8</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F176" t="s">
         <v>20</v>
       </c>
-      <c r="H176" s="7"/>
+      <c r="H176" s="7">
+        <v>6.1039359436562896E-4</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B177" s="6">
-        <v>1.1623128756519449E-9</v>
+        <f t="shared" si="3"/>
+        <v>7.7679810738014566E-14</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
       </c>
-      <c r="H177" s="7"/>
+      <c r="H177" s="7">
+        <v>5.91920157823671E-10</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B178" s="6">
-        <v>1.0524710199927754E-8</v>
+        <f t="shared" si="3"/>
+        <v>9.6886130348398687E-9</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
       </c>
-      <c r="H178" s="7"/>
+      <c r="H178" s="7">
+        <v>7.3827231325479805E-5</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B179" s="6">
-        <v>2.0167869797481898E-12</v>
+        <f t="shared" si="3"/>
+        <v>1.4248186806822178E-6</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
         <v>20</v>
       </c>
-      <c r="H179" s="7"/>
+      <c r="H179" s="7">
+        <v>1.08571183467985E-2</v>
+      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B180" s="6">
-        <v>9.9526985397994629E-12</v>
+        <f t="shared" si="3"/>
+        <v>6.9028381168060753E-9</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F180" t="s">
         <v>20</v>
       </c>
-      <c r="H180" s="7"/>
+      <c r="H180" s="7">
+        <v>5.2599626450062298E-5</v>
+      </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>124</v>
-      </c>
-      <c r="B181" s="2">
-        <v>2.7473894558356911E-2</v>
+        <v>38</v>
+      </c>
+      <c r="B181" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4643291258150918E-9</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
         <v>20</v>
       </c>
-      <c r="H181" s="7"/>
+      <c r="H181" s="7">
+        <v>1.8778187938711E-5</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>32</v>
-      </c>
-      <c r="B182" s="2">
-        <v>6.0851464784209167E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B182" s="6">
+        <f t="shared" si="3"/>
+        <v>5.9104203822402483E-9</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F182" t="s">
         <v>20</v>
       </c>
-      <c r="H182" s="7"/>
+      <c r="H182" s="7">
+        <v>4.5037403312670698E-5</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>63</v>
+      </c>
+      <c r="B183" s="6">
+        <f t="shared" si="3"/>
+        <v>5.9104203822402483E-9</v>
+      </c>
+      <c r="C183" t="s">
         <v>65</v>
       </c>
-      <c r="B183" s="6">
-        <v>8.819371340378994E-9</v>
-      </c>
-      <c r="C183" t="s">
-        <v>7</v>
-      </c>
       <c r="D183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F183" t="s">
         <v>20</v>
       </c>
-      <c r="H183" s="7"/>
+      <c r="H183" s="7">
+        <v>4.5037403312670698E-5</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B184" s="6">
-        <v>2.0440454184911053E-11</v>
+        <f t="shared" si="3"/>
+        <v>3.0240458285222569E-7</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F184" t="s">
         <v>20</v>
       </c>
-      <c r="H184" s="7"/>
+      <c r="H184" s="7">
+        <v>2.3043229213339598E-3</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="B185" s="6">
-        <v>3.4211052256789041E-7</v>
+        <f t="shared" si="3"/>
+        <v>1.9115075862855906E-11</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
         <v>20</v>
       </c>
-      <c r="H185" s="7"/>
+      <c r="H185" s="7">
+        <v>1.4565687807496199E-7</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>58</v>
-      </c>
-      <c r="B186" s="2">
-        <v>5.8720051832157274E-8</v>
+        <v>21</v>
+      </c>
+      <c r="B186" s="6">
+        <f t="shared" si="3"/>
+        <v>3.0240120960354332E-7</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
         <v>20</v>
       </c>
-      <c r="H186" s="7"/>
+      <c r="H186" s="7">
+        <v>2.3042972171789999E-3</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>33</v>
       </c>
       <c r="B187" s="6">
-        <v>1.3270264719732598E-10</v>
+        <f t="shared" si="3"/>
+        <v>3.3498031380588585E-6</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F187" t="s">
         <v>20</v>
       </c>
-      <c r="H187" s="7"/>
+      <c r="H187" s="7">
+        <v>2.55254999120085E-2</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>83</v>
-      </c>
-      <c r="B188" s="2">
-        <v>7.592321311838583E-7</v>
+        <v>32</v>
+      </c>
+      <c r="B188" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3554723010387924E-11</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F188" t="s">
         <v>20</v>
       </c>
-      <c r="H188" s="7"/>
+      <c r="H188" s="7">
+        <v>2.5568698933915598E-7</v>
+      </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>65</v>
-      </c>
-      <c r="B189" s="2">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B189" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9518328080445537E-10</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
         <v>20</v>
       </c>
-      <c r="H189" s="7"/>
+      <c r="H189" s="7">
+        <v>2.24929659972995E-6</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>125</v>
-      </c>
-      <c r="B190" s="2">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="B190" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5860608654801704E-11</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F190" t="s">
         <v>20</v>
       </c>
-      <c r="H190" s="7"/>
+      <c r="H190" s="7">
+        <v>3.4945783794958899E-7</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
@@ -4281,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -4289,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -4297,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -4313,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -4353,78 +4883,91 @@
         <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>72</v>
-      </c>
-      <c r="B201" s="2">
-        <v>2.1202574345969254E-4</v>
+        <v>82</v>
+      </c>
+      <c r="B201" s="6">
+        <f>H201*0.09/0.8121</f>
+        <v>6.4300777382446765E-11</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="H201" s="6">
+        <v>5.8020734791427803E-10</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B202" s="6">
-        <v>1.1456994255412145E-12</v>
+        <f t="shared" ref="B202:B265" si="4">H202*0.09/0.8121</f>
+        <v>1.736727078788766E-8</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="H202" s="6">
+        <v>1.5671067340937299E-7</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>138</v>
-      </c>
-      <c r="B203" s="2">
-        <v>1.412463226234449E-3</v>
+        <v>52</v>
+      </c>
+      <c r="B203" s="6">
+        <f t="shared" si="4"/>
+        <v>4.4928545106554555E-3</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="H203" s="6">
+        <v>4.0540523867814399E-2</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>24</v>
-      </c>
-      <c r="B204" s="2">
-        <v>1.0683536376045209E-5</v>
+        <v>73</v>
+      </c>
+      <c r="B204" s="6">
+        <f t="shared" si="4"/>
+        <v>9.3442763039984252E-9</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E204" t="s">
         <v>3</v>
@@ -4433,15 +4976,19 @@
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="H204" s="6">
+        <v>8.4316519849745797E-8</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>74</v>
-      </c>
-      <c r="B205" s="2">
-        <v>1.2565794211212409E-4</v>
+        <v>51</v>
+      </c>
+      <c r="B205" s="6">
+        <f t="shared" si="4"/>
+        <v>3.4555024506976134E-3</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -4453,15 +5000,19 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="H205" s="2">
+        <v>3.1180150446794799E-2</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B206" s="6">
-        <v>7.1975989704494349E-12</v>
+        <f t="shared" si="4"/>
+        <v>1.7290130260798667E-3</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -4473,18 +5024,22 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>117</v>
+        <v>53</v>
+      </c>
+      <c r="H206" s="6">
+        <v>1.5601460871994001E-2</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>75</v>
-      </c>
-      <c r="B207" s="2">
-        <v>1.6338082813518534E-4</v>
+        <v>48</v>
+      </c>
+      <c r="B207" s="6">
+        <f t="shared" si="4"/>
+        <v>5.7907876492730291E-7</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E207" t="s">
         <v>3</v>
@@ -4493,58 +5048,70 @@
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="H207" s="6">
+        <v>5.2252207221940298E-6</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B208" s="6">
-        <v>6.3155374318122618E-10</v>
+        <f t="shared" si="4"/>
+        <v>4.1543378228080937E-8</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="H208" s="6">
+        <v>3.7485974954471699E-7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>70</v>
-      </c>
-      <c r="B209" s="2">
-        <v>6.2874855926781581E-5</v>
+        <v>71</v>
+      </c>
+      <c r="B209" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0642355835196563E-8</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H209" s="6">
+        <v>1.8626285748625699E-7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B210" s="6">
-        <v>1.0521511756455223E-9</v>
+        <f t="shared" si="4"/>
+        <v>2.9378951707326558E-4</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
         <v>3</v>
@@ -4553,15 +5120,19 @@
         <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H210" s="6">
+        <v>2.6509607423910999E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B211" s="6">
-        <v>1.5107080637353846E-9</v>
+        <f t="shared" si="4"/>
+        <v>2.8933395731591388E-8</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -4573,98 +5144,118 @@
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="H211" s="6">
+        <v>2.6107567415139299E-7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>104</v>
+      </c>
+      <c r="B212" s="6">
+        <f t="shared" si="4"/>
+        <v>9.9217696019067977E-2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" t="s">
         <v>106</v>
-      </c>
-      <c r="B212" s="6">
-        <v>2.3382716341170155E-12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="E212" t="s">
-        <v>3</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H212" s="6">
+        <v>0.89527434374539006</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B213" s="6">
-        <v>2.6261233806710061E-12</v>
+        <f t="shared" si="4"/>
+        <v>3.8841716311240441E-2</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E213" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H213" s="6">
+        <v>0.35048175351509298</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B214" s="6">
-        <v>7.5065087975074027E-10</v>
+        <f t="shared" si="4"/>
+        <v>1.707318632633295E-7</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H214" s="6">
+        <v>1.54057051284611E-6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>137</v>
-      </c>
-      <c r="B215" s="2">
-        <v>3.6080111881689868E-3</v>
+        <v>49</v>
+      </c>
+      <c r="B215" s="6">
+        <f t="shared" si="4"/>
+        <v>5.8305544705022014E-3</v>
       </c>
       <c r="C215" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H215" s="6">
+        <v>5.2611036505498199E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B216" s="6">
-        <v>3.3980080976370748E-10</v>
+        <f t="shared" si="4"/>
+        <v>7.2216492051459696E-11</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E216" t="s">
         <v>3</v>
@@ -4673,35 +5264,43 @@
         <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="H216" s="6">
+        <v>6.5163347994433803E-10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>105</v>
-      </c>
-      <c r="B217" s="2">
-        <v>-0.27291143548390223</v>
+        <v>50</v>
+      </c>
+      <c r="B217" s="6">
+        <f t="shared" si="4"/>
+        <v>3.15059048889082E-11</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E217" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="F217" t="s">
         <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H217" s="6">
+        <v>2.84288281780915E-10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B218" s="6">
-        <v>6.2085948126899509E-9</v>
+        <f t="shared" si="4"/>
+        <v>-13.142944525933432</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
@@ -4713,55 +5312,67 @@
         <v>13</v>
       </c>
       <c r="G218" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H218" s="6">
+        <v>-118.593169439006</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>104</v>
-      </c>
-      <c r="B219" s="2">
-        <v>5.7289231815930904E-6</v>
+        <v>78</v>
+      </c>
+      <c r="B219" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9792876171196672E-10</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F219" t="s">
         <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="H219" s="6">
+        <v>1.7859771931809801E-9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>108</v>
-      </c>
-      <c r="B220" s="2">
-        <v>2.0133264219288286E-4</v>
+        <v>80</v>
+      </c>
+      <c r="B220" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5754124061803472E-4</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F220" t="s">
         <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H220" s="2">
+        <v>1.4215471278433999E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>103</v>
-      </c>
-      <c r="B221" s="2">
-        <v>-0.47793783566531123</v>
+        <v>84</v>
+      </c>
+      <c r="B221" s="6">
+        <f t="shared" si="4"/>
+        <v>5.5365019258564593E-3</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -4773,35 +5384,43 @@
         <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="H221" s="2">
+        <v>4.9957702377644797E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B222" s="6">
-        <v>2.1057963916913093E-8</v>
+        <f t="shared" si="4"/>
+        <v>-7.5048669291158134</v>
       </c>
       <c r="C222" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F222" t="s">
         <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H222" s="6">
+        <v>-67.718915923721696</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B223" s="6">
-        <v>1.5696043845838651E-9</v>
+        <f t="shared" si="4"/>
+        <v>4.3162984419366603E-8</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
@@ -4813,1084 +5432,1317 @@
         <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H223" s="6">
+        <v>3.8947399607741801E-7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>92</v>
-      </c>
-      <c r="B224" s="6">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B224" s="12">
+        <v>6.3340000000000005E-7</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F224" t="s">
         <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>87</v>
-      </c>
-      <c r="B225" s="2">
-        <v>4.8351762521212796E-7</v>
+        <v>115</v>
+      </c>
+      <c r="B225" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1710942830160917E-7</v>
       </c>
       <c r="C225" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F225" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H225" s="6">
+        <v>1.0567174080415201E-6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B226" s="6">
-        <v>3.8631585336458807E-11</v>
+        <f t="shared" si="4"/>
+        <v>6.9900993849038565E-10</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F226" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H226" s="6">
+        <v>6.3073996783115798E-9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B227" s="6">
-        <v>1.5617768587346975E-11</v>
+        <f t="shared" si="4"/>
+        <v>5.2425745386778862E-9</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F227" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H227" s="6">
+        <v>4.7305497587336797E-8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>85</v>
-      </c>
-      <c r="B228" s="2">
-        <v>4.8351762521212796E-7</v>
+        <v>117</v>
+      </c>
+      <c r="B228" s="6">
+        <f t="shared" si="4"/>
+        <v>4.0132404331172179E-9</v>
       </c>
       <c r="C228" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F228" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H228" s="6">
+        <v>3.6212806174827699E-8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B229" s="6">
-        <v>2.5419212296866186E-9</v>
+        <f t="shared" si="4"/>
+        <v>1.4493076581616401E-12</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F229" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H229" s="6">
+        <v>1.30775861021452E-11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>56</v>
-      </c>
-      <c r="B230" s="2">
-        <v>5.6221436325134324E-5</v>
+        <v>119</v>
+      </c>
+      <c r="B230" s="6">
+        <f t="shared" si="4"/>
+        <v>9.0922767808412895E-9</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H230" s="6">
+        <v>8.2042644152457905E-8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B231" s="6">
-        <v>3.3063694953065526E-10</v>
+        <f t="shared" si="4"/>
+        <v>1.4171788547747766E-5</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F231" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H231" s="6">
+        <v>1.2787677199584401E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>34</v>
       </c>
       <c r="B232" s="6">
-        <v>2.0160765410215091E-7</v>
+        <f t="shared" si="4"/>
+        <v>3.4950496924519175E-8</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F232" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H232" s="6">
+        <v>3.1536998391557802E-7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>120</v>
+      </c>
+      <c r="B233" s="6">
+        <f t="shared" si="4"/>
+        <v>3.8445546616971109E-10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" t="s">
+        <v>45</v>
+      </c>
+      <c r="F233" t="s">
+        <v>20</v>
+      </c>
+      <c r="H233" s="6">
+        <v>3.46906982307136E-9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2947733124461767E-10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" t="s">
+        <v>44</v>
+      </c>
+      <c r="F234" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234" s="6">
+        <v>3.8753171189306E-9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B235" s="6">
+        <f t="shared" si="4"/>
+        <v>9.3301032484451344E-4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" t="s">
+        <v>44</v>
+      </c>
+      <c r="F235" t="s">
+        <v>20</v>
+      </c>
+      <c r="H235" s="9">
+        <v>8.41886316451366E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" s="6">
+        <f t="shared" si="4"/>
+        <v>4.3371589878060286E-3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" t="s">
+        <v>45</v>
+      </c>
+      <c r="F236" t="s">
+        <v>20</v>
+      </c>
+      <c r="H236" s="7">
+        <v>3.9135631266636398E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>61</v>
+      </c>
+      <c r="B237" s="6">
+        <f t="shared" si="4"/>
+        <v>7.5979341140259237E-4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" t="s">
+        <v>45</v>
+      </c>
+      <c r="F237" t="s">
+        <v>20</v>
+      </c>
+      <c r="H237">
+        <v>6.8558692155560597E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" s="6">
+        <f t="shared" si="4"/>
+        <v>3.4950496924519166E-7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>45</v>
+      </c>
+      <c r="F238" t="s">
+        <v>20</v>
+      </c>
+      <c r="H238" s="7">
+        <v>3.1536998391557799E-6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>122</v>
+      </c>
+      <c r="B239" s="6">
+        <f t="shared" si="4"/>
+        <v>7.4350374877084065E-10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" t="s">
+        <v>44</v>
+      </c>
+      <c r="F239" t="s">
+        <v>20</v>
+      </c>
+      <c r="H239" s="7">
+        <v>6.7088821597422201E-9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>123</v>
+      </c>
+      <c r="B240" s="6">
+        <f t="shared" si="4"/>
+        <v>6.9900993849038562E-8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>45</v>
+      </c>
+      <c r="F240" t="s">
+        <v>20</v>
+      </c>
+      <c r="H240" s="7">
+        <v>6.3073996783115805E-7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B241" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0623406333151139E-9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" t="s">
+        <v>44</v>
+      </c>
+      <c r="F241" t="s">
+        <v>20</v>
+      </c>
+      <c r="H241" s="7">
+        <v>9.5858536479467105E-9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>35</v>
+      </c>
+      <c r="B242" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4171620652700665E-5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" t="s">
+        <v>44</v>
+      </c>
+      <c r="F242" t="s">
+        <v>20</v>
+      </c>
+      <c r="H242">
+        <v>1.27875257022869E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5832975984071405E-2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" t="s">
+        <v>20</v>
+      </c>
+      <c r="H243" s="6">
+        <v>0.23309955329627099</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" s="6">
+        <f t="shared" si="4"/>
+        <v>1.7475248462259583E-7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
+        <v>45</v>
+      </c>
+      <c r="F244" t="s">
+        <v>20</v>
+      </c>
+      <c r="H244" s="6">
+        <v>1.5768499195778899E-6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>124</v>
+      </c>
+      <c r="B245" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0766989901312282E-8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" t="s">
+        <v>44</v>
+      </c>
+      <c r="F245" t="s">
+        <v>20</v>
+      </c>
+      <c r="H245" s="6">
+        <v>9.7154138876174502E-8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>42</v>
+      </c>
+      <c r="B246" s="6">
+        <f t="shared" si="4"/>
+        <v>4.3994951161092939E-17</v>
+      </c>
+      <c r="C246" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" t="s">
+        <v>45</v>
+      </c>
+      <c r="F246" t="s">
+        <v>20</v>
+      </c>
+      <c r="H246" s="6">
+        <v>3.9698110931026202E-16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>42</v>
+      </c>
+      <c r="B247" s="6">
+        <f t="shared" si="4"/>
+        <v>4.6455955087280454E-6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" t="s">
+        <v>44</v>
+      </c>
+      <c r="F247" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" s="6">
+        <v>4.1918756807089403E-5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248" s="6">
+        <f t="shared" si="4"/>
+        <v>7.0280715685190346E-6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" t="s">
+        <v>44</v>
+      </c>
+      <c r="F248" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" s="6">
+        <v>6.3416632453270098E-5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>31</v>
+      </c>
+      <c r="B249" s="6">
+        <f t="shared" si="4"/>
+        <v>5.5440645542942143E-6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" t="s">
+        <v>44</v>
+      </c>
+      <c r="F249" t="s">
+        <v>20</v>
+      </c>
+      <c r="H249" s="6">
+        <v>5.0025942494914798E-5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>40</v>
+      </c>
+      <c r="B250" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3202972078293201E-6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" t="s">
+        <v>45</v>
+      </c>
+      <c r="F250" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="6">
+        <v>2.99601484719799E-5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>125</v>
+      </c>
+      <c r="B251" s="6">
+        <f t="shared" si="4"/>
+        <v>14.500849749007756</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" t="s">
+        <v>27</v>
+      </c>
+      <c r="F251" t="s">
+        <v>20</v>
+      </c>
+      <c r="H251" s="6">
+        <v>130.84600090187999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>126</v>
+      </c>
+      <c r="B252" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4513050837379274E-7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" t="s">
+        <v>27</v>
+      </c>
+      <c r="F252" t="s">
+        <v>20</v>
+      </c>
+      <c r="H252" s="6">
+        <v>2.2118942872261901E-6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>127</v>
+      </c>
+      <c r="B253" s="6">
+        <f t="shared" si="4"/>
+        <v>3.9526496893680195E-7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>44</v>
+      </c>
+      <c r="F253" t="s">
+        <v>20</v>
+      </c>
+      <c r="H253" s="6">
+        <v>3.5666075697064099E-6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>128</v>
+      </c>
+      <c r="B254" s="6">
+        <f t="shared" si="4"/>
+        <v>4.8930695694326925E-8</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" t="s">
+        <v>45</v>
+      </c>
+      <c r="F254" t="s">
+        <v>20</v>
+      </c>
+      <c r="H254" s="6">
+        <v>4.4151797748180999E-7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>128</v>
+      </c>
+      <c r="B255" s="6">
+        <f t="shared" si="4"/>
+        <v>3.8056474222194348E-9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" t="s">
+        <v>44</v>
+      </c>
+      <c r="F255" t="s">
+        <v>20</v>
+      </c>
+      <c r="H255" s="6">
+        <v>3.4339625239826703E-8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>129</v>
+      </c>
+      <c r="B256" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3202972078293201E-6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" t="s">
+        <v>45</v>
+      </c>
+      <c r="F256" t="s">
+        <v>20</v>
+      </c>
+      <c r="H256" s="6">
+        <v>2.99601484719799E-5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>129</v>
+      </c>
+      <c r="B257" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3540599903830328E-8</v>
+      </c>
+      <c r="C257" t="s">
+        <v>7</v>
+      </c>
+      <c r="D257" t="s">
+        <v>44</v>
+      </c>
+      <c r="F257" t="s">
+        <v>20</v>
+      </c>
+      <c r="H257" s="6">
+        <v>3.0264801313222901E-7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>130</v>
       </c>
-      <c r="B233" s="6">
-        <v>8.9140713024038109E-9</v>
-      </c>
-      <c r="C233" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" t="s">
-        <v>28</v>
-      </c>
-      <c r="F233" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>40</v>
-      </c>
-      <c r="B234" s="2">
-        <v>2.7507252317655477E-4</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="B258" s="6">
+        <f t="shared" si="4"/>
+        <v>1.7475248462259587E-10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" t="s">
+        <v>45</v>
+      </c>
+      <c r="F258" t="s">
+        <v>20</v>
+      </c>
+      <c r="H258" s="6">
+        <v>1.57684991957789E-9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>130</v>
+      </c>
+      <c r="B259" s="6">
+        <f t="shared" si="4"/>
+        <v>5.1194638198120977E-11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>44</v>
+      </c>
+      <c r="F259" t="s">
+        <v>20</v>
+      </c>
+      <c r="H259" s="6">
+        <v>4.61946285341045E-10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>101</v>
+      </c>
+      <c r="B260" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8124613428687625E-3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" t="s">
+        <v>27</v>
+      </c>
+      <c r="F260" t="s">
+        <v>20</v>
+      </c>
+      <c r="H260" s="6">
+        <v>1.63544428504858E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>131</v>
+      </c>
+      <c r="B261" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1136668677768083E-15</v>
+      </c>
+      <c r="C261" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" t="s">
+        <v>45</v>
+      </c>
+      <c r="F261" t="s">
+        <v>20</v>
+      </c>
+      <c r="H261" s="6">
+        <v>1.00489873702394E-14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>132</v>
+      </c>
+      <c r="B262" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7960397539615287E-7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>45</v>
+      </c>
+      <c r="F262" t="s">
+        <v>20</v>
+      </c>
+      <c r="H262" s="6">
+        <v>2.5229598713246199E-6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>132</v>
+      </c>
+      <c r="B263" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3080745785173031E-8</v>
+      </c>
+      <c r="C263" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" t="s">
+        <v>44</v>
+      </c>
+      <c r="F263" t="s">
+        <v>20</v>
+      </c>
+      <c r="H263" s="6">
+        <v>2.98498596134878E-7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" s="6">
+        <f t="shared" si="4"/>
+        <v>4.1677861532129591E-9</v>
+      </c>
+      <c r="C264" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" t="s">
+        <v>45</v>
+      </c>
+      <c r="F264" t="s">
+        <v>20</v>
+      </c>
+      <c r="H264" s="6">
+        <v>3.7607323722491603E-8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>39</v>
+      </c>
+      <c r="B265" s="6">
+        <f t="shared" si="4"/>
+        <v>3.093073174215903E-5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" t="s">
+        <v>44</v>
+      </c>
+      <c r="F265" t="s">
+        <v>20</v>
+      </c>
+      <c r="H265" s="2">
+        <v>2.7909830275341498E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>60</v>
+      </c>
+      <c r="B266" s="6">
+        <f t="shared" ref="B266:B285" si="5">H266*0.09/0.8121</f>
+        <v>3.9992480672189985E-4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>64</v>
+      </c>
+      <c r="D266" t="s">
+        <v>66</v>
+      </c>
+      <c r="F266" t="s">
+        <v>20</v>
+      </c>
+      <c r="H266" s="2">
+        <v>3.6086548393206102E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>133</v>
+      </c>
+      <c r="B267" s="6">
+        <f t="shared" si="5"/>
+        <v>1.7179756647915515E-4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" t="s">
+        <v>45</v>
+      </c>
+      <c r="F267" t="s">
+        <v>20</v>
+      </c>
+      <c r="H267" s="6">
+        <v>1.55018670819691E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>134</v>
+      </c>
+      <c r="B268" s="6">
+        <f t="shared" si="5"/>
+        <v>1.7772033228665273E-3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" t="s">
+        <v>45</v>
+      </c>
+      <c r="F268" t="s">
+        <v>20</v>
+      </c>
+      <c r="H268" s="6">
+        <v>1.6036297983332299E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>135</v>
+      </c>
+      <c r="B269" s="6">
+        <f t="shared" si="5"/>
+        <v>1.5460488031062355E-3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>45</v>
+      </c>
+      <c r="F269" t="s">
+        <v>20</v>
+      </c>
+      <c r="H269" s="6">
+        <v>1.3950513700028601E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>136</v>
+      </c>
+      <c r="B270" s="12">
+        <v>6.3340000000000005E-7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" t="s">
+        <v>27</v>
+      </c>
+      <c r="F270" t="s">
+        <v>20</v>
+      </c>
+      <c r="H270" s="6">
+        <v>2.72574047508097E-6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>36</v>
+      </c>
+      <c r="B271" s="6">
+        <f t="shared" si="5"/>
+        <v>7.2150733312708901E-5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>27</v>
+      </c>
+      <c r="F271" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" s="6">
+        <v>6.5104011692501001E-4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>137</v>
+      </c>
+      <c r="B272" s="6">
+        <f t="shared" si="5"/>
+        <v>1.7475248462259587E-10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>45</v>
+      </c>
+      <c r="F272" t="s">
+        <v>20</v>
+      </c>
+      <c r="H272" s="6">
+        <v>1.57684991957789E-9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>138</v>
+      </c>
+      <c r="B273" s="6">
+        <f t="shared" si="5"/>
+        <v>8.7266460981070249E-6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" t="s">
+        <v>27</v>
+      </c>
+      <c r="F273" t="s">
+        <v>20</v>
+      </c>
+      <c r="H273" s="6">
+        <v>7.8743436625252394E-5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2053451497926671E-3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>44</v>
+      </c>
+      <c r="F274" t="s">
+        <v>20</v>
+      </c>
+      <c r="H274" s="6">
+        <v>2.89228977349625E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>139</v>
+      </c>
+      <c r="B275" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2133925134840259E-6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" t="s">
+        <v>20</v>
+      </c>
+      <c r="H275" s="6">
+        <v>5.6065511780004198E-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>38</v>
+      </c>
+      <c r="B276" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5438811394177421E-6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" t="s">
+        <v>44</v>
+      </c>
+      <c r="F276" t="s">
+        <v>20</v>
+      </c>
+      <c r="H276" s="6">
+        <v>5.0024287481346102E-5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>62</v>
+      </c>
+      <c r="B277" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3296384699545361E-5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>65</v>
+      </c>
+      <c r="D277" t="s">
+        <v>66</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+      <c r="H277" s="2">
+        <v>1.1997771127223099E-4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>63</v>
+      </c>
+      <c r="B278" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3296384699545361E-5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>65</v>
+      </c>
+      <c r="D278" t="s">
+        <v>66</v>
+      </c>
+      <c r="F278" t="s">
+        <v>20</v>
+      </c>
+      <c r="H278" s="6">
+        <v>1.1997771127223099E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="6">
+        <f t="shared" si="5"/>
+        <v>6.8030485286474352E-4</v>
+      </c>
+      <c r="C279" t="s">
         <v>22</v>
       </c>
-      <c r="D234" t="s">
-        <v>69</v>
-      </c>
-      <c r="F234" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B235" s="12">
-        <v>1.2709606148433094E-8</v>
-      </c>
-      <c r="C235" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" t="s">
-        <v>68</v>
-      </c>
-      <c r="F235" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="D279" t="s">
+        <v>45</v>
+      </c>
+      <c r="F279" t="s">
+        <v>20</v>
+      </c>
+      <c r="H279" s="6">
+        <v>6.1386174556828698E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>21</v>
       </c>
-      <c r="B236" s="7">
-        <v>1.5637595110374521E-9</v>
-      </c>
-      <c r="C236" t="s">
+      <c r="B280" s="6">
+        <f t="shared" si="5"/>
+        <v>4.3002254627646582E-8</v>
+      </c>
+      <c r="C280" t="s">
         <v>22</v>
       </c>
-      <c r="D236" t="s">
-        <v>67</v>
-      </c>
-      <c r="F236" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>128</v>
-      </c>
-      <c r="B237">
-        <v>6.5721664898362714E-7</v>
-      </c>
-      <c r="C237" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" t="s">
-        <v>28</v>
-      </c>
-      <c r="F237" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>53</v>
-      </c>
-      <c r="B238" s="7">
-        <v>1.0167684918746468E-8</v>
-      </c>
-      <c r="C238" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" t="s">
-        <v>68</v>
-      </c>
-      <c r="F238" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>58</v>
-      </c>
-      <c r="B239">
-        <v>1.1247834878418861E-6</v>
-      </c>
-      <c r="C239" t="s">
-        <v>7</v>
-      </c>
-      <c r="D239" t="s">
-        <v>67</v>
-      </c>
-      <c r="F239" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="D280" t="s">
+        <v>44</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+      <c r="H280" s="6">
+        <v>3.8802367759013098E-7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="6">
+        <f t="shared" si="5"/>
+        <v>6.802972642315744E-4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" t="s">
         <v>43</v>
       </c>
-      <c r="B240">
-        <v>5.1534522490427554E-7</v>
-      </c>
-      <c r="C240" t="s">
-        <v>7</v>
-      </c>
-      <c r="D240" t="s">
-        <v>67</v>
-      </c>
-      <c r="F240" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B241" s="7">
-        <v>1.0984903341465665E-8</v>
-      </c>
-      <c r="C241" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="F241" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>21</v>
-      </c>
-      <c r="B242">
-        <v>2.4738733503311285E-5</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="F281" t="s">
+        <v>20</v>
+      </c>
+      <c r="H281" s="6">
+        <v>6.1385489809162403E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>33</v>
+      </c>
+      <c r="B282" s="6">
+        <f t="shared" si="5"/>
+        <v>7.5642952763624203E-3</v>
+      </c>
+      <c r="C282" t="s">
         <v>22</v>
       </c>
-      <c r="D242" t="s">
-        <v>66</v>
-      </c>
-      <c r="F242" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>26</v>
-      </c>
-      <c r="B243" s="6">
-        <v>1.5155984944256541E-10</v>
-      </c>
-      <c r="C243" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" t="s">
-        <v>68</v>
-      </c>
-      <c r="F243" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>59</v>
-      </c>
-      <c r="B244" s="6">
-        <v>1.7793448607806347E-9</v>
-      </c>
-      <c r="C244" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" t="s">
-        <v>68</v>
-      </c>
-      <c r="F244" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>57</v>
-      </c>
-      <c r="B245" s="6">
-        <v>2.0160098429471799E-7</v>
-      </c>
-      <c r="C245" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" t="s">
-        <v>67</v>
-      </c>
-      <c r="F245" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="D282" t="s">
         <v>46</v>
       </c>
-      <c r="B246" s="6">
-        <v>6.3548030742165668E-12</v>
-      </c>
-      <c r="C246" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" t="s">
-        <v>68</v>
-      </c>
-      <c r="F246" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>62</v>
-      </c>
-      <c r="B247" s="6">
-        <v>1.4373649937821281E-8</v>
-      </c>
-      <c r="C247" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" t="s">
-        <v>67</v>
-      </c>
-      <c r="F247" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>86</v>
-      </c>
-      <c r="B248" s="6">
-        <v>9.3940567170918896E-4</v>
-      </c>
-      <c r="C248" t="s">
-        <v>7</v>
-      </c>
-      <c r="D248" t="s">
-        <v>28</v>
-      </c>
-      <c r="F248" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>129</v>
-      </c>
-      <c r="B249" s="2">
-        <v>6.5909420048794069E-5</v>
-      </c>
-      <c r="C249" t="s">
-        <v>7</v>
-      </c>
-      <c r="D249" t="s">
-        <v>28</v>
-      </c>
-      <c r="F249" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>41</v>
-      </c>
-      <c r="B250" s="6">
-        <v>2.4148251682022872E-8</v>
-      </c>
-      <c r="C250" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" t="s">
-        <v>68</v>
-      </c>
-      <c r="F250" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>83</v>
-      </c>
-      <c r="B251" s="6">
-        <v>1.4543103044860318E-5</v>
-      </c>
-      <c r="C251" t="s">
-        <v>88</v>
-      </c>
-      <c r="D251" t="s">
-        <v>90</v>
-      </c>
-      <c r="F251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>127</v>
-      </c>
-      <c r="B252" s="6">
-        <v>5.2703483910181474E-14</v>
-      </c>
-      <c r="C252" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" t="s">
-        <v>68</v>
-      </c>
-      <c r="F252" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>30</v>
-      </c>
-      <c r="B253" s="6">
-        <v>2.5557296599183028E-7</v>
-      </c>
-      <c r="C253" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" t="s">
-        <v>67</v>
-      </c>
-      <c r="F253" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>37</v>
-      </c>
-      <c r="B254" s="6">
-        <v>2.7908437460891622E-9</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="F282" t="s">
+        <v>20</v>
+      </c>
+      <c r="H282" s="6">
+        <v>6.8255157710376907E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>32</v>
+      </c>
+      <c r="B283" s="6">
+        <f t="shared" si="5"/>
+        <v>7.6746182867774008E-8</v>
+      </c>
+      <c r="C283" t="s">
         <v>22</v>
       </c>
-      <c r="D254" t="s">
-        <v>69</v>
-      </c>
-      <c r="F254" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>50</v>
-      </c>
-      <c r="B255" s="6">
-        <v>1.459398571472198E-10</v>
-      </c>
-      <c r="C255" t="s">
-        <v>7</v>
-      </c>
-      <c r="D255" t="s">
-        <v>67</v>
-      </c>
-      <c r="F255" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>32</v>
-      </c>
-      <c r="B256" s="2">
-        <v>1.1656107354249169E-4</v>
-      </c>
-      <c r="C256" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" t="s">
-        <v>67</v>
-      </c>
-      <c r="F256" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>124</v>
-      </c>
-      <c r="B257" s="2">
-        <v>0.52731750717455583</v>
-      </c>
-      <c r="C257" t="s">
-        <v>7</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="F257" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>19</v>
-      </c>
-      <c r="B258" s="6">
-        <v>1.5771902373004583E-4</v>
-      </c>
-      <c r="C258" t="s">
-        <v>7</v>
-      </c>
-      <c r="D258" t="s">
-        <v>68</v>
-      </c>
-      <c r="F258" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>65</v>
-      </c>
-      <c r="B259" s="2">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>7</v>
-      </c>
-      <c r="D259" t="s">
-        <v>68</v>
-      </c>
-      <c r="F259" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>64</v>
-      </c>
-      <c r="B260" s="6">
-        <v>6.3548030742165675E-9</v>
-      </c>
-      <c r="C260" t="s">
-        <v>7</v>
-      </c>
-      <c r="D260" t="s">
-        <v>68</v>
-      </c>
-      <c r="F260" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>48</v>
-      </c>
-      <c r="B261" s="2">
-        <v>5.153513303394255E-7</v>
-      </c>
-      <c r="C261" t="s">
-        <v>7</v>
-      </c>
-      <c r="D261" t="s">
-        <v>67</v>
-      </c>
-      <c r="F261" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>60</v>
-      </c>
-      <c r="B262" s="6">
-        <v>1.2074125841011437E-7</v>
-      </c>
-      <c r="C262" t="s">
-        <v>7</v>
-      </c>
-      <c r="D262" t="s">
-        <v>68</v>
-      </c>
-      <c r="F262" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>54</v>
-      </c>
-      <c r="B263" s="6">
-        <v>3.7517488018589383E-9</v>
-      </c>
-      <c r="C263" t="s">
-        <v>7</v>
-      </c>
-      <c r="D263" t="s">
-        <v>67</v>
-      </c>
-      <c r="F263" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>49</v>
-      </c>
-      <c r="B264" s="6">
-        <v>1.906440922264962E-10</v>
-      </c>
-      <c r="C264" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" t="s">
-        <v>68</v>
-      </c>
-      <c r="F264" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>51</v>
-      </c>
-      <c r="B265" s="2">
-        <v>6.2473486769726253E-6</v>
-      </c>
-      <c r="C265" t="s">
-        <v>7</v>
-      </c>
-      <c r="D265" t="s">
-        <v>68</v>
-      </c>
-      <c r="F265" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>84</v>
-      </c>
-      <c r="B266" s="2">
-        <v>2.762957858355022E-5</v>
-      </c>
-      <c r="C266" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" t="s">
-        <v>68</v>
-      </c>
-      <c r="F266" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>132</v>
-      </c>
-      <c r="B267" s="6">
-        <v>3.1734093836557484E-7</v>
-      </c>
-      <c r="C267" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="F267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>47</v>
-      </c>
-      <c r="B268" s="6">
-        <v>2.5419212296866186E-11</v>
-      </c>
-      <c r="C268" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" t="s">
-        <v>68</v>
-      </c>
-      <c r="F268" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>131</v>
-      </c>
-      <c r="B269" s="6">
-        <v>4.0498042990835184E-17</v>
-      </c>
-      <c r="C269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" t="s">
-        <v>68</v>
-      </c>
-      <c r="F269" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>55</v>
-      </c>
-      <c r="B270" s="6">
-        <v>1.2029678746313568E-9</v>
-      </c>
-      <c r="C270" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270" t="s">
-        <v>67</v>
-      </c>
-      <c r="F270" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>52</v>
-      </c>
-      <c r="B271" s="6">
-        <v>6.3548030742165668E-12</v>
-      </c>
-      <c r="C271" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" t="s">
-        <v>68</v>
-      </c>
-      <c r="F271" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>45</v>
-      </c>
-      <c r="B272" s="6">
-        <v>4.2586367604331351E-9</v>
-      </c>
-      <c r="C272" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" t="s">
-        <v>67</v>
-      </c>
-      <c r="F272" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>126</v>
-      </c>
-      <c r="B273" s="2">
-        <v>2.6237320908643252E-6</v>
-      </c>
-      <c r="C273" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" t="s">
-        <v>28</v>
-      </c>
-      <c r="F273" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>59</v>
-      </c>
-      <c r="B274" s="6">
-        <v>1.3839082168321443E-10</v>
-      </c>
-      <c r="C274" t="s">
-        <v>7</v>
-      </c>
-      <c r="D274" t="s">
-        <v>67</v>
-      </c>
-      <c r="F274" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>60</v>
-      </c>
-      <c r="B275" s="6">
-        <v>1.2196902827461577E-9</v>
-      </c>
-      <c r="C275" t="s">
-        <v>7</v>
-      </c>
-      <c r="D275" t="s">
-        <v>67</v>
-      </c>
-      <c r="F275" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>63</v>
-      </c>
-      <c r="B276" s="6">
-        <v>3.3928541235922607E-5</v>
-      </c>
-      <c r="C276" t="s">
-        <v>7</v>
-      </c>
-      <c r="D276" t="s">
-        <v>67</v>
-      </c>
-      <c r="F276" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>21</v>
-      </c>
-      <c r="B277" s="2">
-        <v>2.473900946087208E-5</v>
-      </c>
-      <c r="C277" t="s">
-        <v>22</v>
-      </c>
-      <c r="D277" t="s">
-        <v>68</v>
-      </c>
-      <c r="F277" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>31</v>
-      </c>
-      <c r="B278" s="6">
-        <v>3.9153721146045748E-10</v>
-      </c>
-      <c r="C278" t="s">
-        <v>7</v>
-      </c>
-      <c r="D278" t="s">
-        <v>67</v>
-      </c>
-      <c r="F278" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>52</v>
-      </c>
-      <c r="B279" s="6">
-        <v>1.8616722097395385E-12</v>
-      </c>
-      <c r="C279" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279" t="s">
-        <v>67</v>
-      </c>
-      <c r="F279" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="D283" t="s">
+        <v>46</v>
+      </c>
+      <c r="F283" t="s">
+        <v>20</v>
+      </c>
+      <c r="H283" s="6">
+        <v>6.9250639007688098E-7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>140</v>
+      </c>
+      <c r="B284" s="6">
+        <f t="shared" si="5"/>
+        <v>6.6405944156586509E-7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" t="s">
+        <v>45</v>
+      </c>
+      <c r="F284" t="s">
+        <v>20</v>
+      </c>
+      <c r="H284" s="6">
+        <v>5.9920296943959903E-6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>140</v>
+      </c>
+      <c r="B285" s="6">
+        <f t="shared" si="5"/>
+        <v>1.031703763512022E-7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" t="s">
         <v>44</v>
       </c>
-      <c r="B280" s="6">
-        <v>1.3980566763276406E-11</v>
-      </c>
-      <c r="C280" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" t="s">
-        <v>68</v>
-      </c>
-      <c r="F280" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>65</v>
-      </c>
-      <c r="B281" s="6">
-        <v>1.689351924476972E-7</v>
-      </c>
-      <c r="C281" t="s">
-        <v>7</v>
-      </c>
-      <c r="D281" t="s">
-        <v>67</v>
-      </c>
-      <c r="F281" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>61</v>
-      </c>
-      <c r="B282" s="6">
-        <v>1.2074125841011437E-7</v>
-      </c>
-      <c r="C282" t="s">
-        <v>7</v>
-      </c>
-      <c r="D282" t="s">
-        <v>68</v>
-      </c>
-      <c r="F282" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>27</v>
-      </c>
-      <c r="B283" s="2">
-        <v>6.4627276482224027E-5</v>
-      </c>
-      <c r="C283" t="s">
-        <v>7</v>
-      </c>
-      <c r="D283" t="s">
-        <v>68</v>
-      </c>
-      <c r="F283" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>42</v>
-      </c>
-      <c r="B284" s="6">
-        <v>1.2709606148433093E-9</v>
-      </c>
-      <c r="C284" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" t="s">
-        <v>68</v>
-      </c>
-      <c r="F284" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>36</v>
-      </c>
-      <c r="B285" s="6">
-        <v>2.7037211622967271E-11</v>
-      </c>
-      <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" t="s">
-        <v>67</v>
-      </c>
       <c r="F285" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B286" s="7">
-        <v>1</v>
-      </c>
-      <c r="C286" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286" t="s">
-        <v>28</v>
-      </c>
-      <c r="F286" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H285" s="6">
+        <v>9.3094069594234795E-7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="7"/>
+    </row>
+    <row r="288" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
     </row>
@@ -5927,4 +6779,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5.8415999999999997</v>
+      </c>
+      <c r="C5">
+        <v>7.3267999999999996E-3</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>4.2800234879999996E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f>D5/SUM($D$5:$D$7)</f>
+        <v>4.8437160271416882E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="0">B6*C6</f>
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" ref="E6:E7" si="1">D6/SUM($D$5:$D$7)</f>
+        <v>0.9508569795036711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="12">
+        <v>4.1581000000000002E-7</v>
+      </c>
+      <c r="D7" s="7">
+        <f>B7*C7</f>
+        <v>6.2371500000000005E-4</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>7.058602249120832E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.8415999999999997</v>
+      </c>
+      <c r="C14">
+        <v>4.4895999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v>0.26226447359999999</v>
+      </c>
+      <c r="E14" s="13">
+        <f>D14/SUM($D$14:$D$16)</f>
+        <v>0.23785962894597396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15" si="2">B15*C15</f>
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" ref="E15:E16" si="3">D15/SUM($D$14:$D$16)</f>
+        <v>0.76201575263759747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="12">
+        <v>9.1603000000000003E-8</v>
+      </c>
+      <c r="D16" s="7">
+        <f>B16*C16</f>
+        <v>1.374045E-4</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="3"/>
+        <v>1.246184164285798E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5.8415999999999997</v>
+      </c>
+      <c r="C20">
+        <v>3.3113999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <f>B20*C20</f>
+        <v>0.19343874239999997</v>
+      </c>
+      <c r="E20" s="13">
+        <f>D20/SUM($D$20:$D$22)</f>
+        <v>0.18697161082007041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="4">B21*C21</f>
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" ref="E21:E22" si="5">D21/SUM($D$20:$D$22)</f>
+        <v>0.81211005335311348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>1500</v>
+      </c>
+      <c r="C22" s="12">
+        <v>6.3340000000000005E-7</v>
+      </c>
+      <c r="D22" s="7">
+        <f>B22*C22</f>
+        <v>9.5010000000000005E-4</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="5"/>
+        <v>9.1833582681598812E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CB55F-304A-4011-AC37-A3C0C6BE16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="30240" windowHeight="16320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rhenium!$A$1:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="145">
   <si>
     <t>Activity</t>
   </si>
@@ -376,15 +378,9 @@
     <t>kg/kg copper</t>
   </si>
   <si>
-    <t>usgs</t>
-  </si>
-  <si>
     <t>Allocation</t>
   </si>
   <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.07%) and divided by former allocation value of copper (95.09%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
     <t>Aluminium III</t>
   </si>
   <si>
@@ -463,16 +459,31 @@
     <t>Zinc II</t>
   </si>
   <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.01%) and divided by former allocation value of copper (76.2%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.09%) and divided by former allocation value of copper (81.21%). Allocation method can be found in the supplementary excel file.</t>
+    <t>USGS 2023 - 1100$/kg || $1,100 in 2023 is worth $705.05 in 2005</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>https://www.macrotrends.net/2548/euro-dollar-exchange-rate-historical-chart</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.03%) and divided by former allocation value of copper (95.09%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.005%) and divided by former allocation value of copper (76.2%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.03%) and divided by former allocation value of copper (81.21%). Allocation method can be found in the supplementary excel file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,7 +552,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -560,11 +571,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Per cent 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -842,11 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -956,7 +971,8 @@
         <v>68</v>
       </c>
       <c r="B11" s="12">
-        <v>4.1581000000000002E-7</v>
+        <f>H11/H11</f>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -970,15 +986,17 @@
       <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="12">
+        <v>4.1581000000000002E-7</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="6">
-        <f>H12*0.07/0.9509</f>
-        <v>3.1511967422016977E-11</v>
+        <f>H12*0.000267680093167239/0.9509/$H$11</f>
+        <v>2.8980016200422941E-7</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -995,6 +1013,7 @@
       <c r="H12" s="7">
         <v>4.2806756887994201E-10</v>
       </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,8 +1021,8 @@
         <v>70</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509</f>
-        <v>8.5112014746289104E-9</v>
+        <f t="shared" ref="B13:B76" si="0">H13*0.000267680093167239/0.9509/$H$11</f>
+        <v>7.8273359868820874E-5</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1028,7 +1047,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>3.149454652904937E-3</v>
+        <v>28.963995056656643</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1054,7 +1073,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>6.550262069217069E-9</v>
+        <v>6.023955862251154E-5</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1078,7 +1097,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>2.4222792537936773E-3</v>
+        <v>22.276518338821013</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1102,7 +1121,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>8.4733971140052281E-4</v>
+        <v>7.7925691642128223</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1126,7 +1145,7 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>2.8378989987378276E-7</v>
+        <v>2.6098769987025526E-3</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -1150,7 +1169,7 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>2.9121571942184168E-8</v>
+        <v>2.6781686315041929E-4</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1175,7 +1194,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>1.4470124389270461E-8</v>
+        <v>1.3307466132063937E-4</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1200,7 +1219,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>2.0594407393488142E-4</v>
+        <v>1.8939669869181255</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1225,7 +1244,7 @@
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>1.4179427696174688E-8</v>
+        <v>1.3040126592056707E-4</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1251,7 +1270,7 @@
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>4.8623748139846774E-2</v>
+        <v>447.1688453934849</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1277,7 +1296,7 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>2.7227728802062482E-2</v>
+        <v>250.40011346076338</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1302,7 +1321,7 @@
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>1.1968165447569261E-7</v>
+        <v>1.1006536783786105E-3</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1327,7 +1346,7 @@
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>4.0871714992302133E-3</v>
+        <v>37.587718556360812</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1352,7 +1371,7 @@
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>3.5391232229163953E-11</v>
+        <v>3.2547586433384751E-7</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1377,7 +1396,7 @@
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>1.544014067754439E-11</v>
+        <v>1.4199542700066856E-7</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1402,7 +1421,7 @@
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>-6.4409802896667658</v>
+        <v>-59234.54751058518</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1427,7 +1446,7 @@
       </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
-        <v>1.3874646019341583E-10</v>
+        <v>1.2759833780950149E-6</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1452,7 +1471,7 @@
       </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>1.1043513474833243E-4</v>
+        <v>1.0156179559472638</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1477,7 +1496,7 @@
       </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>2.7132808563392146E-3</v>
+        <v>24.952717842069589</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1502,7 +1521,7 @@
       </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>-3.6482849646959834</v>
+        <v>-33551.49361660573</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1527,7 +1546,7 @@
       </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
-        <v>2.115294113429197E-8</v>
+        <v>1.9453326050663234E-4</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1548,11 +1567,11 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
-        <v>5.7578053415189837E-8</v>
+        <v>5.2951721433780799E-4</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1570,11 +1589,11 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" si="0"/>
-        <v>3.4256472948005415E-10</v>
+        <v>3.1504003787111191E-6</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1592,11 +1611,11 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" si="0"/>
-        <v>2.5692354711004083E-9</v>
+        <v>2.3628002840333408E-5</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1614,11 +1633,11 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="6">
         <f t="shared" si="0"/>
-        <v>1.9667740723090234E-9</v>
+        <v>1.8087459825902264E-5</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1636,11 +1655,11 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>7.1026413004047242E-13</v>
+        <v>6.5319520420584133E-9</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1658,11 +1677,11 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" si="0"/>
-        <v>4.4558641648405037E-9</v>
+        <v>4.0978404792885063E-5</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1684,7 +1703,7 @@
       </c>
       <c r="B41" s="6">
         <f t="shared" si="0"/>
-        <v>6.9451872466825583E-6</v>
+        <v>6.3871492448677014E-2</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1706,7 +1725,7 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" si="0"/>
-        <v>1.7128236474002673E-8</v>
+        <v>1.5752001893555562E-4</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1724,11 +1743,11 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="6">
         <f t="shared" si="0"/>
-        <v>1.8841060121402999E-10</v>
+        <v>1.7327202082911169E-6</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1746,11 +1765,11 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="6">
         <f t="shared" si="0"/>
-        <v>2.1047452646147537E-10</v>
+        <v>1.9356313444168604E-6</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1768,11 +1787,11 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" s="6">
         <f t="shared" si="0"/>
-        <v>4.5724160978700317E-4</v>
+        <v>4.205027595286424</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1794,7 +1813,7 @@
       </c>
       <c r="B46" s="6">
         <f t="shared" si="0"/>
-        <v>2.1255172688652651E-3</v>
+        <v>19.547343414348909</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1816,7 +1835,7 @@
       </c>
       <c r="B47" s="6">
         <f t="shared" si="0"/>
-        <v>3.7235296682614622E-4</v>
+        <v>3.4243482377294803</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1834,11 +1853,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48" s="6">
         <f t="shared" si="0"/>
-        <v>1.7128236474002675E-7</v>
+        <v>1.5752001893555561E-3</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1856,11 +1875,11 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49" s="6">
         <f t="shared" si="0"/>
-        <v>3.6436987021264404E-10</v>
+        <v>3.3509316001420752E-6</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1878,11 +1897,11 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" si="0"/>
-        <v>3.4256472948005499E-8</v>
+        <v>3.150400378711126E-4</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1900,11 +1919,11 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" si="0"/>
-        <v>5.2062268592804513E-10</v>
+        <v>4.7879123732404331E-6</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1926,7 +1945,7 @@
       </c>
       <c r="B52" s="6">
         <f t="shared" si="0"/>
-        <v>6.9451049661336942E-6</v>
+        <v>6.3870735754686075E-2</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1948,7 +1967,7 @@
       </c>
       <c r="B53" s="6">
         <f t="shared" si="0"/>
-        <v>2.0081760163705165E-2</v>
+        <v>184.68213269050585</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1966,11 +1985,11 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="0"/>
-        <v>8.5641182370013377E-8</v>
+        <v>7.8760009467777805E-4</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1988,11 +2007,11 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" s="6">
         <f t="shared" si="0"/>
-        <v>5.276593049339407E-9</v>
+        <v>4.8526247188887024E-5</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2014,7 +2033,7 @@
       </c>
       <c r="B56" s="6">
         <f t="shared" si="0"/>
-        <v>2.1560664181021941E-17</v>
+        <v>1.9828289008109835E-13</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -2036,7 +2055,7 @@
       </c>
       <c r="B57" s="6">
         <f t="shared" si="0"/>
-        <v>2.2766731645591203E-6</v>
+        <v>2.0937450305274666E-2</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2058,7 +2077,7 @@
       </c>
       <c r="B58" s="6">
         <f t="shared" si="0"/>
-        <v>3.4442563732866091E-6</v>
+        <v>3.1675142386227775E-2</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2080,7 +2099,7 @@
       </c>
       <c r="B59" s="6">
         <f t="shared" si="0"/>
-        <v>2.716987083707795E-6</v>
+        <v>2.4986802203653711E-2</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2102,7 +2121,7 @@
       </c>
       <c r="B60" s="6">
         <f t="shared" si="0"/>
-        <v>1.6271824650302548E-6</v>
+        <v>1.4964401798877789E-2</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2120,11 +2139,11 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="0"/>
-        <v>7.0984914027923818</v>
+        <v>65281.355840624659</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -2142,11 +2161,11 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="6">
         <f t="shared" si="0"/>
-        <v>1.9060488262470242E-7</v>
+        <v>1.7528999419072239E-3</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2164,11 +2183,11 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="6">
         <f t="shared" si="0"/>
-        <v>1.9370802859999645E-7</v>
+        <v>1.7814380586905847E-3</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -2186,11 +2205,11 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" s="6">
         <f t="shared" si="0"/>
-        <v>2.3979531063603829E-8</v>
+        <v>2.2052802650977867E-4</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2208,11 +2227,11 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="6">
         <f t="shared" si="0"/>
-        <v>1.8650386895850984E-9</v>
+        <v>1.7151849237070656E-5</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2230,11 +2249,11 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" si="0"/>
-        <v>1.6271824650302548E-6</v>
+        <v>1.4964401798877789E-2</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -2252,11 +2271,11 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="0"/>
-        <v>1.6437286367441806E-8</v>
+        <v>1.5116568852715731E-4</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -2274,11 +2293,11 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="0"/>
-        <v>8.564118237001337E-11</v>
+        <v>7.8760009467777799E-7</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
@@ -2296,11 +2315,11 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="0"/>
-        <v>2.5089024375023E-11</v>
+        <v>2.3073149419828723E-7</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
@@ -2322,7 +2341,7 @@
       </c>
       <c r="B70" s="6">
         <f t="shared" si="0"/>
-        <v>3.1182633185486143E-4</v>
+        <v>2.8677143600239012</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -2340,11 +2359,11 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" si="0"/>
-        <v>5.4577620185883896E-16</v>
+        <v>5.0192369647550513E-12</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
@@ -2362,11 +2381,11 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" si="0"/>
-        <v>1.3702589179202168E-7</v>
+        <v>1.2601601514844478E-3</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
@@ -2384,11 +2403,11 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" si="0"/>
-        <v>1.6211925048404871E-8</v>
+        <v>1.4909315062776993E-4</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -2410,7 +2429,7 @@
       </c>
       <c r="B74" s="6">
         <f t="shared" si="0"/>
-        <v>2.0425124987343096E-9</v>
+        <v>1.8783989114411805E-5</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
@@ -2432,7 +2451,7 @@
       </c>
       <c r="B75" s="6">
         <f t="shared" si="0"/>
-        <v>1.5158264809161323E-5</v>
+        <v>0.13940315241404844</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>7</v>
@@ -2454,7 +2473,7 @@
       </c>
       <c r="B76" s="6">
         <f t="shared" si="0"/>
-        <v>1.9599168149586396E-4</v>
+        <v>1.8024396981731592</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -2472,11 +2491,11 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509</f>
-        <v>8.4193061708624998E-5</v>
+        <f t="shared" ref="B77:B94" si="1">H77*0.000267680093167239/0.9509/$H$11</f>
+        <v>0.77428243676541275</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
@@ -2494,11 +2513,11 @@
     </row>
     <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B78" s="6">
         <f t="shared" si="1"/>
-        <v>8.7095639418752571E-4</v>
+        <v>8.0097602524751821</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
@@ -2515,11 +2534,11 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B79" s="6">
         <f t="shared" si="1"/>
-        <v>7.5767419150412772E-4</v>
+        <v>6.9679592043150684</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
@@ -2540,7 +2559,7 @@
       </c>
       <c r="B80" s="6">
         <f t="shared" si="1"/>
-        <v>5.6101878732224454E-5</v>
+        <v>0.51594155730120494</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>7</v>
@@ -2557,11 +2576,11 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B81" s="6">
         <f t="shared" si="1"/>
-        <v>8.564118237001337E-11</v>
+        <v>7.8760009467777799E-7</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>7</v>
@@ -2578,11 +2597,11 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B82" s="6">
         <f t="shared" si="1"/>
-        <v>6.7855338214394308E-6</v>
+        <v>6.2403237931897393E-2</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>7</v>
@@ -2603,7 +2622,7 @@
       </c>
       <c r="B83" s="6">
         <f t="shared" si="1"/>
-        <v>1.5708477571868369E-3</v>
+        <v>14.446319026042831</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>7</v>
@@ -2620,11 +2639,11 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="6">
         <f t="shared" si="1"/>
-        <v>4.8329695505373162E-6</v>
+        <v>4.4446458704087297E-2</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>7</v>
@@ -2645,7 +2664,7 @@
       </c>
       <c r="B85" s="6">
         <f t="shared" si="1"/>
-        <v>2.7168971973355424E-6</v>
+        <v>2.4985975562622643E-2</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>7</v>
@@ -2666,7 +2685,7 @@
       </c>
       <c r="B86" s="6">
         <f t="shared" si="1"/>
-        <v>6.5161769194575589E-6</v>
+        <v>5.9926094160265911E-2</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>65</v>
@@ -2687,7 +2706,7 @@
       </c>
       <c r="B87" s="6">
         <f t="shared" si="1"/>
-        <v>6.5161769194575589E-6</v>
+        <v>5.9926094160265911E-2</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>65</v>
@@ -2708,7 +2727,7 @@
       </c>
       <c r="B88" s="6">
         <f t="shared" si="1"/>
-        <v>3.3339790331004697E-4</v>
+        <v>3.0660975589742394</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
@@ -2729,7 +2748,7 @@
       </c>
       <c r="B89" s="6">
         <f t="shared" si="1"/>
-        <v>2.1074172071667593E-8</v>
+        <v>1.9380885993830994E-4</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
@@ -2750,7 +2769,7 @@
       </c>
       <c r="B90" s="6">
         <f t="shared" si="1"/>
-        <v>3.333941843385049E-4</v>
+        <v>3.0660633574107212</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -2771,7 +2790,7 @@
       </c>
       <c r="B91" s="6">
         <f t="shared" si="1"/>
-        <v>3.7006486918421113E-3</v>
+        <v>34.033057220898193</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -2792,7 +2811,7 @@
       </c>
       <c r="B92" s="6">
         <f t="shared" si="1"/>
-        <v>3.7348253978979514E-8</v>
+        <v>3.4347363681650416E-4</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -2809,11 +2828,11 @@
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B93" s="6">
         <f t="shared" si="1"/>
-        <v>3.254364930060517E-7</v>
+        <v>2.9928803597755651E-3</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>7</v>
@@ -2830,11 +2849,11 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B94" s="6">
         <f t="shared" si="1"/>
-        <v>5.0560843442988125E-8</v>
+        <v>4.6498336408570004E-4</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
@@ -2853,8 +2872,9 @@
       <c r="A95" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="12">
-        <v>4.1581000000000002E-7</v>
+      <c r="B95" s="14">
+        <f>0.00000041581/H11</f>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -2883,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,83 +2972,83 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>82</v>
-      </c>
-      <c r="B106" s="6">
-        <f>H106*0.01/76.2</f>
-        <v>2.8582553364908397E-14</v>
+        <v>68</v>
+      </c>
+      <c r="B106" s="12">
+        <f>0.000000091603/H106</f>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>97</v>
-      </c>
-      <c r="H106" s="6">
-        <v>2.17799056640602E-10</v>
+        <v>67</v>
+      </c>
+      <c r="H106" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" ref="B107:B170" si="2">H107*0.01/76.2</f>
-        <v>7.7199835570436614E-12</v>
+        <f>H107*0.0000472414053042178/0.762/$H$106</f>
+        <v>1.4740565135869698E-7</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H107" s="6">
-        <v>5.8826274704672697E-8</v>
+        <v>2.17799056640602E-10</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" si="2"/>
-        <v>4.1914778786236484E-6</v>
+        <f t="shared" ref="B108:B171" si="2">H108*0.0000472414053042178/0.762/$H$106</f>
+        <v>3.9813420101983189E-5</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H108" s="6">
-        <v>3.1939061435112201E-2</v>
+        <v>5.8826274704672697E-8</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B109" s="6">
         <f t="shared" si="2"/>
-        <v>8.7174706697196712E-12</v>
+        <v>21.616246770053685</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -3040,19 +3060,19 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="H109" s="6">
-        <v>6.6427126503263895E-8</v>
+        <v>3.1939061435112201E-2</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B110" s="6">
         <f t="shared" si="2"/>
-        <v>3.2237104600825065E-6</v>
+        <v>4.4957650419293901E-5</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3064,19 +3084,19 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H110" s="6">
-        <v>2.45646737058287E-2</v>
+        <v>6.6427126503263895E-8</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B111" s="6">
         <f t="shared" si="2"/>
-        <v>7.6856935636427419E-7</v>
+        <v>16.62528655482944</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3088,22 +3108,22 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H111" s="6">
-        <v>5.8564984954957702E-3</v>
+        <v>2.45646737058287E-2</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112" s="6">
         <f t="shared" si="2"/>
-        <v>2.5740823633553939E-10</v>
+        <v>3.9636580099348806</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
         <v>3</v>
@@ -3112,22 +3132,22 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H112" s="6">
-        <v>1.9614507608768098E-6</v>
+        <v>5.8564984954957702E-3</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B113" s="6">
         <f t="shared" si="2"/>
-        <v>3.8756685851573222E-11</v>
+        <v>1.3275031190431643E-3</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E113" t="s">
         <v>3</v>
@@ -3136,70 +3156,70 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H113" s="6">
-        <v>2.9532594618898798E-7</v>
+        <v>1.9614507608768098E-6</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B114" s="6">
         <f t="shared" si="2"/>
-        <v>1.9257685206744357E-11</v>
+        <v>1.9987558317548709E-4</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H114" s="6">
-        <v>1.4674356127539201E-7</v>
+        <v>2.9532594618898798E-7</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B115" s="6">
         <f t="shared" si="2"/>
-        <v>2.7408238100380316E-7</v>
+        <v>9.9315536835349212E-5</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H115" s="6">
-        <v>2.08850774324898E-3</v>
+        <v>1.4674356127539201E-7</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B116" s="6">
         <f t="shared" si="2"/>
-        <v>1.2861280394908242E-11</v>
+        <v>1.4134948470842341</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E116" t="s">
         <v>3</v>
@@ -3208,43 +3228,43 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H116" s="6">
-        <v>9.8002956609200806E-8</v>
+        <v>2.08850774324898E-3</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B117" s="6">
         <f t="shared" si="2"/>
-        <v>4.4103589515582022E-5</v>
+        <v>6.6328063476856711E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H117" s="6">
-        <v>0.33606935210873501</v>
+        <v>9.8002956609200806E-8</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" s="6">
         <f t="shared" si="2"/>
-        <v>3.6236248981627562E-5</v>
+        <v>227.45057996751859</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -3256,91 +3276,91 @@
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="H118" s="6">
-        <v>0.27612021724000202</v>
+        <v>0.33606935210873501</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B119" s="6">
         <f t="shared" si="2"/>
-        <v>1.5927932372331495E-10</v>
+        <v>186.87721197402018</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H119" s="6">
-        <v>1.21370844677166E-6</v>
+        <v>0.27612021724000202</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B120" s="6">
         <f t="shared" si="2"/>
-        <v>5.43944613057479E-6</v>
+        <v>8.2143369634125895E-4</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H120" s="6">
-        <v>4.1448579514979898E-2</v>
+        <v>1.21370844677166E-6</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B121" s="6">
         <f t="shared" si="2"/>
-        <v>3.2101194136585955E-14</v>
+        <v>28.052255852422174</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H121" s="6">
-        <v>2.4461109932078497E-10</v>
+        <v>4.1448579514979898E-2</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B122" s="6">
         <f t="shared" si="2"/>
-        <v>1.4004795034449737E-14</v>
+        <v>1.655519494946494E-7</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -3352,22 +3372,22 @@
         <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H122" s="6">
-        <v>1.06716538162507E-10</v>
+        <v>2.4461109932078497E-10</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B123" s="6">
         <f t="shared" si="2"/>
-        <v>-5.842214178067952E-3</v>
+        <v>7.2225385459530455E-8</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E123" t="s">
         <v>3</v>
@@ -3376,19 +3396,19 @@
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>94</v>
-      </c>
-      <c r="H123" s="2">
-        <v>-44.517672036877798</v>
+        <v>56</v>
+      </c>
+      <c r="H123" s="6">
+        <v>1.06716538162507E-10</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B124" s="6">
         <f t="shared" si="2"/>
-        <v>1.8465187873133465E-13</v>
+        <v>-30129.407100221146</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -3400,136 +3420,139 @@
         <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>93</v>
-      </c>
-      <c r="H124" s="6">
-        <v>1.40704731593277E-9</v>
+        <v>94</v>
+      </c>
+      <c r="H124" s="2">
+        <v>-44.517672036877798</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B125" s="6">
         <f t="shared" si="2"/>
-        <v>1.469735161589029E-7</v>
+        <v>9.5228477706322425E-7</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H125" s="6">
-        <v>1.1199381931308401E-3</v>
+        <v>1.40704731593277E-9</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B126" s="6">
         <f t="shared" si="2"/>
-        <v>2.46104896694311E-6</v>
+        <v>0.75797031165450213</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H126" s="6">
-        <v>1.8753193128106499E-2</v>
+        <v>1.1199381931308401E-3</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B127" s="6">
         <f t="shared" si="2"/>
-        <v>-3.2728783290624278E-3</v>
+        <v>12.692096516586354</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H127" s="6">
-        <v>-24.9393328674557</v>
+        <v>1.8753193128106499E-2</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B128" s="6">
         <f t="shared" si="2"/>
-        <v>1.9186522399525986E-11</v>
+        <v>-16878.854584962202</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F128" t="s">
         <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H128" s="6">
-        <v>1.4620130068438801E-7</v>
+        <v>-24.9393328674557</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129" s="12">
-        <v>9.1603000000000003E-8</v>
+        <v>76</v>
+      </c>
+      <c r="B129" s="6">
+        <f t="shared" si="2"/>
+        <v>9.8948536735091704E-5</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>67</v>
-      </c>
-      <c r="H129" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="H129" s="6">
+        <v>1.4620130068438801E-7</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B130" s="6">
         <f t="shared" si="2"/>
-        <v>5.2207543390071923E-11</v>
+        <v>2.6924420785650298E-4</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -3546,11 +3569,11 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B131" s="6">
         <f t="shared" si="2"/>
-        <v>3.1071924295205902E-13</v>
+        <v>1.6024380961450976E-6</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -3567,11 +3590,11 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B132" s="6">
         <f t="shared" si="2"/>
-        <v>2.3303943221404332E-12</v>
+        <v>1.2018285721088183E-5</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -3588,11 +3611,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B133" s="6">
         <f t="shared" si="2"/>
-        <v>1.7839389120215222E-12</v>
+        <v>9.2001114789661983E-6</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -3609,11 +3632,11 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B134" s="6">
         <f t="shared" si="2"/>
-        <v>6.442365888547428E-16</v>
+        <v>3.3224503352394164E-9</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -3630,11 +3653,11 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B135" s="6">
         <f t="shared" si="2"/>
-        <v>4.0416383265664179E-12</v>
+        <v>2.0843495767429524E-5</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -3655,7 +3678,7 @@
       </c>
       <c r="B136" s="6">
         <f t="shared" si="2"/>
-        <v>6.2995490712803937E-9</v>
+        <v>3.2487969925675562E-2</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -3676,7 +3699,7 @@
       </c>
       <c r="B137" s="6">
         <f t="shared" si="2"/>
-        <v>1.5535962147602885E-11</v>
+        <v>8.0121904807254552E-5</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -3693,11 +3716,11 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B138" s="6">
         <f t="shared" si="2"/>
-        <v>1.7089558362363125E-13</v>
+        <v>8.8134095287979749E-7</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -3714,11 +3737,11 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B139" s="6">
         <f t="shared" si="2"/>
-        <v>1.9090840327334385E-13</v>
+        <v>9.8455086132736872E-7</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3735,11 +3758,11 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B140" s="6">
         <f t="shared" si="2"/>
-        <v>4.1473553641916932E-7</v>
+        <v>2.1388698590701352</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -3760,7 +3783,7 @@
       </c>
       <c r="B141" s="6">
         <f t="shared" si="2"/>
-        <v>1.9279250308861546E-6</v>
+        <v>9.942675215903348</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -3781,7 +3804,7 @@
       </c>
       <c r="B142" s="6">
         <f t="shared" si="2"/>
-        <v>3.377383075565853E-7</v>
+        <v>1.7417805392881465</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -3798,11 +3821,11 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B143" s="6">
         <f t="shared" si="2"/>
-        <v>1.5535962147602887E-10</v>
+        <v>8.0121904807254555E-4</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -3819,11 +3842,11 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B144" s="6">
         <f t="shared" si="2"/>
-        <v>3.3049733520100919E-13</v>
+        <v>1.7044374708464569E-6</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -3840,11 +3863,11 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B145" s="6">
         <f t="shared" si="2"/>
-        <v>3.1071924295205899E-11</v>
+        <v>1.6024380961450981E-4</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -3861,11 +3884,11 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B146" s="6">
         <f t="shared" si="2"/>
-        <v>4.7222458389326908E-13</v>
+        <v>2.4353517856748713E-6</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -3886,7 +3909,7 @@
       </c>
       <c r="B147" s="6">
         <f t="shared" si="2"/>
-        <v>6.2994744396920993E-9</v>
+        <v>3.2487585036413087E-2</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -3907,7 +3930,7 @@
       </c>
       <c r="B148" s="6">
         <f t="shared" si="2"/>
-        <v>2.8707756148051313E-5</v>
+        <v>148.05134586910276</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -3924,11 +3947,11 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B149" s="6">
         <f t="shared" si="2"/>
-        <v>7.7679810738014708E-11</v>
+        <v>4.0060952403627419E-4</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -3945,11 +3968,11 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B150" s="6">
         <f t="shared" si="2"/>
-        <v>4.7860706504879529E-12</v>
+        <v>2.4682674520957032E-5</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -3970,7 +3993,7 @@
       </c>
       <c r="B151" s="6">
         <f t="shared" si="2"/>
-        <v>1.9556342715255383E-20</v>
+        <v>1.0085577027821869E-13</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -3991,7 +4014,7 @@
       </c>
       <c r="B152" s="6">
         <f t="shared" si="2"/>
-        <v>2.0650291792000261E-9</v>
+        <v>1.0649747324828296E-2</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -4012,7 +4035,7 @@
       </c>
       <c r="B153" s="6">
         <f t="shared" si="2"/>
-        <v>3.1240715717136483E-9</v>
+        <v>1.6111429900626525E-2</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -4033,7 +4056,7 @@
       </c>
       <c r="B154" s="6">
         <f t="shared" si="2"/>
-        <v>2.464410656174567E-9</v>
+        <v>1.2709433385847194E-2</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -4054,7 +4077,7 @@
       </c>
       <c r="B155" s="6">
         <f t="shared" si="2"/>
-        <v>1.4759164040222705E-9</v>
+        <v>7.6115809566891625E-3</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -4071,11 +4094,11 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B156" s="6">
         <f t="shared" si="2"/>
-        <v>6.432929484385866E-3</v>
+        <v>33175.838025536883</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -4092,11 +4115,11 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B157" s="6">
         <f t="shared" si="2"/>
-        <v>2.7215205154044493E-10</v>
+        <v>1.4035397717538211E-3</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -4113,11 +4136,11 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B158" s="6">
         <f t="shared" si="2"/>
-        <v>1.7570055181010894E-10</v>
+        <v>9.0612108557973782E-4</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -4134,11 +4157,11 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B159" s="6">
         <f t="shared" si="2"/>
-        <v>2.1750347006644095E-11</v>
+        <v>1.1217066673015664E-4</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -4155,11 +4178,11 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B160" s="6">
         <f t="shared" si="2"/>
-        <v>1.6916610492380577E-12</v>
+        <v>8.7242170304917327E-6</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -4176,11 +4199,11 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B161" s="6">
         <f t="shared" si="2"/>
-        <v>1.4759164040222705E-9</v>
+        <v>7.6115809566891625E-3</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -4197,11 +4220,11 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B162" s="6">
         <f t="shared" si="2"/>
-        <v>1.4909244112870866E-11</v>
+        <v>7.6889800979842974E-5</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -4218,11 +4241,11 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B163" s="6">
         <f t="shared" si="2"/>
-        <v>7.7679810738014566E-14</v>
+        <v>4.0060952403627345E-7</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -4239,11 +4262,11 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B164" s="6">
         <f t="shared" si="2"/>
-        <v>2.275669965219449E-14</v>
+        <v>1.1736061828277153E-7</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -4264,7 +4287,7 @@
       </c>
       <c r="B165" s="6">
         <f t="shared" si="2"/>
-        <v>2.7282808493725065E-6</v>
+        <v>14.070262042612379</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -4281,11 +4304,11 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B166" s="6">
         <f t="shared" si="2"/>
-        <v>4.9503977984021124E-19</v>
+        <v>2.5530140804495666E-12</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -4302,11 +4325,11 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B167" s="6">
         <f t="shared" si="2"/>
-        <v>1.2428769718082375E-10</v>
+        <v>6.4097523845803978E-4</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -4323,11 +4346,11 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B168" s="6">
         <f t="shared" si="2"/>
-        <v>1.4704832822344487E-11</v>
+        <v>7.5835613166723879E-5</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -4348,7 +4371,7 @@
       </c>
       <c r="B169" s="6">
         <f t="shared" si="2"/>
-        <v>1.8526365463546458E-12</v>
+        <v>9.5543982148779073E-6</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -4369,7 +4392,7 @@
       </c>
       <c r="B170" s="6">
         <f t="shared" si="2"/>
-        <v>1.3749122897498032E-8</v>
+        <v>7.0906835734441648E-2</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -4389,8 +4412,8 @@
         <v>60</v>
       </c>
       <c r="B171" s="6">
-        <f t="shared" ref="B171:B190" si="3">H171*0.01/76.2</f>
-        <v>1.7777191187115878E-7</v>
+        <f t="shared" si="2"/>
+        <v>0.91680348246357646</v>
       </c>
       <c r="C171" t="s">
         <v>64</v>
@@ -4407,11 +4430,11 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B172" s="6">
-        <f t="shared" si="3"/>
-        <v>7.6366310202531106E-8</v>
+        <f t="shared" ref="B172:B190" si="3">H172*0.0000472414053042178/0.762/$H$106</f>
+        <v>0.39383555253271119</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -4428,11 +4451,11 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B173" s="6">
         <f t="shared" si="3"/>
-        <v>7.8999058617901046E-7</v>
+        <v>4.074131356855041</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -4449,11 +4472,11 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B174" s="6">
         <f t="shared" si="3"/>
-        <v>6.8723931837875318E-7</v>
+        <v>3.5442235713377346</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -4470,10 +4493,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>136</v>
-      </c>
-      <c r="B175" s="12">
-        <v>9.1603000000000003E-8</v>
+        <v>134</v>
+      </c>
+      <c r="B175" s="6">
+        <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -4494,7 +4517,7 @@
       </c>
       <c r="B176" s="6">
         <f t="shared" si="3"/>
-        <v>8.0104146242208516E-8</v>
+        <v>0.41311228225893343</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -4511,11 +4534,11 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B177" s="6">
         <f t="shared" si="3"/>
-        <v>7.7679810738014566E-14</v>
+        <v>4.0060952403627345E-7</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -4532,11 +4555,11 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B178" s="6">
         <f t="shared" si="3"/>
-        <v>9.6886130348398687E-9</v>
+        <v>4.99660158744362E-2</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -4557,7 +4580,7 @@
       </c>
       <c r="B179" s="6">
         <f t="shared" si="3"/>
-        <v>1.4248186806822178E-6</v>
+        <v>7.3480603014234829</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -4574,11 +4597,11 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B180" s="6">
         <f t="shared" si="3"/>
-        <v>6.9028381168060753E-9</v>
+        <v>3.5599246010003971E-2</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -4599,7 +4622,7 @@
       </c>
       <c r="B181" s="6">
         <f t="shared" si="3"/>
-        <v>2.4643291258150918E-9</v>
+        <v>1.2709012918312661E-2</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -4620,7 +4643,7 @@
       </c>
       <c r="B182" s="6">
         <f t="shared" si="3"/>
-        <v>5.9104203822402483E-9</v>
+        <v>3.04811594375426E-2</v>
       </c>
       <c r="C182" t="s">
         <v>65</v>
@@ -4641,7 +4664,7 @@
       </c>
       <c r="B183" s="6">
         <f t="shared" si="3"/>
-        <v>5.9104203822402483E-9</v>
+        <v>3.04811594375426E-2</v>
       </c>
       <c r="C183" t="s">
         <v>65</v>
@@ -4662,7 +4685,7 @@
       </c>
       <c r="B184" s="6">
         <f t="shared" si="3"/>
-        <v>3.0240458285222569E-7</v>
+        <v>1.5595578162696533</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
@@ -4683,7 +4706,7 @@
       </c>
       <c r="B185" s="6">
         <f t="shared" si="3"/>
-        <v>1.9115075862855906E-11</v>
+        <v>9.8580073388212873E-5</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
@@ -4704,7 +4727,7 @@
       </c>
       <c r="B186" s="6">
         <f t="shared" si="3"/>
-        <v>3.0240120960354332E-7</v>
+        <v>1.5595404197861105</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -4725,7 +4748,7 @@
       </c>
       <c r="B187" s="6">
         <f t="shared" si="3"/>
-        <v>3.3498031380588585E-6</v>
+        <v>17.275570421752473</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
@@ -4746,7 +4769,7 @@
       </c>
       <c r="B188" s="6">
         <f t="shared" si="3"/>
-        <v>3.3554723010387924E-11</v>
+        <v>1.7304807370986745E-4</v>
       </c>
       <c r="C188" t="s">
         <v>22</v>
@@ -4763,11 +4786,11 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B189" s="6">
         <f t="shared" si="3"/>
-        <v>2.9518328080445537E-10</v>
+        <v>1.5223161913378394E-3</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -4784,11 +4807,11 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B190" s="6">
         <f t="shared" si="3"/>
-        <v>4.5860608654801704E-11</v>
+        <v>2.3651186107000925E-4</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -4819,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -4888,83 +4911,83 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>82</v>
-      </c>
-      <c r="B201" s="6">
-        <f>H201*0.09/0.8121</f>
-        <v>6.4300777382446765E-11</v>
+        <v>68</v>
+      </c>
+      <c r="B201" s="12">
+        <f>0.0000006334/H201</f>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>97</v>
-      </c>
-      <c r="H201" s="6">
-        <v>5.8020734791427803E-10</v>
+        <v>67</v>
+      </c>
+      <c r="H201" s="12">
+        <v>6.3340000000000005E-7</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B202" s="6">
-        <f t="shared" ref="B202:B265" si="4">H202*0.09/0.8121</f>
-        <v>1.736727078788766E-8</v>
+        <f>H202*0.00034830220169063/0.8121/$H$201</f>
+        <v>3.9287272098946203E-7</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H202" s="6">
-        <v>1.5671067340937299E-7</v>
+        <v>5.8020734791427803E-10</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B203" s="6">
-        <f t="shared" si="4"/>
-        <v>4.4928545106554555E-3</v>
+        <f t="shared" ref="B203:B266" si="4">H203*0.00034830220169063/0.8121/$H$201</f>
+        <v>1.0611266625931714E-4</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H203" s="6">
-        <v>4.0540523867814399E-2</v>
+        <v>1.5671067340937299E-7</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B204" s="6">
         <f t="shared" si="4"/>
-        <v>9.3442763039984252E-9</v>
+        <v>27.45098968419067</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -4976,19 +4999,19 @@
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="H204" s="6">
-        <v>8.4316519849745797E-8</v>
+        <v>4.0540523867814399E-2</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B205" s="6">
         <f t="shared" si="4"/>
-        <v>3.4555024506976134E-3</v>
+        <v>5.709279742287187E-5</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -5000,19 +5023,19 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>57</v>
-      </c>
-      <c r="H205" s="2">
-        <v>3.1180150446794799E-2</v>
+        <v>88</v>
+      </c>
+      <c r="H205" s="6">
+        <v>8.4316519849745797E-8</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B206" s="6">
         <f t="shared" si="4"/>
-        <v>1.7290130260798667E-3</v>
+        <v>21.112849726789218</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5024,22 +5047,22 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>53</v>
-      </c>
-      <c r="H206" s="6">
-        <v>1.5601460871994001E-2</v>
+        <v>57</v>
+      </c>
+      <c r="H206" s="2">
+        <v>3.1180150446794799E-2</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B207" s="6">
         <f t="shared" si="4"/>
-        <v>5.7907876492730291E-7</v>
+        <v>10.564134367178829</v>
       </c>
       <c r="C207" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E207" t="s">
         <v>3</v>
@@ -5048,22 +5071,22 @@
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H207" s="6">
-        <v>5.2252207221940298E-6</v>
+        <v>1.5601460871994001E-2</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B208" s="6">
         <f t="shared" si="4"/>
-        <v>4.1543378228080937E-8</v>
+        <v>3.5381259652750648E-3</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E208" t="s">
         <v>3</v>
@@ -5072,70 +5095,70 @@
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H208" s="6">
-        <v>3.7485974954471699E-7</v>
+        <v>5.2252207221940298E-6</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B209" s="6">
         <f t="shared" si="4"/>
-        <v>2.0642355835196563E-8</v>
+        <v>2.5382679196062118E-4</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H209" s="6">
-        <v>1.8626285748625699E-7</v>
+        <v>3.7485974954471699E-7</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B210" s="6">
         <f t="shared" si="4"/>
-        <v>2.9378951707326558E-4</v>
+        <v>1.2612317976143538E-4</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H210" s="6">
-        <v>2.6509607423910999E-3</v>
+        <v>1.8626285748625699E-7</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B211" s="6">
         <f t="shared" si="4"/>
-        <v>2.8933395731591388E-8</v>
+        <v>1.7950309727089311</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E211" t="s">
         <v>3</v>
@@ -5144,43 +5167,43 @@
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H211" s="6">
-        <v>2.6107567415139299E-7</v>
+        <v>2.6509607423910999E-3</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B212" s="6">
         <f t="shared" si="4"/>
-        <v>9.9217696019067977E-2</v>
+        <v>1.7678078510506887E-4</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H212" s="6">
-        <v>0.89527434374539006</v>
+        <v>2.6107567415139299E-7</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B213" s="6">
         <f t="shared" si="4"/>
-        <v>3.8841716311240441E-2</v>
+        <v>606.21236308657035</v>
       </c>
       <c r="C213" t="s">
         <v>15</v>
@@ -5192,91 +5215,91 @@
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="H213" s="6">
-        <v>0.35048175351509298</v>
+        <v>0.89527434374539006</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B214" s="6">
         <f t="shared" si="4"/>
-        <v>1.707318632633295E-7</v>
+        <v>237.31984893954854</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E214" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H214" s="6">
-        <v>1.54057051284611E-6</v>
+        <v>0.35048175351509298</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B215" s="6">
         <f t="shared" si="4"/>
-        <v>5.8305544705022014E-3</v>
+        <v>1.0431583319889355E-3</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H215" s="6">
-        <v>5.2611036505498199E-2</v>
+        <v>1.54057051284611E-6</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B216" s="6">
         <f t="shared" si="4"/>
-        <v>7.2216492051459696E-11</v>
+        <v>35.624231820388417</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F216" t="s">
         <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H216" s="6">
-        <v>6.5163347994433803E-10</v>
+        <v>5.2611036505498199E-2</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B217" s="6">
         <f t="shared" si="4"/>
-        <v>3.15059048889082E-11</v>
+        <v>4.4123711854712291E-7</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -5288,22 +5311,22 @@
         <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H217" s="6">
-        <v>2.84288281780915E-10</v>
+        <v>6.5163347994433803E-10</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B218" s="6">
         <f t="shared" si="4"/>
-        <v>-13.142944525933432</v>
+        <v>1.9249861486619494E-7</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E218" t="s">
         <v>3</v>
@@ -5312,19 +5335,19 @@
         <v>13</v>
       </c>
       <c r="G218" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H218" s="6">
-        <v>-118.593169439006</v>
+        <v>2.84288281780915E-10</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B219" s="6">
         <f t="shared" si="4"/>
-        <v>1.9792876171196672E-10</v>
+        <v>-80302.363173708509</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -5336,135 +5359,139 @@
         <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H219" s="6">
-        <v>1.7859771931809801E-9</v>
+        <v>-118.593169439006</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B220" s="6">
         <f t="shared" si="4"/>
-        <v>1.5754124061803472E-4</v>
+        <v>1.2093292545026504E-6</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F220" t="s">
         <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>95</v>
-      </c>
-      <c r="H220" s="2">
-        <v>1.4215471278433999E-3</v>
+        <v>93</v>
+      </c>
+      <c r="H220" s="6">
+        <v>1.7859771931809801E-9</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B221" s="6">
         <f t="shared" si="4"/>
-        <v>5.5365019258564593E-3</v>
+        <v>0.96256465923472612</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F221" t="s">
         <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H221" s="2">
-        <v>4.9957702377644797E-2</v>
+        <v>1.4215471278433999E-3</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B222" s="6">
         <f t="shared" si="4"/>
-        <v>-7.5048669291158134</v>
+        <v>33.827593769782446</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F222" t="s">
         <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>96</v>
-      </c>
-      <c r="H222" s="6">
-        <v>-67.718915923721696</v>
+        <v>99</v>
+      </c>
+      <c r="H222" s="2">
+        <v>4.9957702377644797E-2</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B223" s="6">
         <f t="shared" si="4"/>
-        <v>4.3162984419366603E-8</v>
+        <v>-45854.149998355177</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F223" t="s">
         <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H223" s="6">
-        <v>3.8947399607741801E-7</v>
+        <v>-67.718915923721696</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>68</v>
-      </c>
-      <c r="B224" s="12">
-        <v>6.3340000000000005E-7</v>
+        <v>76</v>
+      </c>
+      <c r="B224" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6372245912366675E-4</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="H224" s="6">
+        <v>3.8947399607741801E-7</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B225" s="6">
         <f t="shared" si="4"/>
-        <v>1.1710942830160917E-7</v>
+        <v>7.155294480612821E-4</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -5481,11 +5508,11 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B226" s="6">
         <f t="shared" si="4"/>
-        <v>6.9900993849038565E-10</v>
+        <v>4.2708960562016829E-6</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -5502,11 +5529,11 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B227" s="6">
         <f t="shared" si="4"/>
-        <v>5.2425745386778862E-9</v>
+        <v>3.2031720421512585E-5</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -5523,11 +5550,11 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B228" s="6">
         <f t="shared" si="4"/>
-        <v>4.0132404331172179E-9</v>
+        <v>2.4520585179956225E-5</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -5544,11 +5571,11 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B229" s="6">
         <f t="shared" si="4"/>
-        <v>1.4493076581616401E-12</v>
+        <v>8.8551564443179706E-9</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -5565,11 +5592,11 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B230" s="6">
         <f t="shared" si="4"/>
-        <v>9.0922767808412895E-9</v>
+        <v>5.5553100044690287E-5</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -5590,7 +5617,7 @@
       </c>
       <c r="B231" s="6">
         <f t="shared" si="4"/>
-        <v>1.4171788547747766E-5</v>
+        <v>8.6588519683447385E-2</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -5611,7 +5638,7 @@
       </c>
       <c r="B232" s="6">
         <f t="shared" si="4"/>
-        <v>3.4950496924519175E-8</v>
+        <v>2.1354480281008349E-4</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
@@ -5628,11 +5655,11 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B233" s="6">
         <f t="shared" si="4"/>
-        <v>3.8445546616971109E-10</v>
+        <v>2.3489928309109195E-6</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -5649,11 +5676,11 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B234" s="6">
         <f t="shared" si="4"/>
-        <v>4.2947733124461767E-10</v>
+        <v>2.6240729054611149E-6</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -5670,11 +5697,11 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B235" s="6">
         <f t="shared" si="4"/>
-        <v>9.3301032484451344E-4</v>
+        <v>5.7006201161883645</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -5695,7 +5722,7 @@
       </c>
       <c r="B236" s="6">
         <f t="shared" si="4"/>
-        <v>4.3371589878060286E-3</v>
+        <v>26.49970221617275</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -5716,7 +5743,7 @@
       </c>
       <c r="B237" s="6">
         <f t="shared" si="4"/>
-        <v>7.5979341140259237E-4</v>
+        <v>4.6422783219583481</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -5733,11 +5760,11 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B238" s="6">
         <f t="shared" si="4"/>
-        <v>3.4950496924519166E-7</v>
+        <v>2.1354480281008349E-3</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
@@ -5754,11 +5781,11 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B239" s="6">
         <f t="shared" si="4"/>
-        <v>7.4350374877084065E-10</v>
+        <v>4.5427497572557427E-6</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
@@ -5775,11 +5802,11 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B240" s="6">
         <f t="shared" si="4"/>
-        <v>6.9900993849038562E-8</v>
+        <v>4.2708960562016834E-4</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -5796,11 +5823,11 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B241" s="6">
         <f t="shared" si="4"/>
-        <v>1.0623406333151139E-9</v>
+        <v>6.4908181863149907E-6</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -5821,7 +5848,7 @@
       </c>
       <c r="B242" s="6">
         <f t="shared" si="4"/>
-        <v>1.4171620652700665E-5</v>
+        <v>8.65874938578403E-2</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
@@ -5842,7 +5869,7 @@
       </c>
       <c r="B243" s="6">
         <f t="shared" si="4"/>
-        <v>2.5832975984071405E-2</v>
+        <v>157.83746292448583</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -5859,11 +5886,11 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B244" s="6">
         <f t="shared" si="4"/>
-        <v>1.7475248462259583E-7</v>
+        <v>1.0677240140504174E-3</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -5880,11 +5907,11 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B245" s="6">
         <f t="shared" si="4"/>
-        <v>1.0766989901312282E-8</v>
+        <v>6.578546623527079E-5</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -5905,7 +5932,7 @@
       </c>
       <c r="B246" s="6">
         <f t="shared" si="4"/>
-        <v>4.3994951161092939E-17</v>
+        <v>2.6880571084939147E-13</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -5926,7 +5953,7 @@
       </c>
       <c r="B247" s="6">
         <f t="shared" si="4"/>
-        <v>4.6455955087280454E-6</v>
+        <v>2.8384225236888758E-2</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -5947,7 +5974,7 @@
       </c>
       <c r="B248" s="6">
         <f t="shared" si="4"/>
-        <v>7.0280715685190346E-6</v>
+        <v>4.2940967634187616E-2</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -5968,7 +5995,7 @@
       </c>
       <c r="B249" s="6">
         <f t="shared" si="4"/>
-        <v>5.5440645542942143E-6</v>
+        <v>3.3873800838081183E-2</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
@@ -5989,7 +6016,7 @@
       </c>
       <c r="B250" s="6">
         <f t="shared" si="4"/>
-        <v>3.3202972078293201E-6</v>
+        <v>2.0286756266957921E-2</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
@@ -6006,11 +6033,11 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B251" s="6">
         <f t="shared" si="4"/>
-        <v>14.500849749007756</v>
+        <v>88599.057888019161</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
@@ -6027,11 +6054,11 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B252" s="6">
         <f t="shared" si="4"/>
-        <v>2.4513050837379274E-7</v>
+        <v>1.4977282350653511E-3</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
@@ -6048,11 +6075,11 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B253" s="6">
         <f t="shared" si="4"/>
-        <v>3.9526496893680195E-7</v>
+        <v>2.4150380474312633E-3</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -6069,11 +6096,11 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B254" s="6">
         <f t="shared" si="4"/>
-        <v>4.8930695694326925E-8</v>
+        <v>2.9896272393411746E-4</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
@@ -6090,11 +6117,11 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B255" s="6">
         <f t="shared" si="4"/>
-        <v>3.8056474222194348E-9</v>
+        <v>2.3252208118747144E-5</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
@@ -6111,11 +6138,11 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B256" s="6">
         <f t="shared" si="4"/>
-        <v>3.3202972078293201E-6</v>
+        <v>2.0286756266957921E-2</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
@@ -6132,11 +6159,11 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B257" s="6">
         <f t="shared" si="4"/>
-        <v>3.3540599903830328E-8</v>
+        <v>2.0493044227850815E-4</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -6153,11 +6180,11 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B258" s="6">
         <f t="shared" si="4"/>
-        <v>1.7475248462259587E-10</v>
+        <v>1.0677240140504173E-6</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -6174,11 +6201,11 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B259" s="6">
         <f t="shared" si="4"/>
-        <v>5.1194638198120977E-11</v>
+        <v>3.1279523557451436E-7</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -6199,7 +6226,7 @@
       </c>
       <c r="B260" s="6">
         <f t="shared" si="4"/>
-        <v>1.8124613428687625E-3</v>
+        <v>11.073997056456262</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -6216,11 +6243,11 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B261" s="6">
         <f t="shared" si="4"/>
-        <v>1.1136668677768083E-15</v>
+        <v>6.8044174647680949E-12</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -6237,11 +6264,11 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B262" s="6">
         <f t="shared" si="4"/>
-        <v>2.7960397539615287E-7</v>
+        <v>1.7083584224806654E-3</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -6258,11 +6285,11 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B263" s="6">
         <f t="shared" si="4"/>
-        <v>3.3080745785173031E-8</v>
+        <v>2.0212076957765491E-4</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -6283,7 +6310,7 @@
       </c>
       <c r="B264" s="6">
         <f t="shared" si="4"/>
-        <v>4.1677861532129591E-9</v>
+        <v>2.546484744307257E-5</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -6304,7 +6331,7 @@
       </c>
       <c r="B265" s="6">
         <f t="shared" si="4"/>
-        <v>3.093073174215903E-5</v>
+        <v>0.18898435192253876</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -6324,8 +6351,8 @@
         <v>60</v>
       </c>
       <c r="B266" s="6">
-        <f t="shared" ref="B266:B285" si="5">H266*0.09/0.8121</f>
-        <v>3.9992480672189985E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.4435092918629162</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
@@ -6342,11 +6369,11 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B267" s="6">
-        <f t="shared" si="5"/>
-        <v>1.7179756647915515E-4</v>
+        <f t="shared" ref="B267:B285" si="5">H267*0.00034830220169063/0.8121/$H$201</f>
+        <v>1.04966969529141</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -6363,11 +6390,11 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B268" s="6">
         <f t="shared" si="5"/>
-        <v>1.7772033228665273E-3</v>
+        <v>10.858573311692014</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -6384,11 +6411,11 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B269" s="6">
         <f t="shared" si="5"/>
-        <v>1.5460488031062355E-3</v>
+        <v>9.4462372740249307</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -6405,10 +6432,10 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>136</v>
-      </c>
-      <c r="B270" s="12">
-        <v>6.3340000000000005E-7</v>
+        <v>134</v>
+      </c>
+      <c r="B270" s="6">
+        <v>1</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -6429,7 +6456,7 @@
       </c>
       <c r="B271" s="6">
         <f t="shared" si="5"/>
-        <v>7.2150733312708901E-5</v>
+        <v>0.44083533779619671</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -6446,11 +6473,11 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B272" s="6">
         <f t="shared" si="5"/>
-        <v>1.7475248462259587E-10</v>
+        <v>1.0677240140504173E-6</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -6467,11 +6494,11 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B273" s="6">
         <f t="shared" si="5"/>
-        <v>8.7266460981070249E-6</v>
+        <v>5.3319125168326528E-2</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -6492,7 +6519,7 @@
       </c>
       <c r="B274" s="6">
         <f t="shared" si="5"/>
-        <v>3.2053451497926671E-3</v>
+        <v>19.58440818249251</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -6509,11 +6536,11 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B275" s="6">
         <f t="shared" si="5"/>
-        <v>6.2133925134840259E-6</v>
+        <v>3.7963342322116331E-2</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -6534,7 +6561,7 @@
       </c>
       <c r="B276" s="6">
         <f t="shared" si="5"/>
-        <v>5.5438811394177421E-6</v>
+        <v>3.3872680187530403E-2</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -6555,7 +6582,7 @@
       </c>
       <c r="B277" s="6">
         <f t="shared" si="5"/>
-        <v>1.3296384699545361E-5</v>
+        <v>8.1239870634271044E-2</v>
       </c>
       <c r="C277" t="s">
         <v>65</v>
@@ -6576,7 +6603,7 @@
       </c>
       <c r="B278" s="6">
         <f t="shared" si="5"/>
-        <v>1.3296384699545361E-5</v>
+        <v>8.1239870634271044E-2</v>
       </c>
       <c r="C278" t="s">
         <v>65</v>
@@ -6597,7 +6624,7 @@
       </c>
       <c r="B279" s="6">
         <f t="shared" si="5"/>
-        <v>6.8030485286474352E-4</v>
+        <v>4.1566094459111369</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
@@ -6618,7 +6645,7 @@
       </c>
       <c r="B280" s="6">
         <f t="shared" si="5"/>
-        <v>4.3002254627646582E-8</v>
+        <v>2.6274041266656815E-4</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
@@ -6639,7 +6666,7 @@
       </c>
       <c r="B281" s="6">
         <f t="shared" si="5"/>
-        <v>6.802972642315744E-4</v>
+        <v>4.156563079955963</v>
       </c>
       <c r="C281" t="s">
         <v>22</v>
@@ -6660,7 +6687,7 @@
       </c>
       <c r="B282" s="6">
         <f t="shared" si="5"/>
-        <v>7.5642952763624203E-3</v>
+        <v>46.217252552276307</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
@@ -6681,7 +6708,7 @@
       </c>
       <c r="B283" s="6">
         <f t="shared" si="5"/>
-        <v>7.6746182867774008E-8</v>
+        <v>4.6891317517800584E-4</v>
       </c>
       <c r="C283" t="s">
         <v>22</v>
@@ -6698,11 +6725,11 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B284" s="6">
         <f t="shared" si="5"/>
-        <v>6.6405944156586509E-7</v>
+        <v>4.0573512533915923E-3</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -6719,11 +6746,11 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B285" s="6">
         <f t="shared" si="5"/>
-        <v>1.031703763512022E-7</v>
+        <v>6.3036293078578805E-4</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -6775,18 +6802,18 @@
       <c r="B316" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19"/>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,17 +6824,17 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -6815,10 +6842,10 @@
         <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -6834,10 +6861,10 @@
       </c>
       <c r="E5" s="13">
         <f>D5/SUM($D$5:$D$7)</f>
-        <v>4.8437160271416882E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.8458399464587625E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -6853,42 +6880,49 @@
       </c>
       <c r="E6" s="13">
         <f t="shared" ref="E6:E7" si="1">D6/SUM($D$5:$D$7)</f>
-        <v>0.9508569795036711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.95127392044224512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <f>705.05/1.24</f>
+        <v>568.58870967741927</v>
       </c>
       <c r="C7" s="12">
         <v>4.1581000000000002E-7</v>
       </c>
       <c r="D7" s="7">
         <f>B7*C7</f>
-        <v>6.2371500000000005E-4</v>
+        <v>2.3642487137096773E-4</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>7.058602249120832E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.6768009316723875E-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>110</v>
       </c>
@@ -6896,10 +6930,10 @@
         <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -6915,10 +6949,10 @@
       </c>
       <c r="E14" s="13">
         <f>D14/SUM($D$14:$D$16)</f>
-        <v>0.23785962894597396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2378780361070002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -6934,26 +6968,27 @@
       </c>
       <c r="E15" s="13">
         <f t="shared" ref="E15:E16" si="3">D15/SUM($D$14:$D$16)</f>
-        <v>0.76201575263759747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.76207472248769559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16">
-        <v>1500</v>
+        <f>705.05/1.24</f>
+        <v>568.58870967741927</v>
       </c>
       <c r="C16" s="12">
         <v>9.1603000000000003E-8</v>
       </c>
       <c r="D16" s="7">
         <f>B16*C16</f>
-        <v>1.374045E-4</v>
-      </c>
-      <c r="E16" s="13">
+        <v>5.2084431572580642E-5</v>
+      </c>
+      <c r="E16" s="15">
         <f t="shared" si="3"/>
-        <v>1.246184164285798E-4</v>
+        <v>4.7241405304217763E-5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6969,7 +7004,7 @@
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6988,7 +7023,7 @@
       </c>
       <c r="E20" s="13">
         <f>D20/SUM($D$20:$D$22)</f>
-        <v>0.18697161082007041</v>
+        <v>0.18707828889147662</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7007,7 +7042,7 @@
       </c>
       <c r="E21" s="13">
         <f t="shared" ref="E21:E22" si="5">D21/SUM($D$20:$D$22)</f>
-        <v>0.81211005335311348</v>
+        <v>0.81257340890683261</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7015,18 +7050,19 @@
         <v>67</v>
       </c>
       <c r="B22">
-        <v>1500</v>
+        <f>705.05/1.24</f>
+        <v>568.58870967741927</v>
       </c>
       <c r="C22" s="12">
         <v>6.3340000000000005E-7</v>
       </c>
       <c r="D22" s="7">
         <f>B22*C22</f>
-        <v>9.5010000000000005E-4</v>
+        <v>3.6014408870967742E-4</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="5"/>
-        <v>9.1833582681598812E-4</v>
+        <v>3.4830220169063E-4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CB55F-304A-4011-AC37-A3C0C6BE16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="30240" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rhenium!$A$1:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="143">
   <si>
     <t>Activity</t>
   </si>
@@ -378,9 +376,15 @@
     <t>kg/kg copper</t>
   </si>
   <si>
+    <t>usgs</t>
+  </si>
+  <si>
     <t>Allocation</t>
   </si>
   <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.07%) and divided by former allocation value of copper (95.09%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
     <t>Aluminium III</t>
   </si>
   <si>
@@ -459,31 +463,16 @@
     <t>Zinc II</t>
   </si>
   <si>
-    <t>USGS 2023 - 1100$/kg || $1,100 in 2023 is worth $705.05 in 2005</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>https://www.macrotrends.net/2548/euro-dollar-exchange-rate-historical-chart</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.03%) and divided by former allocation value of copper (95.09%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.005%) and divided by former allocation value of copper (76.2%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.03%) and divided by former allocation value of copper (81.21%). Allocation method can be found in the supplementary excel file.</t>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.01%) and divided by former allocation value of copper (76.2%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of rhenium (0.09%) and divided by former allocation value of copper (81.21%). Allocation method can be found in the supplementary excel file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,7 +541,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -571,15 +560,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Per cent 2" xfId="2"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -857,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -971,8 +956,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="12">
-        <f>H11/H11</f>
-        <v>1</v>
+        <v>4.1581000000000002E-7</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -986,17 +970,15 @@
       <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="12">
-        <v>4.1581000000000002E-7</v>
-      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="6">
-        <f>H12*0.000267680093167239/0.9509/$H$11</f>
-        <v>2.8980016200422941E-7</v>
+        <f>H12*0.07/0.9509</f>
+        <v>3.1511967422016977E-11</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1013,7 +995,6 @@
       <c r="H12" s="7">
         <v>4.2806756887994201E-10</v>
       </c>
-      <c r="J12" s="13"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1021,8 +1002,8 @@
         <v>70</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" ref="B13:B76" si="0">H13*0.000267680093167239/0.9509/$H$11</f>
-        <v>7.8273359868820874E-5</v>
+        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509</f>
+        <v>8.5112014746289104E-9</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1047,7 +1028,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>28.963995056656643</v>
+        <v>3.149454652904937E-3</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1073,7 +1054,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>6.023955862251154E-5</v>
+        <v>6.550262069217069E-9</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1097,7 +1078,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>22.276518338821013</v>
+        <v>2.4222792537936773E-3</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1121,7 +1102,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>7.7925691642128223</v>
+        <v>8.4733971140052281E-4</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1145,7 +1126,7 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>2.6098769987025526E-3</v>
+        <v>2.8378989987378276E-7</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -1169,7 +1150,7 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>2.6781686315041929E-4</v>
+        <v>2.9121571942184168E-8</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1194,7 +1175,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>1.3307466132063937E-4</v>
+        <v>1.4470124389270461E-8</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1219,7 +1200,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>1.8939669869181255</v>
+        <v>2.0594407393488142E-4</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1244,7 +1225,7 @@
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>1.3040126592056707E-4</v>
+        <v>1.4179427696174688E-8</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1270,7 +1251,7 @@
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>447.1688453934849</v>
+        <v>4.8623748139846774E-2</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1296,7 +1277,7 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>250.40011346076338</v>
+        <v>2.7227728802062482E-2</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1321,7 +1302,7 @@
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>1.1006536783786105E-3</v>
+        <v>1.1968165447569261E-7</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1346,7 +1327,7 @@
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>37.587718556360812</v>
+        <v>4.0871714992302133E-3</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1371,7 +1352,7 @@
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>3.2547586433384751E-7</v>
+        <v>3.5391232229163953E-11</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1396,7 +1377,7 @@
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>1.4199542700066856E-7</v>
+        <v>1.544014067754439E-11</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1421,7 +1402,7 @@
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>-59234.54751058518</v>
+        <v>-6.4409802896667658</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1446,7 +1427,7 @@
       </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
-        <v>1.2759833780950149E-6</v>
+        <v>1.3874646019341583E-10</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1471,7 +1452,7 @@
       </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>1.0156179559472638</v>
+        <v>1.1043513474833243E-4</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1496,7 +1477,7 @@
       </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>24.952717842069589</v>
+        <v>2.7132808563392146E-3</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1521,7 +1502,7 @@
       </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>-33551.49361660573</v>
+        <v>-3.6482849646959834</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1546,7 +1527,7 @@
       </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
-        <v>1.9453326050663234E-4</v>
+        <v>2.115294113429197E-8</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1567,11 +1548,11 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
-        <v>5.2951721433780799E-4</v>
+        <v>5.7578053415189837E-8</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1589,11 +1570,11 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" si="0"/>
-        <v>3.1504003787111191E-6</v>
+        <v>3.4256472948005415E-10</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1611,11 +1592,11 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" si="0"/>
-        <v>2.3628002840333408E-5</v>
+        <v>2.5692354711004083E-9</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1633,11 +1614,11 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B38" s="6">
         <f t="shared" si="0"/>
-        <v>1.8087459825902264E-5</v>
+        <v>1.9667740723090234E-9</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1655,11 +1636,11 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>6.5319520420584133E-9</v>
+        <v>7.1026413004047242E-13</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1677,11 +1658,11 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" si="0"/>
-        <v>4.0978404792885063E-5</v>
+        <v>4.4558641648405037E-9</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1703,7 +1684,7 @@
       </c>
       <c r="B41" s="6">
         <f t="shared" si="0"/>
-        <v>6.3871492448677014E-2</v>
+        <v>6.9451872466825583E-6</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1725,7 +1706,7 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" si="0"/>
-        <v>1.5752001893555562E-4</v>
+        <v>1.7128236474002673E-8</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1743,11 +1724,11 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B43" s="6">
         <f t="shared" si="0"/>
-        <v>1.7327202082911169E-6</v>
+        <v>1.8841060121402999E-10</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1765,11 +1746,11 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B44" s="6">
         <f t="shared" si="0"/>
-        <v>1.9356313444168604E-6</v>
+        <v>2.1047452646147537E-10</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1787,11 +1768,11 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B45" s="6">
         <f t="shared" si="0"/>
-        <v>4.205027595286424</v>
+        <v>4.5724160978700317E-4</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1813,7 +1794,7 @@
       </c>
       <c r="B46" s="6">
         <f t="shared" si="0"/>
-        <v>19.547343414348909</v>
+        <v>2.1255172688652651E-3</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1835,7 +1816,7 @@
       </c>
       <c r="B47" s="6">
         <f t="shared" si="0"/>
-        <v>3.4243482377294803</v>
+        <v>3.7235296682614622E-4</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1853,11 +1834,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B48" s="6">
         <f t="shared" si="0"/>
-        <v>1.5752001893555561E-3</v>
+        <v>1.7128236474002675E-7</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1875,11 +1856,11 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B49" s="6">
         <f t="shared" si="0"/>
-        <v>3.3509316001420752E-6</v>
+        <v>3.6436987021264404E-10</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1897,11 +1878,11 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" si="0"/>
-        <v>3.150400378711126E-4</v>
+        <v>3.4256472948005499E-8</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1919,11 +1900,11 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" si="0"/>
-        <v>4.7879123732404331E-6</v>
+        <v>5.2062268592804513E-10</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1945,7 +1926,7 @@
       </c>
       <c r="B52" s="6">
         <f t="shared" si="0"/>
-        <v>6.3870735754686075E-2</v>
+        <v>6.9451049661336942E-6</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1967,7 +1948,7 @@
       </c>
       <c r="B53" s="6">
         <f t="shared" si="0"/>
-        <v>184.68213269050585</v>
+        <v>2.0081760163705165E-2</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1985,11 +1966,11 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="0"/>
-        <v>7.8760009467777805E-4</v>
+        <v>8.5641182370013377E-8</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -2007,11 +1988,11 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B55" s="6">
         <f t="shared" si="0"/>
-        <v>4.8526247188887024E-5</v>
+        <v>5.276593049339407E-9</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2033,7 +2014,7 @@
       </c>
       <c r="B56" s="6">
         <f t="shared" si="0"/>
-        <v>1.9828289008109835E-13</v>
+        <v>2.1560664181021941E-17</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -2055,7 +2036,7 @@
       </c>
       <c r="B57" s="6">
         <f t="shared" si="0"/>
-        <v>2.0937450305274666E-2</v>
+        <v>2.2766731645591203E-6</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2077,7 +2058,7 @@
       </c>
       <c r="B58" s="6">
         <f t="shared" si="0"/>
-        <v>3.1675142386227775E-2</v>
+        <v>3.4442563732866091E-6</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2099,7 +2080,7 @@
       </c>
       <c r="B59" s="6">
         <f t="shared" si="0"/>
-        <v>2.4986802203653711E-2</v>
+        <v>2.716987083707795E-6</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2121,7 +2102,7 @@
       </c>
       <c r="B60" s="6">
         <f t="shared" si="0"/>
-        <v>1.4964401798877789E-2</v>
+        <v>1.6271824650302548E-6</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2139,11 +2120,11 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="0"/>
-        <v>65281.355840624659</v>
+        <v>7.0984914027923818</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -2161,11 +2142,11 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="6">
         <f t="shared" si="0"/>
-        <v>1.7528999419072239E-3</v>
+        <v>1.9060488262470242E-7</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2183,11 +2164,11 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="6">
         <f t="shared" si="0"/>
-        <v>1.7814380586905847E-3</v>
+        <v>1.9370802859999645E-7</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -2205,11 +2186,11 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" s="6">
         <f t="shared" si="0"/>
-        <v>2.2052802650977867E-4</v>
+        <v>2.3979531063603829E-8</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2227,11 +2208,11 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" s="6">
         <f t="shared" si="0"/>
-        <v>1.7151849237070656E-5</v>
+        <v>1.8650386895850984E-9</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2249,11 +2230,11 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" si="0"/>
-        <v>1.4964401798877789E-2</v>
+        <v>1.6271824650302548E-6</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -2271,11 +2252,11 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="0"/>
-        <v>1.5116568852715731E-4</v>
+        <v>1.6437286367441806E-8</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -2293,11 +2274,11 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="0"/>
-        <v>7.8760009467777799E-7</v>
+        <v>8.564118237001337E-11</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
@@ -2315,11 +2296,11 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="0"/>
-        <v>2.3073149419828723E-7</v>
+        <v>2.5089024375023E-11</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
@@ -2341,7 +2322,7 @@
       </c>
       <c r="B70" s="6">
         <f t="shared" si="0"/>
-        <v>2.8677143600239012</v>
+        <v>3.1182633185486143E-4</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -2359,11 +2340,11 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" si="0"/>
-        <v>5.0192369647550513E-12</v>
+        <v>5.4577620185883896E-16</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
@@ -2381,11 +2362,11 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" si="0"/>
-        <v>1.2601601514844478E-3</v>
+        <v>1.3702589179202168E-7</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
@@ -2403,11 +2384,11 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" si="0"/>
-        <v>1.4909315062776993E-4</v>
+        <v>1.6211925048404871E-8</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -2429,7 +2410,7 @@
       </c>
       <c r="B74" s="6">
         <f t="shared" si="0"/>
-        <v>1.8783989114411805E-5</v>
+        <v>2.0425124987343096E-9</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
@@ -2451,7 +2432,7 @@
       </c>
       <c r="B75" s="6">
         <f t="shared" si="0"/>
-        <v>0.13940315241404844</v>
+        <v>1.5158264809161323E-5</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>7</v>
@@ -2473,7 +2454,7 @@
       </c>
       <c r="B76" s="6">
         <f t="shared" si="0"/>
-        <v>1.8024396981731592</v>
+        <v>1.9599168149586396E-4</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -2491,11 +2472,11 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" ref="B77:B94" si="1">H77*0.000267680093167239/0.9509/$H$11</f>
-        <v>0.77428243676541275</v>
+        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509</f>
+        <v>8.4193061708624998E-5</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
@@ -2513,11 +2494,11 @@
     </row>
     <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B78" s="6">
         <f t="shared" si="1"/>
-        <v>8.0097602524751821</v>
+        <v>8.7095639418752571E-4</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
@@ -2534,11 +2515,11 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B79" s="6">
         <f t="shared" si="1"/>
-        <v>6.9679592043150684</v>
+        <v>7.5767419150412772E-4</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
@@ -2559,7 +2540,7 @@
       </c>
       <c r="B80" s="6">
         <f t="shared" si="1"/>
-        <v>0.51594155730120494</v>
+        <v>5.6101878732224454E-5</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>7</v>
@@ -2576,11 +2557,11 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B81" s="6">
         <f t="shared" si="1"/>
-        <v>7.8760009467777799E-7</v>
+        <v>8.564118237001337E-11</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>7</v>
@@ -2597,11 +2578,11 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B82" s="6">
         <f t="shared" si="1"/>
-        <v>6.2403237931897393E-2</v>
+        <v>6.7855338214394308E-6</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>7</v>
@@ -2622,7 +2603,7 @@
       </c>
       <c r="B83" s="6">
         <f t="shared" si="1"/>
-        <v>14.446319026042831</v>
+        <v>1.5708477571868369E-3</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>7</v>
@@ -2639,11 +2620,11 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B84" s="6">
         <f t="shared" si="1"/>
-        <v>4.4446458704087297E-2</v>
+        <v>4.8329695505373162E-6</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>7</v>
@@ -2664,7 +2645,7 @@
       </c>
       <c r="B85" s="6">
         <f t="shared" si="1"/>
-        <v>2.4985975562622643E-2</v>
+        <v>2.7168971973355424E-6</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>7</v>
@@ -2685,7 +2666,7 @@
       </c>
       <c r="B86" s="6">
         <f t="shared" si="1"/>
-        <v>5.9926094160265911E-2</v>
+        <v>6.5161769194575589E-6</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>65</v>
@@ -2706,7 +2687,7 @@
       </c>
       <c r="B87" s="6">
         <f t="shared" si="1"/>
-        <v>5.9926094160265911E-2</v>
+        <v>6.5161769194575589E-6</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>65</v>
@@ -2727,7 +2708,7 @@
       </c>
       <c r="B88" s="6">
         <f t="shared" si="1"/>
-        <v>3.0660975589742394</v>
+        <v>3.3339790331004697E-4</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
@@ -2748,7 +2729,7 @@
       </c>
       <c r="B89" s="6">
         <f t="shared" si="1"/>
-        <v>1.9380885993830994E-4</v>
+        <v>2.1074172071667593E-8</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
@@ -2769,7 +2750,7 @@
       </c>
       <c r="B90" s="6">
         <f t="shared" si="1"/>
-        <v>3.0660633574107212</v>
+        <v>3.333941843385049E-4</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -2790,7 +2771,7 @@
       </c>
       <c r="B91" s="6">
         <f t="shared" si="1"/>
-        <v>34.033057220898193</v>
+        <v>3.7006486918421113E-3</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -2811,7 +2792,7 @@
       </c>
       <c r="B92" s="6">
         <f t="shared" si="1"/>
-        <v>3.4347363681650416E-4</v>
+        <v>3.7348253978979514E-8</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -2828,11 +2809,11 @@
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B93" s="6">
         <f t="shared" si="1"/>
-        <v>2.9928803597755651E-3</v>
+        <v>3.254364930060517E-7</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>7</v>
@@ -2849,11 +2830,11 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B94" s="6">
         <f t="shared" si="1"/>
-        <v>4.6498336408570004E-4</v>
+        <v>5.0560843442988125E-8</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
@@ -2872,9 +2853,8 @@
       <c r="A95" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="14">
-        <f>0.00000041581/H11</f>
-        <v>1</v>
+      <c r="B95" s="12">
+        <v>4.1581000000000002E-7</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -2903,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,83 +2952,83 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>68</v>
-      </c>
-      <c r="B106" s="12">
-        <f>0.000000091603/H106</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="B106" s="6">
+        <f>H106*0.01/76.2</f>
+        <v>2.8582553364908397E-14</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>67</v>
-      </c>
-      <c r="H106" s="12">
-        <v>9.1603000000000003E-8</v>
+        <v>97</v>
+      </c>
+      <c r="H106" s="6">
+        <v>2.17799056640602E-10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B107" s="6">
-        <f>H107*0.0000472414053042178/0.762/$H$106</f>
-        <v>1.4740565135869698E-7</v>
+        <f t="shared" ref="B107:B170" si="2">H107*0.01/76.2</f>
+        <v>7.7199835570436614E-12</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H107" s="6">
-        <v>2.17799056640602E-10</v>
+        <v>5.8826274704672697E-8</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" ref="B108:B171" si="2">H108*0.0000472414053042178/0.762/$H$106</f>
-        <v>3.9813420101983189E-5</v>
+        <f t="shared" si="2"/>
+        <v>4.1914778786236484E-6</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H108" s="6">
-        <v>5.8826274704672697E-8</v>
+        <v>3.1939061435112201E-2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B109" s="6">
         <f t="shared" si="2"/>
-        <v>21.616246770053685</v>
+        <v>8.7174706697196712E-12</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -3060,19 +3040,19 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="H109" s="6">
-        <v>3.1939061435112201E-2</v>
+        <v>6.6427126503263895E-8</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B110" s="6">
         <f t="shared" si="2"/>
-        <v>4.4957650419293901E-5</v>
+        <v>3.2237104600825065E-6</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3084,19 +3064,19 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H110" s="6">
-        <v>6.6427126503263895E-8</v>
+        <v>2.45646737058287E-2</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B111" s="6">
         <f t="shared" si="2"/>
-        <v>16.62528655482944</v>
+        <v>7.6856935636427419E-7</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3108,22 +3088,22 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H111" s="6">
-        <v>2.45646737058287E-2</v>
+        <v>5.8564984954957702E-3</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B112" s="6">
         <f t="shared" si="2"/>
-        <v>3.9636580099348806</v>
+        <v>2.5740823633553939E-10</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E112" t="s">
         <v>3</v>
@@ -3132,22 +3112,22 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H112" s="6">
-        <v>5.8564984954957702E-3</v>
+        <v>1.9614507608768098E-6</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B113" s="6">
         <f t="shared" si="2"/>
-        <v>1.3275031190431643E-3</v>
+        <v>3.8756685851573222E-11</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
         <v>3</v>
@@ -3156,70 +3136,70 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H113" s="6">
-        <v>1.9614507608768098E-6</v>
+        <v>2.9532594618898798E-7</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B114" s="6">
         <f t="shared" si="2"/>
-        <v>1.9987558317548709E-4</v>
+        <v>1.9257685206744357E-11</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H114" s="6">
-        <v>2.9532594618898798E-7</v>
+        <v>1.4674356127539201E-7</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B115" s="6">
         <f t="shared" si="2"/>
-        <v>9.9315536835349212E-5</v>
+        <v>2.7408238100380316E-7</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H115" s="6">
-        <v>1.4674356127539201E-7</v>
+        <v>2.08850774324898E-3</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B116" s="6">
         <f t="shared" si="2"/>
-        <v>1.4134948470842341</v>
+        <v>1.2861280394908242E-11</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
         <v>3</v>
@@ -3228,43 +3208,43 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="H116" s="6">
-        <v>2.08850774324898E-3</v>
+        <v>9.8002956609200806E-8</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B117" s="6">
         <f t="shared" si="2"/>
-        <v>6.6328063476856711E-5</v>
+        <v>4.4103589515582022E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H117" s="6">
-        <v>9.8002956609200806E-8</v>
+        <v>0.33606935210873501</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B118" s="6">
         <f t="shared" si="2"/>
-        <v>227.45057996751859</v>
+        <v>3.6236248981627562E-5</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -3276,91 +3256,91 @@
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="H118" s="6">
-        <v>0.33606935210873501</v>
+        <v>0.27612021724000202</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B119" s="6">
         <f t="shared" si="2"/>
-        <v>186.87721197402018</v>
+        <v>1.5927932372331495E-10</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="H119" s="6">
-        <v>0.27612021724000202</v>
+        <v>1.21370844677166E-6</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B120" s="6">
         <f t="shared" si="2"/>
-        <v>8.2143369634125895E-4</v>
+        <v>5.43944613057479E-6</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H120" s="6">
-        <v>1.21370844677166E-6</v>
+        <v>4.1448579514979898E-2</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B121" s="6">
         <f t="shared" si="2"/>
-        <v>28.052255852422174</v>
+        <v>3.2101194136585955E-14</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H121" s="6">
-        <v>4.1448579514979898E-2</v>
+        <v>2.4461109932078497E-10</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B122" s="6">
         <f t="shared" si="2"/>
-        <v>1.655519494946494E-7</v>
+        <v>1.4004795034449737E-14</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -3372,22 +3352,22 @@
         <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H122" s="6">
-        <v>2.4461109932078497E-10</v>
+        <v>1.06716538162507E-10</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B123" s="6">
         <f t="shared" si="2"/>
-        <v>7.2225385459530455E-8</v>
+        <v>-5.842214178067952E-3</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
         <v>3</v>
@@ -3396,19 +3376,19 @@
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H123" s="6">
-        <v>1.06716538162507E-10</v>
+        <v>94</v>
+      </c>
+      <c r="H123" s="2">
+        <v>-44.517672036877798</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B124" s="6">
         <f t="shared" si="2"/>
-        <v>-30129.407100221146</v>
+        <v>1.8465187873133465E-13</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -3420,139 +3400,136 @@
         <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>94</v>
-      </c>
-      <c r="H124" s="2">
-        <v>-44.517672036877798</v>
+        <v>93</v>
+      </c>
+      <c r="H124" s="6">
+        <v>1.40704731593277E-9</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B125" s="6">
         <f t="shared" si="2"/>
-        <v>9.5228477706322425E-7</v>
+        <v>1.469735161589029E-7</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H125" s="6">
-        <v>1.40704731593277E-9</v>
+        <v>1.1199381931308401E-3</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B126" s="6">
         <f t="shared" si="2"/>
-        <v>0.75797031165450213</v>
+        <v>2.46104896694311E-6</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H126" s="6">
-        <v>1.1199381931308401E-3</v>
+        <v>1.8753193128106499E-2</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B127" s="6">
         <f t="shared" si="2"/>
-        <v>12.692096516586354</v>
+        <v>-3.2728783290624278E-3</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H127" s="6">
-        <v>1.8753193128106499E-2</v>
+        <v>-24.9393328674557</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B128" s="6">
         <f t="shared" si="2"/>
-        <v>-16878.854584962202</v>
+        <v>1.9186522399525986E-11</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F128" t="s">
         <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H128" s="6">
-        <v>-24.9393328674557</v>
+        <v>1.4620130068438801E-7</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="6">
-        <f t="shared" si="2"/>
-        <v>9.8948536735091704E-5</v>
+        <v>68</v>
+      </c>
+      <c r="B129" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>91</v>
-      </c>
-      <c r="H129" s="6">
-        <v>1.4620130068438801E-7</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="6">
         <f t="shared" si="2"/>
-        <v>2.6924420785650298E-4</v>
+        <v>5.2207543390071923E-11</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -3569,11 +3546,11 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B131" s="6">
         <f t="shared" si="2"/>
-        <v>1.6024380961450976E-6</v>
+        <v>3.1071924295205902E-13</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -3590,11 +3567,11 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B132" s="6">
         <f t="shared" si="2"/>
-        <v>1.2018285721088183E-5</v>
+        <v>2.3303943221404332E-12</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -3611,11 +3588,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B133" s="6">
         <f t="shared" si="2"/>
-        <v>9.2001114789661983E-6</v>
+        <v>1.7839389120215222E-12</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -3632,11 +3609,11 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B134" s="6">
         <f t="shared" si="2"/>
-        <v>3.3224503352394164E-9</v>
+        <v>6.442365888547428E-16</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -3653,11 +3630,11 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="6">
         <f t="shared" si="2"/>
-        <v>2.0843495767429524E-5</v>
+        <v>4.0416383265664179E-12</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -3678,7 +3655,7 @@
       </c>
       <c r="B136" s="6">
         <f t="shared" si="2"/>
-        <v>3.2487969925675562E-2</v>
+        <v>6.2995490712803937E-9</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -3699,7 +3676,7 @@
       </c>
       <c r="B137" s="6">
         <f t="shared" si="2"/>
-        <v>8.0121904807254552E-5</v>
+        <v>1.5535962147602885E-11</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -3716,11 +3693,11 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B138" s="6">
         <f t="shared" si="2"/>
-        <v>8.8134095287979749E-7</v>
+        <v>1.7089558362363125E-13</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -3737,11 +3714,11 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B139" s="6">
         <f t="shared" si="2"/>
-        <v>9.8455086132736872E-7</v>
+        <v>1.9090840327334385E-13</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3758,11 +3735,11 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B140" s="6">
         <f t="shared" si="2"/>
-        <v>2.1388698590701352</v>
+        <v>4.1473553641916932E-7</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -3783,7 +3760,7 @@
       </c>
       <c r="B141" s="6">
         <f t="shared" si="2"/>
-        <v>9.942675215903348</v>
+        <v>1.9279250308861546E-6</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -3804,7 +3781,7 @@
       </c>
       <c r="B142" s="6">
         <f t="shared" si="2"/>
-        <v>1.7417805392881465</v>
+        <v>3.377383075565853E-7</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -3821,11 +3798,11 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B143" s="6">
         <f t="shared" si="2"/>
-        <v>8.0121904807254555E-4</v>
+        <v>1.5535962147602887E-10</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -3842,11 +3819,11 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B144" s="6">
         <f t="shared" si="2"/>
-        <v>1.7044374708464569E-6</v>
+        <v>3.3049733520100919E-13</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -3863,11 +3840,11 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B145" s="6">
         <f t="shared" si="2"/>
-        <v>1.6024380961450981E-4</v>
+        <v>3.1071924295205899E-11</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -3884,11 +3861,11 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B146" s="6">
         <f t="shared" si="2"/>
-        <v>2.4353517856748713E-6</v>
+        <v>4.7222458389326908E-13</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -3909,7 +3886,7 @@
       </c>
       <c r="B147" s="6">
         <f t="shared" si="2"/>
-        <v>3.2487585036413087E-2</v>
+        <v>6.2994744396920993E-9</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -3930,7 +3907,7 @@
       </c>
       <c r="B148" s="6">
         <f t="shared" si="2"/>
-        <v>148.05134586910276</v>
+        <v>2.8707756148051313E-5</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -3947,11 +3924,11 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B149" s="6">
         <f t="shared" si="2"/>
-        <v>4.0060952403627419E-4</v>
+        <v>7.7679810738014708E-11</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -3968,11 +3945,11 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B150" s="6">
         <f t="shared" si="2"/>
-        <v>2.4682674520957032E-5</v>
+        <v>4.7860706504879529E-12</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -3993,7 +3970,7 @@
       </c>
       <c r="B151" s="6">
         <f t="shared" si="2"/>
-        <v>1.0085577027821869E-13</v>
+        <v>1.9556342715255383E-20</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -4014,7 +3991,7 @@
       </c>
       <c r="B152" s="6">
         <f t="shared" si="2"/>
-        <v>1.0649747324828296E-2</v>
+        <v>2.0650291792000261E-9</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -4035,7 +4012,7 @@
       </c>
       <c r="B153" s="6">
         <f t="shared" si="2"/>
-        <v>1.6111429900626525E-2</v>
+        <v>3.1240715717136483E-9</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -4056,7 +4033,7 @@
       </c>
       <c r="B154" s="6">
         <f t="shared" si="2"/>
-        <v>1.2709433385847194E-2</v>
+        <v>2.464410656174567E-9</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -4077,7 +4054,7 @@
       </c>
       <c r="B155" s="6">
         <f t="shared" si="2"/>
-        <v>7.6115809566891625E-3</v>
+        <v>1.4759164040222705E-9</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -4094,11 +4071,11 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B156" s="6">
         <f t="shared" si="2"/>
-        <v>33175.838025536883</v>
+        <v>6.432929484385866E-3</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -4115,11 +4092,11 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B157" s="6">
         <f t="shared" si="2"/>
-        <v>1.4035397717538211E-3</v>
+        <v>2.7215205154044493E-10</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -4136,11 +4113,11 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B158" s="6">
         <f t="shared" si="2"/>
-        <v>9.0612108557973782E-4</v>
+        <v>1.7570055181010894E-10</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -4157,11 +4134,11 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B159" s="6">
         <f t="shared" si="2"/>
-        <v>1.1217066673015664E-4</v>
+        <v>2.1750347006644095E-11</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -4178,11 +4155,11 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B160" s="6">
         <f t="shared" si="2"/>
-        <v>8.7242170304917327E-6</v>
+        <v>1.6916610492380577E-12</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -4199,11 +4176,11 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B161" s="6">
         <f t="shared" si="2"/>
-        <v>7.6115809566891625E-3</v>
+        <v>1.4759164040222705E-9</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -4220,11 +4197,11 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B162" s="6">
         <f t="shared" si="2"/>
-        <v>7.6889800979842974E-5</v>
+        <v>1.4909244112870866E-11</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -4241,11 +4218,11 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B163" s="6">
         <f t="shared" si="2"/>
-        <v>4.0060952403627345E-7</v>
+        <v>7.7679810738014566E-14</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -4262,11 +4239,11 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B164" s="6">
         <f t="shared" si="2"/>
-        <v>1.1736061828277153E-7</v>
+        <v>2.275669965219449E-14</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -4287,7 +4264,7 @@
       </c>
       <c r="B165" s="6">
         <f t="shared" si="2"/>
-        <v>14.070262042612379</v>
+        <v>2.7282808493725065E-6</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -4304,11 +4281,11 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B166" s="6">
         <f t="shared" si="2"/>
-        <v>2.5530140804495666E-12</v>
+        <v>4.9503977984021124E-19</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -4325,11 +4302,11 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B167" s="6">
         <f t="shared" si="2"/>
-        <v>6.4097523845803978E-4</v>
+        <v>1.2428769718082375E-10</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -4346,11 +4323,11 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B168" s="6">
         <f t="shared" si="2"/>
-        <v>7.5835613166723879E-5</v>
+        <v>1.4704832822344487E-11</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -4371,7 +4348,7 @@
       </c>
       <c r="B169" s="6">
         <f t="shared" si="2"/>
-        <v>9.5543982148779073E-6</v>
+        <v>1.8526365463546458E-12</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -4392,7 +4369,7 @@
       </c>
       <c r="B170" s="6">
         <f t="shared" si="2"/>
-        <v>7.0906835734441648E-2</v>
+        <v>1.3749122897498032E-8</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -4412,8 +4389,8 @@
         <v>60</v>
       </c>
       <c r="B171" s="6">
-        <f t="shared" si="2"/>
-        <v>0.91680348246357646</v>
+        <f t="shared" ref="B171:B190" si="3">H171*0.01/76.2</f>
+        <v>1.7777191187115878E-7</v>
       </c>
       <c r="C171" t="s">
         <v>64</v>
@@ -4430,11 +4407,11 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B172" s="6">
-        <f t="shared" ref="B172:B190" si="3">H172*0.0000472414053042178/0.762/$H$106</f>
-        <v>0.39383555253271119</v>
+        <f t="shared" si="3"/>
+        <v>7.6366310202531106E-8</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -4451,11 +4428,11 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B173" s="6">
         <f t="shared" si="3"/>
-        <v>4.074131356855041</v>
+        <v>7.8999058617901046E-7</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -4472,11 +4449,11 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B174" s="6">
         <f t="shared" si="3"/>
-        <v>3.5442235713377346</v>
+        <v>6.8723931837875318E-7</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -4493,10 +4470,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>134</v>
-      </c>
-      <c r="B175" s="6">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="B175" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -4517,7 +4494,7 @@
       </c>
       <c r="B176" s="6">
         <f t="shared" si="3"/>
-        <v>0.41311228225893343</v>
+        <v>8.0104146242208516E-8</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -4534,11 +4511,11 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B177" s="6">
         <f t="shared" si="3"/>
-        <v>4.0060952403627345E-7</v>
+        <v>7.7679810738014566E-14</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -4555,11 +4532,11 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B178" s="6">
         <f t="shared" si="3"/>
-        <v>4.99660158744362E-2</v>
+        <v>9.6886130348398687E-9</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -4580,7 +4557,7 @@
       </c>
       <c r="B179" s="6">
         <f t="shared" si="3"/>
-        <v>7.3480603014234829</v>
+        <v>1.4248186806822178E-6</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -4597,11 +4574,11 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B180" s="6">
         <f t="shared" si="3"/>
-        <v>3.5599246010003971E-2</v>
+        <v>6.9028381168060753E-9</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -4622,7 +4599,7 @@
       </c>
       <c r="B181" s="6">
         <f t="shared" si="3"/>
-        <v>1.2709012918312661E-2</v>
+        <v>2.4643291258150918E-9</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -4643,7 +4620,7 @@
       </c>
       <c r="B182" s="6">
         <f t="shared" si="3"/>
-        <v>3.04811594375426E-2</v>
+        <v>5.9104203822402483E-9</v>
       </c>
       <c r="C182" t="s">
         <v>65</v>
@@ -4664,7 +4641,7 @@
       </c>
       <c r="B183" s="6">
         <f t="shared" si="3"/>
-        <v>3.04811594375426E-2</v>
+        <v>5.9104203822402483E-9</v>
       </c>
       <c r="C183" t="s">
         <v>65</v>
@@ -4685,7 +4662,7 @@
       </c>
       <c r="B184" s="6">
         <f t="shared" si="3"/>
-        <v>1.5595578162696533</v>
+        <v>3.0240458285222569E-7</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
@@ -4706,7 +4683,7 @@
       </c>
       <c r="B185" s="6">
         <f t="shared" si="3"/>
-        <v>9.8580073388212873E-5</v>
+        <v>1.9115075862855906E-11</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
@@ -4727,7 +4704,7 @@
       </c>
       <c r="B186" s="6">
         <f t="shared" si="3"/>
-        <v>1.5595404197861105</v>
+        <v>3.0240120960354332E-7</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -4748,7 +4725,7 @@
       </c>
       <c r="B187" s="6">
         <f t="shared" si="3"/>
-        <v>17.275570421752473</v>
+        <v>3.3498031380588585E-6</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
@@ -4769,7 +4746,7 @@
       </c>
       <c r="B188" s="6">
         <f t="shared" si="3"/>
-        <v>1.7304807370986745E-4</v>
+        <v>3.3554723010387924E-11</v>
       </c>
       <c r="C188" t="s">
         <v>22</v>
@@ -4786,11 +4763,11 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B189" s="6">
         <f t="shared" si="3"/>
-        <v>1.5223161913378394E-3</v>
+        <v>2.9518328080445537E-10</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -4807,11 +4784,11 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B190" s="6">
         <f t="shared" si="3"/>
-        <v>2.3651186107000925E-4</v>
+        <v>4.5860608654801704E-11</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -4842,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -4911,83 +4888,83 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>68</v>
-      </c>
-      <c r="B201" s="12">
-        <f>0.0000006334/H201</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="B201" s="6">
+        <f>H201*0.09/0.8121</f>
+        <v>6.4300777382446765E-11</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>67</v>
-      </c>
-      <c r="H201" s="12">
-        <v>6.3340000000000005E-7</v>
+        <v>97</v>
+      </c>
+      <c r="H201" s="6">
+        <v>5.8020734791427803E-10</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B202" s="6">
-        <f>H202*0.00034830220169063/0.8121/$H$201</f>
-        <v>3.9287272098946203E-7</v>
+        <f t="shared" ref="B202:B265" si="4">H202*0.09/0.8121</f>
+        <v>1.736727078788766E-8</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H202" s="6">
-        <v>5.8020734791427803E-10</v>
+        <v>1.5671067340937299E-7</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B203" s="6">
-        <f t="shared" ref="B203:B266" si="4">H203*0.00034830220169063/0.8121/$H$201</f>
-        <v>1.0611266625931714E-4</v>
+        <f t="shared" si="4"/>
+        <v>4.4928545106554555E-3</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H203" s="6">
-        <v>1.5671067340937299E-7</v>
+        <v>4.0540523867814399E-2</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B204" s="6">
         <f t="shared" si="4"/>
-        <v>27.45098968419067</v>
+        <v>9.3442763039984252E-9</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -4999,19 +4976,19 @@
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="H204" s="6">
-        <v>4.0540523867814399E-2</v>
+        <v>8.4316519849745797E-8</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B205" s="6">
         <f t="shared" si="4"/>
-        <v>5.709279742287187E-5</v>
+        <v>3.4555024506976134E-3</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -5023,19 +5000,19 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>88</v>
-      </c>
-      <c r="H205" s="6">
-        <v>8.4316519849745797E-8</v>
+        <v>57</v>
+      </c>
+      <c r="H205" s="2">
+        <v>3.1180150446794799E-2</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B206" s="6">
         <f t="shared" si="4"/>
-        <v>21.112849726789218</v>
+        <v>1.7290130260798667E-3</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5047,22 +5024,22 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>57</v>
-      </c>
-      <c r="H206" s="2">
-        <v>3.1180150446794799E-2</v>
+        <v>53</v>
+      </c>
+      <c r="H206" s="6">
+        <v>1.5601460871994001E-2</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B207" s="6">
         <f t="shared" si="4"/>
-        <v>10.564134367178829</v>
+        <v>5.7907876492730291E-7</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E207" t="s">
         <v>3</v>
@@ -5071,22 +5048,22 @@
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H207" s="6">
-        <v>1.5601460871994001E-2</v>
+        <v>5.2252207221940298E-6</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B208" s="6">
         <f t="shared" si="4"/>
-        <v>3.5381259652750648E-3</v>
+        <v>4.1543378228080937E-8</v>
       </c>
       <c r="C208" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E208" t="s">
         <v>3</v>
@@ -5095,70 +5072,70 @@
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H208" s="6">
-        <v>5.2252207221940298E-6</v>
+        <v>3.7485974954471699E-7</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B209" s="6">
         <f t="shared" si="4"/>
-        <v>2.5382679196062118E-4</v>
+        <v>2.0642355835196563E-8</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H209" s="6">
-        <v>3.7485974954471699E-7</v>
+        <v>1.8626285748625699E-7</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B210" s="6">
         <f t="shared" si="4"/>
-        <v>1.2612317976143538E-4</v>
+        <v>2.9378951707326558E-4</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H210" s="6">
-        <v>1.8626285748625699E-7</v>
+        <v>2.6509607423910999E-3</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B211" s="6">
         <f t="shared" si="4"/>
-        <v>1.7950309727089311</v>
+        <v>2.8933395731591388E-8</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E211" t="s">
         <v>3</v>
@@ -5167,43 +5144,43 @@
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="H211" s="6">
-        <v>2.6509607423910999E-3</v>
+        <v>2.6107567415139299E-7</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B212" s="6">
         <f t="shared" si="4"/>
-        <v>1.7678078510506887E-4</v>
+        <v>9.9217696019067977E-2</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E212" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H212" s="6">
-        <v>2.6107567415139299E-7</v>
+        <v>0.89527434374539006</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B213" s="6">
         <f t="shared" si="4"/>
-        <v>606.21236308657035</v>
+        <v>3.8841716311240441E-2</v>
       </c>
       <c r="C213" t="s">
         <v>15</v>
@@ -5215,91 +5192,91 @@
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="H213" s="6">
-        <v>0.89527434374539006</v>
+        <v>0.35048175351509298</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B214" s="6">
         <f t="shared" si="4"/>
-        <v>237.31984893954854</v>
+        <v>1.707318632633295E-7</v>
       </c>
       <c r="C214" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="H214" s="6">
-        <v>0.35048175351509298</v>
+        <v>1.54057051284611E-6</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B215" s="6">
         <f t="shared" si="4"/>
-        <v>1.0431583319889355E-3</v>
+        <v>5.8305544705022014E-3</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H215" s="6">
-        <v>1.54057051284611E-6</v>
+        <v>5.2611036505498199E-2</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B216" s="6">
         <f t="shared" si="4"/>
-        <v>35.624231820388417</v>
+        <v>7.2216492051459696E-11</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F216" t="s">
         <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H216" s="6">
-        <v>5.2611036505498199E-2</v>
+        <v>6.5163347994433803E-10</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B217" s="6">
         <f t="shared" si="4"/>
-        <v>4.4123711854712291E-7</v>
+        <v>3.15059048889082E-11</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -5311,22 +5288,22 @@
         <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H217" s="6">
-        <v>6.5163347994433803E-10</v>
+        <v>2.84288281780915E-10</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B218" s="6">
         <f t="shared" si="4"/>
-        <v>1.9249861486619494E-7</v>
+        <v>-13.142944525933432</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E218" t="s">
         <v>3</v>
@@ -5335,19 +5312,19 @@
         <v>13</v>
       </c>
       <c r="G218" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H218" s="6">
-        <v>2.84288281780915E-10</v>
+        <v>-118.593169439006</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B219" s="6">
         <f t="shared" si="4"/>
-        <v>-80302.363173708509</v>
+        <v>1.9792876171196672E-10</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -5359,139 +5336,135 @@
         <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H219" s="6">
-        <v>-118.593169439006</v>
+        <v>1.7859771931809801E-9</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B220" s="6">
         <f t="shared" si="4"/>
-        <v>1.2093292545026504E-6</v>
+        <v>1.5754124061803472E-4</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F220" t="s">
         <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>93</v>
-      </c>
-      <c r="H220" s="6">
-        <v>1.7859771931809801E-9</v>
+        <v>95</v>
+      </c>
+      <c r="H220" s="2">
+        <v>1.4215471278433999E-3</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B221" s="6">
         <f t="shared" si="4"/>
-        <v>0.96256465923472612</v>
+        <v>5.5365019258564593E-3</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F221" t="s">
         <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H221" s="2">
-        <v>1.4215471278433999E-3</v>
+        <v>4.9957702377644797E-2</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B222" s="6">
         <f t="shared" si="4"/>
-        <v>33.827593769782446</v>
+        <v>-7.5048669291158134</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F222" t="s">
         <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>99</v>
-      </c>
-      <c r="H222" s="2">
-        <v>4.9957702377644797E-2</v>
+        <v>96</v>
+      </c>
+      <c r="H222" s="6">
+        <v>-67.718915923721696</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B223" s="6">
         <f t="shared" si="4"/>
-        <v>-45854.149998355177</v>
+        <v>4.3162984419366603E-8</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F223" t="s">
         <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H223" s="6">
-        <v>-67.718915923721696</v>
+        <v>3.8947399607741801E-7</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>76</v>
-      </c>
-      <c r="B224" s="6">
-        <f t="shared" si="4"/>
-        <v>2.6372245912366675E-4</v>
+        <v>68</v>
+      </c>
+      <c r="B224" s="12">
+        <v>6.3340000000000005E-7</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>91</v>
-      </c>
-      <c r="H224" s="6">
-        <v>3.8947399607741801E-7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B225" s="6">
         <f t="shared" si="4"/>
-        <v>7.155294480612821E-4</v>
+        <v>1.1710942830160917E-7</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -5508,11 +5481,11 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B226" s="6">
         <f t="shared" si="4"/>
-        <v>4.2708960562016829E-6</v>
+        <v>6.9900993849038565E-10</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -5529,11 +5502,11 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B227" s="6">
         <f t="shared" si="4"/>
-        <v>3.2031720421512585E-5</v>
+        <v>5.2425745386778862E-9</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -5550,11 +5523,11 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B228" s="6">
         <f t="shared" si="4"/>
-        <v>2.4520585179956225E-5</v>
+        <v>4.0132404331172179E-9</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -5571,11 +5544,11 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B229" s="6">
         <f t="shared" si="4"/>
-        <v>8.8551564443179706E-9</v>
+        <v>1.4493076581616401E-12</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -5592,11 +5565,11 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B230" s="6">
         <f t="shared" si="4"/>
-        <v>5.5553100044690287E-5</v>
+        <v>9.0922767808412895E-9</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -5617,7 +5590,7 @@
       </c>
       <c r="B231" s="6">
         <f t="shared" si="4"/>
-        <v>8.6588519683447385E-2</v>
+        <v>1.4171788547747766E-5</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -5638,7 +5611,7 @@
       </c>
       <c r="B232" s="6">
         <f t="shared" si="4"/>
-        <v>2.1354480281008349E-4</v>
+        <v>3.4950496924519175E-8</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
@@ -5655,11 +5628,11 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B233" s="6">
         <f t="shared" si="4"/>
-        <v>2.3489928309109195E-6</v>
+        <v>3.8445546616971109E-10</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -5676,11 +5649,11 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B234" s="6">
         <f t="shared" si="4"/>
-        <v>2.6240729054611149E-6</v>
+        <v>4.2947733124461767E-10</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -5697,11 +5670,11 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B235" s="6">
         <f t="shared" si="4"/>
-        <v>5.7006201161883645</v>
+        <v>9.3301032484451344E-4</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -5722,7 +5695,7 @@
       </c>
       <c r="B236" s="6">
         <f t="shared" si="4"/>
-        <v>26.49970221617275</v>
+        <v>4.3371589878060286E-3</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -5743,7 +5716,7 @@
       </c>
       <c r="B237" s="6">
         <f t="shared" si="4"/>
-        <v>4.6422783219583481</v>
+        <v>7.5979341140259237E-4</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -5760,11 +5733,11 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B238" s="6">
         <f t="shared" si="4"/>
-        <v>2.1354480281008349E-3</v>
+        <v>3.4950496924519166E-7</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
@@ -5781,11 +5754,11 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B239" s="6">
         <f t="shared" si="4"/>
-        <v>4.5427497572557427E-6</v>
+        <v>7.4350374877084065E-10</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
@@ -5802,11 +5775,11 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B240" s="6">
         <f t="shared" si="4"/>
-        <v>4.2708960562016834E-4</v>
+        <v>6.9900993849038562E-8</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -5823,11 +5796,11 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B241" s="6">
         <f t="shared" si="4"/>
-        <v>6.4908181863149907E-6</v>
+        <v>1.0623406333151139E-9</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -5848,7 +5821,7 @@
       </c>
       <c r="B242" s="6">
         <f t="shared" si="4"/>
-        <v>8.65874938578403E-2</v>
+        <v>1.4171620652700665E-5</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
@@ -5869,7 +5842,7 @@
       </c>
       <c r="B243" s="6">
         <f t="shared" si="4"/>
-        <v>157.83746292448583</v>
+        <v>2.5832975984071405E-2</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -5886,11 +5859,11 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B244" s="6">
         <f t="shared" si="4"/>
-        <v>1.0677240140504174E-3</v>
+        <v>1.7475248462259583E-7</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -5907,11 +5880,11 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B245" s="6">
         <f t="shared" si="4"/>
-        <v>6.578546623527079E-5</v>
+        <v>1.0766989901312282E-8</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -5932,7 +5905,7 @@
       </c>
       <c r="B246" s="6">
         <f t="shared" si="4"/>
-        <v>2.6880571084939147E-13</v>
+        <v>4.3994951161092939E-17</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -5953,7 +5926,7 @@
       </c>
       <c r="B247" s="6">
         <f t="shared" si="4"/>
-        <v>2.8384225236888758E-2</v>
+        <v>4.6455955087280454E-6</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -5974,7 +5947,7 @@
       </c>
       <c r="B248" s="6">
         <f t="shared" si="4"/>
-        <v>4.2940967634187616E-2</v>
+        <v>7.0280715685190346E-6</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -5995,7 +5968,7 @@
       </c>
       <c r="B249" s="6">
         <f t="shared" si="4"/>
-        <v>3.3873800838081183E-2</v>
+        <v>5.5440645542942143E-6</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
@@ -6016,7 +5989,7 @@
       </c>
       <c r="B250" s="6">
         <f t="shared" si="4"/>
-        <v>2.0286756266957921E-2</v>
+        <v>3.3202972078293201E-6</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
@@ -6033,11 +6006,11 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B251" s="6">
         <f t="shared" si="4"/>
-        <v>88599.057888019161</v>
+        <v>14.500849749007756</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
@@ -6054,11 +6027,11 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B252" s="6">
         <f t="shared" si="4"/>
-        <v>1.4977282350653511E-3</v>
+        <v>2.4513050837379274E-7</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
@@ -6075,11 +6048,11 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B253" s="6">
         <f t="shared" si="4"/>
-        <v>2.4150380474312633E-3</v>
+        <v>3.9526496893680195E-7</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -6096,11 +6069,11 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B254" s="6">
         <f t="shared" si="4"/>
-        <v>2.9896272393411746E-4</v>
+        <v>4.8930695694326925E-8</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
@@ -6117,11 +6090,11 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B255" s="6">
         <f t="shared" si="4"/>
-        <v>2.3252208118747144E-5</v>
+        <v>3.8056474222194348E-9</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
@@ -6138,11 +6111,11 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B256" s="6">
         <f t="shared" si="4"/>
-        <v>2.0286756266957921E-2</v>
+        <v>3.3202972078293201E-6</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
@@ -6159,11 +6132,11 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B257" s="6">
         <f t="shared" si="4"/>
-        <v>2.0493044227850815E-4</v>
+        <v>3.3540599903830328E-8</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -6180,11 +6153,11 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B258" s="6">
         <f t="shared" si="4"/>
-        <v>1.0677240140504173E-6</v>
+        <v>1.7475248462259587E-10</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -6201,11 +6174,11 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B259" s="6">
         <f t="shared" si="4"/>
-        <v>3.1279523557451436E-7</v>
+        <v>5.1194638198120977E-11</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -6226,7 +6199,7 @@
       </c>
       <c r="B260" s="6">
         <f t="shared" si="4"/>
-        <v>11.073997056456262</v>
+        <v>1.8124613428687625E-3</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -6243,11 +6216,11 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B261" s="6">
         <f t="shared" si="4"/>
-        <v>6.8044174647680949E-12</v>
+        <v>1.1136668677768083E-15</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -6264,11 +6237,11 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B262" s="6">
         <f t="shared" si="4"/>
-        <v>1.7083584224806654E-3</v>
+        <v>2.7960397539615287E-7</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -6285,11 +6258,11 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B263" s="6">
         <f t="shared" si="4"/>
-        <v>2.0212076957765491E-4</v>
+        <v>3.3080745785173031E-8</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -6310,7 +6283,7 @@
       </c>
       <c r="B264" s="6">
         <f t="shared" si="4"/>
-        <v>2.546484744307257E-5</v>
+        <v>4.1677861532129591E-9</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -6331,7 +6304,7 @@
       </c>
       <c r="B265" s="6">
         <f t="shared" si="4"/>
-        <v>0.18898435192253876</v>
+        <v>3.093073174215903E-5</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -6351,8 +6324,8 @@
         <v>60</v>
       </c>
       <c r="B266" s="6">
-        <f t="shared" si="4"/>
-        <v>2.4435092918629162</v>
+        <f t="shared" ref="B266:B285" si="5">H266*0.09/0.8121</f>
+        <v>3.9992480672189985E-4</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
@@ -6369,11 +6342,11 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B267" s="6">
-        <f t="shared" ref="B267:B285" si="5">H267*0.00034830220169063/0.8121/$H$201</f>
-        <v>1.04966969529141</v>
+        <f t="shared" si="5"/>
+        <v>1.7179756647915515E-4</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -6390,11 +6363,11 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B268" s="6">
         <f t="shared" si="5"/>
-        <v>10.858573311692014</v>
+        <v>1.7772033228665273E-3</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -6411,11 +6384,11 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B269" s="6">
         <f t="shared" si="5"/>
-        <v>9.4462372740249307</v>
+        <v>1.5460488031062355E-3</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -6432,10 +6405,10 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>134</v>
-      </c>
-      <c r="B270" s="6">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="B270" s="12">
+        <v>6.3340000000000005E-7</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -6456,7 +6429,7 @@
       </c>
       <c r="B271" s="6">
         <f t="shared" si="5"/>
-        <v>0.44083533779619671</v>
+        <v>7.2150733312708901E-5</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -6473,11 +6446,11 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B272" s="6">
         <f t="shared" si="5"/>
-        <v>1.0677240140504173E-6</v>
+        <v>1.7475248462259587E-10</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -6494,11 +6467,11 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B273" s="6">
         <f t="shared" si="5"/>
-        <v>5.3319125168326528E-2</v>
+        <v>8.7266460981070249E-6</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -6519,7 +6492,7 @@
       </c>
       <c r="B274" s="6">
         <f t="shared" si="5"/>
-        <v>19.58440818249251</v>
+        <v>3.2053451497926671E-3</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -6536,11 +6509,11 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B275" s="6">
         <f t="shared" si="5"/>
-        <v>3.7963342322116331E-2</v>
+        <v>6.2133925134840259E-6</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -6561,7 +6534,7 @@
       </c>
       <c r="B276" s="6">
         <f t="shared" si="5"/>
-        <v>3.3872680187530403E-2</v>
+        <v>5.5438811394177421E-6</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -6582,7 +6555,7 @@
       </c>
       <c r="B277" s="6">
         <f t="shared" si="5"/>
-        <v>8.1239870634271044E-2</v>
+        <v>1.3296384699545361E-5</v>
       </c>
       <c r="C277" t="s">
         <v>65</v>
@@ -6603,7 +6576,7 @@
       </c>
       <c r="B278" s="6">
         <f t="shared" si="5"/>
-        <v>8.1239870634271044E-2</v>
+        <v>1.3296384699545361E-5</v>
       </c>
       <c r="C278" t="s">
         <v>65</v>
@@ -6624,7 +6597,7 @@
       </c>
       <c r="B279" s="6">
         <f t="shared" si="5"/>
-        <v>4.1566094459111369</v>
+        <v>6.8030485286474352E-4</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
@@ -6645,7 +6618,7 @@
       </c>
       <c r="B280" s="6">
         <f t="shared" si="5"/>
-        <v>2.6274041266656815E-4</v>
+        <v>4.3002254627646582E-8</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
@@ -6666,7 +6639,7 @@
       </c>
       <c r="B281" s="6">
         <f t="shared" si="5"/>
-        <v>4.156563079955963</v>
+        <v>6.802972642315744E-4</v>
       </c>
       <c r="C281" t="s">
         <v>22</v>
@@ -6687,7 +6660,7 @@
       </c>
       <c r="B282" s="6">
         <f t="shared" si="5"/>
-        <v>46.217252552276307</v>
+        <v>7.5642952763624203E-3</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
@@ -6708,7 +6681,7 @@
       </c>
       <c r="B283" s="6">
         <f t="shared" si="5"/>
-        <v>4.6891317517800584E-4</v>
+        <v>7.6746182867774008E-8</v>
       </c>
       <c r="C283" t="s">
         <v>22</v>
@@ -6725,11 +6698,11 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B284" s="6">
         <f t="shared" si="5"/>
-        <v>4.0573512533915923E-3</v>
+        <v>6.6405944156586509E-7</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -6746,11 +6719,11 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B285" s="6">
         <f t="shared" si="5"/>
-        <v>6.3036293078578805E-4</v>
+        <v>1.031703763512022E-7</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -6802,18 +6775,18 @@
       <c r="B316" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6824,17 +6797,17 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -6842,10 +6815,10 @@
         <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -6861,10 +6834,10 @@
       </c>
       <c r="E5" s="13">
         <f>D5/SUM($D$5:$D$7)</f>
-        <v>4.8458399464587625E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.8437160271416882E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -6880,49 +6853,42 @@
       </c>
       <c r="E6" s="13">
         <f t="shared" ref="E6:E7" si="1">D6/SUM($D$5:$D$7)</f>
-        <v>0.95127392044224512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9508569795036711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
       <c r="B7">
-        <f>705.05/1.24</f>
-        <v>568.58870967741927</v>
+        <v>1500</v>
       </c>
       <c r="C7" s="12">
         <v>4.1581000000000002E-7</v>
       </c>
       <c r="D7" s="7">
         <f>B7*C7</f>
-        <v>2.3642487137096773E-4</v>
+        <v>6.2371500000000005E-4</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>2.6768009316723875E-4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.058602249120832E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>110</v>
       </c>
@@ -6930,10 +6896,10 @@
         <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -6949,10 +6915,10 @@
       </c>
       <c r="E14" s="13">
         <f>D14/SUM($D$14:$D$16)</f>
-        <v>0.2378780361070002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.23785962894597396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -6968,27 +6934,26 @@
       </c>
       <c r="E15" s="13">
         <f t="shared" ref="E15:E16" si="3">D15/SUM($D$14:$D$16)</f>
-        <v>0.76207472248769559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.76201575263759747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16">
-        <f>705.05/1.24</f>
-        <v>568.58870967741927</v>
+        <v>1500</v>
       </c>
       <c r="C16" s="12">
         <v>9.1603000000000003E-8</v>
       </c>
       <c r="D16" s="7">
         <f>B16*C16</f>
-        <v>5.2084431572580642E-5</v>
-      </c>
-      <c r="E16" s="15">
+        <v>1.374045E-4</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" si="3"/>
-        <v>4.7241405304217763E-5</v>
+        <v>1.246184164285798E-4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7004,7 +6969,7 @@
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7023,7 +6988,7 @@
       </c>
       <c r="E20" s="13">
         <f>D20/SUM($D$20:$D$22)</f>
-        <v>0.18707828889147662</v>
+        <v>0.18697161082007041</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7042,7 +7007,7 @@
       </c>
       <c r="E21" s="13">
         <f t="shared" ref="E21:E22" si="5">D21/SUM($D$20:$D$22)</f>
-        <v>0.81257340890683261</v>
+        <v>0.81211005335311348</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7050,19 +7015,18 @@
         <v>67</v>
       </c>
       <c r="B22">
-        <f>705.05/1.24</f>
-        <v>568.58870967741927</v>
+        <v>1500</v>
       </c>
       <c r="C22" s="12">
         <v>6.3340000000000005E-7</v>
       </c>
       <c r="D22" s="7">
         <f>B22*C22</f>
-        <v>3.6014408870967742E-4</v>
+        <v>9.5010000000000005E-4</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="5"/>
-        <v>3.4830220169063E-4</v>
+        <v>9.1833582681598812E-4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D9A5AF-8D3E-48B7-A521-D5C2F9932CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="30240" windowHeight="16320"/>
+    <workbookView xWindow="-3705" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rhenium!$A$1:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="137">
   <si>
     <t>Activity</t>
   </si>
@@ -148,9 +150,6 @@
     <t>COD, Chemical Oxygen Demand</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
     <t>BOD5, Biological Oxygen Demand</t>
   </si>
   <si>
@@ -163,9 +162,6 @@
     <t>Fluorine</t>
   </si>
   <si>
-    <t>Copper</t>
-  </si>
-  <si>
     <t>Cyanide</t>
   </si>
   <si>
@@ -343,9 +339,6 @@
     <t>Rhenium, in ground</t>
   </si>
   <si>
-    <t>Molybdenum</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -418,9 +411,6 @@
     <t>Gangue</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
     <t>Iron ion</t>
   </si>
   <si>
@@ -452,12 +442,6 @@
   </si>
   <si>
     <t>Selenium IV</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Tellurium</t>
   </si>
   <si>
     <t>Zinc II</t>
@@ -472,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,8 +547,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Per cent 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -842,11 +826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -876,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -884,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -892,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -908,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -948,37 +932,40 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="12">
-        <v>4.1581000000000002E-7</v>
+        <f>0.00000041581/H11</f>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4.1581000000000002E-7</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6">
-        <f>H12*0.07/0.9509</f>
-        <v>3.1511967422016977E-11</v>
+        <f>H12*0.07/0.9509/$H$11</f>
+        <v>7.5784534816423303E-5</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -990,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H12" s="7">
         <v>4.2806756887994201E-10</v>
@@ -999,11 +986,11 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509</f>
-        <v>8.5112014746289104E-9</v>
+        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509/$H$11</f>
+        <v>2.0468967736776197E-2</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1015,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>1.1561859260320899E-7</v>
@@ -1024,11 +1011,11 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>3.149454652904937E-3</v>
+        <v>7574.2638534545513</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1040,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>4.2783091849247203E-2</v>
@@ -1050,11 +1037,11 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>6.550262069217069E-9</v>
+        <v>1.5753017169421294E-2</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1066,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="7">
         <v>8.8980631451693004E-8</v>
@@ -1074,11 +1061,11 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>2.4222792537936773E-3</v>
+        <v>5825.4473288128647</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1090,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>3.2904933463320102E-2</v>
@@ -1098,11 +1085,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>8.4733971140052281E-4</v>
+        <v>2037.8050345122117</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1114,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7">
         <v>1.1510504736725101E-2</v>
@@ -1122,14 +1109,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>2.8378989987378276E-7</v>
+        <v>0.68249897759501399</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -1138,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
         <v>3.8550830827139996E-6</v>
@@ -1146,11 +1133,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>2.9121571942184168E-8</v>
+        <v>7.0035766196542087E-2</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1162,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>3.9559575371175598E-7</v>
@@ -1171,11 +1158,11 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>1.4470124389270461E-8</v>
+        <v>3.4799847019721657E-2</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1187,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>1.96566304025104E-7</v>
@@ -1200,7 +1187,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>2.0594407393488142E-4</v>
+        <v>495.28408151531085</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1221,11 +1208,11 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>1.4179427696174688E-8</v>
+        <v>3.4100737587298736E-2</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1237,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>1.9261739708989301E-7</v>
@@ -1247,23 +1234,23 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>4.8623748139846774E-2</v>
+        <v>116937.41886882656</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H23" s="7">
         <v>0.66051888723114704</v>
@@ -1277,13 +1264,13 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>2.7227728802062482E-2</v>
+        <v>65481.178427797509</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1298,11 +1285,11 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>1.1968165447569261E-7</v>
+        <v>0.28782774458452803</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1314,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>1.62578978915623E-6</v>
@@ -1323,11 +1310,11 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>4.0871714992302133E-3</v>
+        <v>9829.4208874972064</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1339,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H26" s="7">
         <v>5.55213054088287E-2</v>
@@ -1348,11 +1335,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>3.5391232229163953E-11</v>
+        <v>8.5113951634554127E-5</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1364,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H27" s="7">
         <v>4.8076461038159999E-10</v>
@@ -1373,11 +1360,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>1.544014067754439E-11</v>
+        <v>3.7132682421164448E-5</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1389,7 +1376,7 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="7">
         <v>2.09743282432528E-10</v>
@@ -1398,11 +1385,11 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>-6.4409802896667658</v>
+        <v>-15490200.547525952</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1414,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H29" s="7">
         <v>-87.496116534916098</v>
@@ -1423,11 +1410,11 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
-        <v>1.3874646019341583E-10</v>
+        <v>3.3367754549774132E-4</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1439,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H30" s="7">
         <v>1.88477155711313E-9</v>
@@ -1448,11 +1435,11 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>1.1043513474833243E-4</v>
+        <v>265.59037721154476</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1464,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H31" s="7">
         <v>1.50018242331699E-3</v>
@@ -1473,11 +1460,11 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>2.7132808563392146E-3</v>
+        <v>6525.2900515601223</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1489,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H32" s="7">
         <v>3.6857982375613697E-2</v>
@@ -1498,23 +1485,23 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>-3.6482849646959834</v>
+        <v>-8773923.1011663582</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H33" s="7">
         <v>-49.559345327563001</v>
@@ -1523,11 +1510,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
-        <v>2.115294113429197E-8</v>
+        <v>5.087165083642041E-2</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1539,7 +1526,7 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H34" s="7">
         <v>2.87347596065689E-7</v>
@@ -1548,17 +1535,17 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
-        <v>5.7578053415189837E-8</v>
+        <v>0.13847202668331651</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -1570,17 +1557,17 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" si="0"/>
-        <v>3.4256472948005415E-10</v>
+        <v>8.2384918467582344E-4</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
@@ -1592,17 +1579,17 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" si="0"/>
-        <v>2.5692354711004083E-9</v>
+        <v>6.1788688850686812E-3</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -1614,17 +1601,17 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B38" s="6">
         <f t="shared" si="0"/>
-        <v>1.9667740723090234E-9</v>
+        <v>4.7299826178038608E-3</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -1636,17 +1623,17 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>7.1026413004047242E-13</v>
+        <v>1.7081458599852634E-6</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
@@ -1658,17 +1645,17 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" si="0"/>
-        <v>4.4558641648405037E-9</v>
+        <v>1.0716106310190961E-2</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
@@ -1680,17 +1667,17 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="6">
         <f t="shared" si="0"/>
-        <v>6.9451872466825583E-6</v>
+        <v>16.702790328954471</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -1706,13 +1693,13 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" si="0"/>
-        <v>1.7128236474002673E-8</v>
+        <v>4.1192459233791091E-2</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
@@ -1724,17 +1711,17 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" s="6">
         <f t="shared" si="0"/>
-        <v>1.8841060121402999E-10</v>
+        <v>4.531170515717034E-4</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -1746,17 +1733,17 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B44" s="6">
         <f t="shared" si="0"/>
-        <v>2.1047452646147537E-10</v>
+        <v>5.0617956870078963E-4</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
@@ -1768,17 +1755,17 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" s="6">
         <f t="shared" si="0"/>
-        <v>4.5724160978700317E-4</v>
+        <v>1099.6407248190355</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
@@ -1794,13 +1781,13 @@
       </c>
       <c r="B46" s="6">
         <f t="shared" si="0"/>
-        <v>2.1255172688652651E-3</v>
+        <v>5111.7512057556696</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
@@ -1812,17 +1799,17 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="6">
         <f t="shared" si="0"/>
-        <v>3.7235296682614622E-4</v>
+        <v>895.48824421285246</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
@@ -1834,17 +1821,17 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B48" s="6">
         <f t="shared" si="0"/>
-        <v>1.7128236474002675E-7</v>
+        <v>0.41192459233791096</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
@@ -1856,17 +1843,17 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" s="6">
         <f t="shared" si="0"/>
-        <v>3.6436987021264404E-10</v>
+        <v>8.7628933939213585E-4</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
@@ -1878,17 +1865,17 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" si="0"/>
-        <v>3.4256472948005499E-8</v>
+        <v>8.2384918467582544E-2</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
@@ -1900,17 +1887,17 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" si="0"/>
-        <v>5.2062268592804513E-10</v>
+        <v>1.2520686994734256E-3</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -1926,13 +1913,13 @@
       </c>
       <c r="B52" s="6">
         <f t="shared" si="0"/>
-        <v>6.9451049661336942E-6</v>
+        <v>16.702592448795588</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -1944,711 +1931,708 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B53" s="6">
         <f t="shared" si="0"/>
-        <v>2.0081760163705165E-2</v>
+        <v>0.20596229616895548</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="H53" s="7">
-        <v>0.27279636770953197</v>
-      </c>
-      <c r="L53" s="2"/>
+        <v>1.16337429022351E-6</v>
+      </c>
+      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="0"/>
-        <v>8.5641182370013377E-8</v>
+        <v>1.2689913781148619E-2</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="7">
-        <v>1.16337429022351E-6</v>
-      </c>
-      <c r="L54" s="6"/>
+        <v>7.1678747580240596E-8</v>
+      </c>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B55" s="6">
         <f t="shared" si="0"/>
-        <v>5.276593049339407E-9</v>
+        <v>5.185220216209793E-11</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="7">
-        <v>7.1678747580240596E-8</v>
-      </c>
-      <c r="L55" s="2"/>
+        <v>2.9288622242476801E-16</v>
+      </c>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56" s="6">
         <f t="shared" si="0"/>
-        <v>2.1560664181021941E-17</v>
+        <v>5.4752727557276648</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="7">
-        <v>2.9288622242476801E-16</v>
-      </c>
-      <c r="L56" s="6"/>
+        <v>3.0926978745418101E-5</v>
+      </c>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" si="0"/>
-        <v>2.2766731645591203E-6</v>
+        <v>8.2832456489420867</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="7">
-        <v>3.0926978745418101E-5</v>
+        <v>4.6787762647974799E-5</v>
       </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" si="0"/>
-        <v>3.4442563732866091E-6</v>
+        <v>6.5342033229306526</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="7">
-        <v>4.6787762647974799E-5</v>
-      </c>
-      <c r="L58" s="2"/>
+        <v>3.69083288271106E-5</v>
+      </c>
+      <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" si="0"/>
-        <v>2.716987083707795E-6</v>
+        <v>3.9132836272101557</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="7">
-        <v>3.69083288271106E-5</v>
-      </c>
-      <c r="L59" s="6"/>
+        <v>2.21041115142467E-5</v>
+      </c>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" si="0"/>
-        <v>1.6271824650302548E-6</v>
+        <v>17071478.326140258</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="7">
-        <v>2.21041115142467E-5</v>
+        <v>96.427935355932505</v>
       </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="0"/>
-        <v>7.0984914027923818</v>
+        <v>0.46585707077751004</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="7">
-        <v>96.427935355932505</v>
+        <v>2.63138520565338E-6</v>
       </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="6">
         <f t="shared" si="0"/>
-        <v>1.9060488262470242E-7</v>
+        <v>5.7669442927307732E-2</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="7">
-        <v>2.58923118411185E-6</v>
-      </c>
-      <c r="L62" s="6"/>
+        <v>3.2574480126258397E-7</v>
+      </c>
+      <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B63" s="6">
         <f t="shared" si="0"/>
-        <v>1.9370802859999645E-7</v>
+        <v>4.4853146619492036E-3</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7">
-        <v>2.63138520565338E-6</v>
-      </c>
-      <c r="L63" s="2"/>
+        <v>2.5335218427520999E-8</v>
+      </c>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B64" s="6">
         <f t="shared" si="0"/>
-        <v>2.3979531063603829E-8</v>
+        <v>3.9132836272101557</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="H64" s="7">
-        <v>3.2574480126258397E-7</v>
+        <v>2.21041115142467E-5</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B65" s="6">
         <f t="shared" si="0"/>
-        <v>1.8650386895850984E-9</v>
-      </c>
-      <c r="C65" t="s">
+        <v>3.9530762529621233E-2</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="7">
-        <v>2.5335218427520999E-8</v>
-      </c>
-      <c r="L65" s="6"/>
+        <v>2.23288794382863E-7</v>
+      </c>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" si="0"/>
-        <v>1.6271824650302548E-6</v>
-      </c>
-      <c r="C66" t="s">
+        <v>2.0596229616895545E-4</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="H66" s="7">
-        <v>2.21041115142467E-5</v>
+        <v>1.16337429022351E-9</v>
       </c>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="0"/>
-        <v>1.6437286367441806E-8</v>
+        <v>6.0337712837649404E-5</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="7">
-        <v>2.23288794382863E-7</v>
+        <v>3.40816475402991E-10</v>
       </c>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="0"/>
-        <v>8.564118237001337E-11</v>
+        <v>1.3125615109276808E-9</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="7">
-        <v>1.16337429022351E-9</v>
+        <v>7.4139798621081407E-15</v>
       </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="0"/>
-        <v>2.5089024375023E-11</v>
+        <v>0.3295396738703294</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="H69" s="7">
-        <v>3.40816475402991E-10</v>
+        <v>1.8613988643576201E-6</v>
       </c>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B70" s="6">
         <f t="shared" si="0"/>
-        <v>3.1182633185486143E-4</v>
+        <v>3.898878105001051E-2</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="7">
-        <v>4.2359379851541097E-3</v>
+        <v>2.2022742183611699E-7</v>
       </c>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" si="0"/>
-        <v>5.4577620185883896E-16</v>
+        <v>4.9121293348748452E-3</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="7">
-        <v>7.4139798621081407E-15</v>
-      </c>
-      <c r="L71" s="2"/>
+        <v>2.7746073357806499E-8</v>
+      </c>
+      <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" si="0"/>
-        <v>1.3702589179202168E-7</v>
+        <v>36.454786583202235</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="7">
-        <v>1.8613988643576201E-6</v>
+        <v>2.0591420010045001E-4</v>
       </c>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" si="0"/>
-        <v>1.6211925048404871E-8</v>
+        <v>471.34912940012015</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="7">
-        <v>2.2022742183611699E-7</v>
+        <v>2.6624069990631E-3</v>
       </c>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="B74" s="6">
         <f t="shared" si="0"/>
-        <v>2.0425124987343096E-9</v>
+        <v>202.47964625339696</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="7">
-        <v>2.7746073357806499E-8</v>
-      </c>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.14370260541045E-3</v>
+      </c>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" si="0"/>
-        <v>1.5158264809161323E-5</v>
-      </c>
-      <c r="C75" s="8" t="s">
+        <v>2094.6018474484154</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="H75" s="7">
-        <v>2.0591420010045001E-4</v>
-      </c>
-      <c r="L75" s="2"/>
+        <v>1.18313205033274E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="B76" s="6">
         <f t="shared" si="0"/>
-        <v>1.9599168149586396E-4</v>
+        <v>1822.1644296773231</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="7">
-        <v>2.6624069990631E-3</v>
-      </c>
-      <c r="L76" s="2"/>
+        <v>1.02924626957325E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>133</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509</f>
-        <v>8.4193061708624998E-5</v>
+        <f t="shared" ref="B77:B88" si="1">H77*0.07/0.9509/$H$11</f>
+        <v>2.0596229616895545E-4</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="H77" s="7">
-        <v>1.14370260541045E-3</v>
-      </c>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.16337429022351E-9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B78" s="6">
         <f t="shared" si="1"/>
-        <v>8.7095639418752571E-4</v>
-      </c>
-      <c r="C78" s="5" t="s">
+        <v>3777.8017777033665</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="7">
-        <v>1.18313205033274E-2</v>
+        <v>2.1338844747270901E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="B79" s="6">
         <f t="shared" si="1"/>
-        <v>7.5767419150412772E-4</v>
+        <v>6.5339871511881444</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="H79" s="7">
-        <v>1.02924626957325E-2</v>
+        <v>3.6907107784948099E-5</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B80" s="6">
         <f t="shared" si="1"/>
-        <v>5.6101878732224454E-5</v>
+        <v>15.671044273724918</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="7">
-        <v>7.6210394980674603E-4</v>
+        <v>8.8517609038745603E-5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="B81" s="6">
         <f t="shared" si="1"/>
-        <v>8.564118237001337E-11</v>
+        <v>15.671044273724918</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="H81" s="7">
-        <v>1.16337429022351E-9</v>
+        <v>8.8517609038745603E-5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="B82" s="6">
         <f t="shared" si="1"/>
-        <v>6.7855338214394308E-6</v>
+        <v>801.80347589054361</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="7">
-        <v>9.21766301543822E-5</v>
+        <v>4.5289723751074798E-3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B83" s="6">
         <f t="shared" si="1"/>
-        <v>1.5708477571868369E-3</v>
+        <v>5.0682215607290811E-2</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="7">
-        <v>2.1338844747270901E-2</v>
+        <v>2.8627757461355301E-7</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B84" s="6">
         <f t="shared" si="1"/>
-        <v>4.8329695505373162E-6</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>7</v>
+        <v>801.79453197014232</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="7">
-        <v>6.5652439222941899E-5</v>
+        <v>4.5289218555354897E-3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B85" s="6">
         <f t="shared" si="1"/>
-        <v>2.7168971973355424E-6</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>7</v>
+        <v>8899.8549622233986</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>44</v>
@@ -2657,309 +2641,327 @@
         <v>20</v>
       </c>
       <c r="H85" s="7">
-        <v>3.6907107784948099E-5</v>
+        <v>5.0270669158180903E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B86" s="6">
         <f t="shared" si="1"/>
-        <v>6.5161769194575589E-6</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>65</v>
+        <v>8.9820480457371191E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="7">
-        <v>8.8517609038745603E-5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.0734935298016596E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B87" s="6">
         <f t="shared" si="1"/>
-        <v>6.5161769194575589E-6</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>65</v>
+        <v>0.78265672544203291</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="7">
-        <v>8.8517609038745603E-5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.4208223028493503E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="B88" s="6">
         <f t="shared" si="1"/>
-        <v>3.3339790331004697E-4</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>22</v>
+        <v>0.12159602569199424</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="H88" s="7">
-        <v>4.5289723751074798E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="6">
-        <f t="shared" si="1"/>
-        <v>2.1074172071667593E-8</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>22</v>
+        <v>6.8683294328482002E-7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="12">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="7">
-        <v>2.8627757461355301E-7</v>
-      </c>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="6">
-        <f t="shared" si="1"/>
-        <v>3.333941843385049E-4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="7">
-        <v>4.5289218555354897E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="6">
-        <f t="shared" si="1"/>
-        <v>3.7006486918421113E-3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" t="s">
-        <v>46</v>
-      </c>
-      <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="7">
-        <v>5.0270669158180903E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="6">
-        <f t="shared" si="1"/>
-        <v>3.7348253978979514E-8</v>
-      </c>
-      <c r="C92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" t="s">
-        <v>46</v>
-      </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" s="7">
-        <v>5.0734935298016596E-7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>140</v>
-      </c>
-      <c r="B93" s="6">
-        <f t="shared" si="1"/>
-        <v>3.254364930060517E-7</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="7">
-        <v>4.4208223028493503E-6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94" s="6">
-        <f t="shared" si="1"/>
-        <v>5.0560843442988125E-8</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="H94" s="7">
-        <v>6.8683294328482002E-7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="12">
-        <v>4.1581000000000002E-7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="7"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="B100" s="6">
+        <f>H100*0.01/76.2/$H$123</f>
+        <v>3.1202638958231059E-7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>95</v>
+      </c>
+      <c r="H100" s="6">
+        <v>2.17799056640602E-10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B101" s="6">
+        <f t="shared" ref="B101:B122" si="2">H101*0.01/76.2/$H$123</f>
+        <v>8.4276536325706154E-5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" s="6">
+        <v>5.8826274704672697E-8</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="B102" s="6">
+        <f t="shared" si="2"/>
+        <v>45.756993533221056</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>56</v>
+      </c>
+      <c r="H102" s="6">
+        <v>3.1939061435112201E-2</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="B103" s="6">
+        <f t="shared" si="2"/>
+        <v>9.516577699114299E-5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>86</v>
+      </c>
+      <c r="H103" s="6">
+        <v>6.6427126503263895E-8</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104"/>
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="6">
+        <f t="shared" si="2"/>
+        <v>35.192193051346642</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="6">
+        <v>2.45646737058287E-2</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="B105" s="6">
+        <f t="shared" si="2"/>
+        <v>8.3902203679385412</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" t="s">
-        <v>102</v>
+        <v>51</v>
+      </c>
+      <c r="H105" s="6">
+        <v>5.8564984954957702E-3</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B106" s="6">
-        <f>H106*0.01/76.2</f>
-        <v>2.8582553364908397E-14</v>
+        <f t="shared" si="2"/>
+        <v>2.8100415525205437E-3</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
@@ -2968,70 +2970,70 @@
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="H106" s="6">
-        <v>2.17799056640602E-10</v>
+        <v>1.9614507608768098E-6</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" ref="B107:B170" si="2">H107*0.01/76.2</f>
-        <v>7.7199835570436614E-12</v>
+        <f t="shared" si="2"/>
+        <v>4.2309406735121363E-4</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H107" s="6">
-        <v>5.8826274704672697E-8</v>
+        <v>2.9532594618898798E-7</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B108" s="6">
         <f t="shared" si="2"/>
-        <v>4.1914778786236484E-6</v>
+        <v>2.102298528077067E-4</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="H108" s="6">
-        <v>3.1939061435112201E-2</v>
+        <v>1.4674356127539201E-7</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B109" s="6">
         <f t="shared" si="2"/>
-        <v>8.7174706697196712E-12</v>
+        <v>2.9920677379976981</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
@@ -3040,19 +3042,19 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H109" s="6">
-        <v>6.6427126503263895E-8</v>
+        <v>2.08850774324898E-3</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B110" s="6">
         <f t="shared" si="2"/>
-        <v>3.2237104600825065E-6</v>
+        <v>1.4040239287914415E-4</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3064,67 +3066,67 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H110" s="6">
-        <v>2.45646737058287E-2</v>
+        <v>9.8002956609200806E-8</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B111" s="6">
         <f t="shared" si="2"/>
-        <v>7.6856935636427419E-7</v>
+        <v>481.46446639937579</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="H111" s="6">
-        <v>5.8564984954957702E-3</v>
+        <v>0.33606935210873501</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B112" s="6">
         <f t="shared" si="2"/>
-        <v>2.5740823633553939E-10</v>
+        <v>395.5792821373488</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H112" s="6">
-        <v>1.9614507608768098E-6</v>
+        <v>0.27612021724000202</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B113" s="6">
         <f t="shared" si="2"/>
-        <v>3.8756685851573222E-11</v>
+        <v>1.7388002982796954E-3</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -3136,19 +3138,19 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H113" s="6">
-        <v>2.9532594618898798E-7</v>
+        <v>1.21370844677166E-6</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B114" s="6">
         <f t="shared" si="2"/>
-        <v>1.9257685206744357E-11</v>
+        <v>59.380654897490146</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -3160,22 +3162,22 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H114" s="6">
-        <v>1.4674356127539201E-7</v>
+        <v>4.1448579514979898E-2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B115" s="6">
         <f t="shared" si="2"/>
-        <v>2.7408238100380316E-7</v>
+        <v>3.5043824041337021E-7</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E115" t="s">
         <v>3</v>
@@ -3184,22 +3186,22 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="H115" s="6">
-        <v>2.08850774324898E-3</v>
+        <v>2.4461109932078497E-10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B116" s="6">
         <f t="shared" si="2"/>
-        <v>1.2861280394908242E-11</v>
+        <v>1.5288576830944114E-7</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
         <v>3</v>
@@ -3208,25 +3210,25 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H116" s="6">
-        <v>9.8002956609200806E-8</v>
+        <v>1.06716538162507E-10</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B117" s="6">
         <f t="shared" si="2"/>
-        <v>4.4103589515582022E-5</v>
+        <v>-63777.54198080796</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -3234,116 +3236,116 @@
       <c r="G117" t="s">
         <v>92</v>
       </c>
-      <c r="H117" s="6">
-        <v>0.33606935210873501</v>
+      <c r="H117" s="2">
+        <v>-44.517672036877798</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B118" s="6">
         <f t="shared" si="2"/>
-        <v>3.6236248981627562E-5</v>
+        <v>2.0157841853578447E-6</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H118" s="6">
-        <v>0.27612021724000202</v>
+        <v>1.40704731593277E-9</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B119" s="6">
         <f t="shared" si="2"/>
-        <v>1.5927932372331495E-10</v>
+        <v>1.6044618206707519</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H119" s="6">
-        <v>1.21370844677166E-6</v>
+        <v>1.1199381931308401E-3</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B120" s="6">
         <f t="shared" si="2"/>
-        <v>5.43944613057479E-6</v>
+        <v>26.866466894567971</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H120" s="6">
-        <v>4.1448579514979898E-2</v>
+        <v>1.8753193128106499E-2</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B121" s="6">
         <f t="shared" si="2"/>
-        <v>3.2101194136585955E-14</v>
+        <v>-35728.942600814684</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H121" s="6">
-        <v>2.4461109932078497E-10</v>
+        <v>-24.9393328674557</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B122" s="6">
         <f t="shared" si="2"/>
-        <v>1.4004795034449737E-14</v>
+        <v>2.0945299170907049E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
         <v>3</v>
@@ -3352,217 +3354,202 @@
         <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H122" s="6">
-        <v>1.06716538162507E-10</v>
+        <v>1.4620130068438801E-7</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" s="6">
-        <f t="shared" si="2"/>
-        <v>-5.842214178067952E-3</v>
+        <v>66</v>
+      </c>
+      <c r="B123" s="12">
+        <f>0.000000091603/H123</f>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>94</v>
-      </c>
-      <c r="H123" s="2">
-        <v>-44.517672036877798</v>
+        <v>65</v>
+      </c>
+      <c r="H123" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B124" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8465187873133465E-13</v>
+        <f>H124*0.01/76.2/$H$123</f>
+        <v>5.6993268113568246E-4</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
-      <c r="E124" t="s">
-        <v>3</v>
+      <c r="D124" t="s">
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s">
-        <v>93</v>
-      </c>
-      <c r="H124" s="6">
-        <v>1.40704731593277E-9</v>
+        <v>20</v>
+      </c>
+      <c r="H124" s="7">
+        <v>3.9782148063234802E-7</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B125" s="6">
-        <f t="shared" si="2"/>
-        <v>1.469735161589029E-7</v>
+        <f t="shared" ref="B125:B178" si="3">H125*0.01/76.2/$H$123</f>
+        <v>3.3920203809051997E-6</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
-      <c r="E125" t="s">
-        <v>14</v>
+      <c r="D125" t="s">
+        <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>95</v>
-      </c>
-      <c r="H125" s="6">
-        <v>1.1199381931308401E-3</v>
+        <v>20</v>
+      </c>
+      <c r="H125" s="7">
+        <v>2.3676806312946898E-9</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B126" s="6">
-        <f t="shared" si="2"/>
-        <v>2.46104896694311E-6</v>
+        <f t="shared" si="3"/>
+        <v>2.5440152856788896E-5</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
-      <c r="E126" t="s">
-        <v>3</v>
+      <c r="D126" t="s">
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s">
-        <v>99</v>
-      </c>
-      <c r="H126" s="6">
-        <v>1.8753193128106499E-2</v>
+        <v>20</v>
+      </c>
+      <c r="H126" s="7">
+        <v>1.7757604734710101E-8</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B127" s="6">
-        <f t="shared" si="2"/>
-        <v>-3.2728783290624278E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.9474677816463676E-5</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
-      <c r="E127" t="s">
-        <v>103</v>
+      <c r="D127" t="s">
+        <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s">
-        <v>96</v>
-      </c>
-      <c r="H127" s="6">
-        <v>-24.9393328674557</v>
+        <v>20</v>
+      </c>
+      <c r="H127" s="7">
+        <v>1.3593614509604001E-8</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B128" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9186522399525986E-11</v>
+        <f t="shared" si="3"/>
+        <v>7.0329201975343907E-9</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
-      <c r="E128" t="s">
-        <v>3</v>
+      <c r="D128" t="s">
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s">
-        <v>91</v>
-      </c>
-      <c r="H128" s="6">
-        <v>1.4620130068438801E-7</v>
+        <v>20</v>
+      </c>
+      <c r="H128" s="7">
+        <v>4.9090828070731402E-12</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129" s="12">
-        <v>9.1603000000000003E-8</v>
+        <v>116</v>
+      </c>
+      <c r="B129" s="6">
+        <f t="shared" si="3"/>
+        <v>4.4121244135742472E-5</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
-      <c r="E129" t="s">
-        <v>103</v>
+      <c r="D129" t="s">
+        <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>67</v>
-      </c>
-      <c r="H129" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="H129" s="7">
+        <v>3.0797284048436102E-8</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B130" s="6">
-        <f t="shared" si="2"/>
-        <v>5.2207543390071923E-11</v>
+        <f t="shared" si="3"/>
+        <v>6.8770117477379489E-2</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
       </c>
       <c r="H130" s="7">
-        <v>3.9782148063234802E-7</v>
+        <v>4.8002563923156597E-5</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B131" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1071924295205902E-13</v>
+        <f t="shared" si="3"/>
+        <v>1.6960101904525926E-4</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="H131" s="7">
-        <v>2.3676806312946898E-9</v>
+        <v>1.1838403156473399E-7</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3570,20 +3557,20 @@
         <v>117</v>
       </c>
       <c r="B132" s="6">
-        <f t="shared" si="2"/>
-        <v>2.3303943221404332E-12</v>
+        <f t="shared" si="3"/>
+        <v>1.8656112094978467E-6</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
       <c r="H132" s="7">
-        <v>1.7757604734710101E-8</v>
+        <v>1.3022243472120701E-9</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3591,20 +3578,20 @@
         <v>117</v>
       </c>
       <c r="B133" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7839389120215222E-12</v>
+        <f t="shared" si="3"/>
+        <v>2.0840846181166974E-6</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
       <c r="H133" s="7">
-        <v>1.3593614509604001E-8</v>
+        <v>1.45472203294288E-9</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -3612,104 +3599,104 @@
         <v>118</v>
       </c>
       <c r="B134" s="6">
-        <f t="shared" si="2"/>
-        <v>6.442365888547428E-16</v>
+        <f t="shared" si="3"/>
+        <v>4.5275322469697423</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
       </c>
       <c r="H134" s="7">
-        <v>4.9090828070731402E-12</v>
+        <v>3.1602847875140702E-3</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="B135" s="6">
-        <f t="shared" si="2"/>
-        <v>4.0416383265664179E-12</v>
+        <f t="shared" si="3"/>
+        <v>21.046527197648054</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
       </c>
       <c r="H135" s="7">
-        <v>3.0797284048436102E-8</v>
+        <v>1.4690788735352499E-2</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B136" s="6">
-        <f t="shared" si="2"/>
-        <v>6.2995490712803937E-9</v>
+        <f t="shared" si="3"/>
+        <v>3.6869786748969497</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
       </c>
       <c r="H136" s="7">
-        <v>4.8002563923156597E-5</v>
+        <v>2.5735659035811798E-3</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B137" s="6">
-        <f t="shared" si="2"/>
-        <v>1.5535962147602885E-11</v>
+        <f t="shared" si="3"/>
+        <v>1.6960101904525929E-3</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
         <v>20</v>
       </c>
       <c r="H137" s="7">
-        <v>1.1838403156473399E-7</v>
+        <v>1.1838403156473401E-6</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B138" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7089558362363125E-13</v>
+        <f t="shared" si="3"/>
+        <v>3.6079313472376361E-6</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
         <v>20</v>
       </c>
       <c r="H138" s="7">
-        <v>1.3022243472120701E-9</v>
+        <v>2.5183896942316898E-9</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -3717,419 +3704,419 @@
         <v>120</v>
       </c>
       <c r="B139" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9090840327334385E-13</v>
+        <f t="shared" si="3"/>
+        <v>3.3920203809051992E-4</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
       <c r="H139" s="7">
-        <v>1.45472203294288E-9</v>
+        <v>2.36768063129469E-7</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B140" s="6">
-        <f t="shared" si="2"/>
-        <v>4.1473553641916932E-7</v>
+        <f t="shared" si="3"/>
+        <v>5.155121381322326E-6</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
       </c>
       <c r="H140" s="7">
-        <v>3.1602847875140702E-3</v>
+        <v>3.5983513292667102E-9</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B141" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9279250308861546E-6</v>
+        <f t="shared" si="3"/>
+        <v>6.8769302748732011E-2</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
       </c>
       <c r="H141" s="7">
-        <v>1.4690788735352499E-2</v>
+        <v>4.8001995230453797E-5</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B142" s="6">
-        <f t="shared" si="2"/>
-        <v>3.377383075565853E-7</v>
+        <f t="shared" si="3"/>
+        <v>8.4800509522629938E-4</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
       </c>
       <c r="H142" s="7">
-        <v>2.5735659035811798E-3</v>
+        <v>5.9192015782367205E-7</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B143" s="6">
-        <f t="shared" si="2"/>
-        <v>1.5535962147602887E-10</v>
+        <f t="shared" si="3"/>
+        <v>5.2247968412475058E-5</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
       </c>
       <c r="H143" s="7">
-        <v>1.1838403156473401E-6</v>
+        <v>3.6469858356718201E-8</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>122</v>
+      <c r="A144" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B144" s="6">
-        <f t="shared" si="2"/>
-        <v>3.3049733520100919E-13</v>
+        <f t="shared" si="3"/>
+        <v>2.1349019917748745E-13</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
       </c>
       <c r="H144" s="7">
-        <v>2.5183896942316898E-9</v>
+        <v>1.4901933149024601E-16</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B145" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1071924295205899E-11</v>
+        <f t="shared" si="3"/>
+        <v>2.2543248356495158E-2</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
         <v>20</v>
       </c>
       <c r="H145" s="7">
-        <v>2.36768063129469E-7</v>
+        <v>1.5735522345504199E-5</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="B146" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7222458389326908E-13</v>
+        <f t="shared" si="3"/>
+        <v>3.4104467885480258E-2</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
         <v>20</v>
       </c>
       <c r="H146" s="7">
-        <v>3.5983513292667102E-9</v>
+        <v>2.3805425376457999E-5</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B147" s="6">
-        <f t="shared" si="2"/>
-        <v>6.2994744396920993E-9</v>
+        <f t="shared" si="3"/>
+        <v>2.6903165356752148E-2</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
         <v>20</v>
       </c>
       <c r="H147" s="7">
-        <v>4.8001995230453797E-5</v>
+        <v>1.87788092000502E-5</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B148" s="6">
-        <f t="shared" si="2"/>
-        <v>2.8707756148051313E-5</v>
+        <f t="shared" si="3"/>
+        <v>1.6112096809299592E-2</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
         <v>20</v>
       </c>
       <c r="H148" s="7">
-        <v>0.218753101848151</v>
+        <v>1.1246482998649701E-5</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B149" s="6">
-        <f t="shared" si="2"/>
-        <v>7.7679810738014708E-11</v>
+        <f t="shared" si="3"/>
+        <v>70226.187836488607</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
       <c r="H149" s="7">
-        <v>5.9192015782367205E-7</v>
+        <v>49.018922671020299</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9180654761318835E-3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" s="7">
+        <v>1.33883820479303E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>124</v>
       </c>
-      <c r="B150" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7860706504879529E-12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" t="s">
-        <v>44</v>
-      </c>
-      <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" s="7">
-        <v>3.6469858356718201E-8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="B151" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9556342715255383E-20</v>
+        <f t="shared" si="3"/>
+        <v>2.3744142666336357E-4</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s">
         <v>20</v>
       </c>
       <c r="H151" s="7">
-        <v>1.4901933149024601E-16</v>
+        <v>1.65737644190628E-7</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>124</v>
+      </c>
+      <c r="B152" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8467310560113289E-5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
         <v>42</v>
       </c>
-      <c r="B152" s="6">
-        <f t="shared" si="2"/>
-        <v>2.0650291792000261E-9</v>
-      </c>
-      <c r="C152" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" t="s">
-        <v>44</v>
-      </c>
       <c r="F152" t="s">
         <v>20</v>
       </c>
       <c r="H152" s="7">
-        <v>1.5735522345504199E-5</v>
+        <v>1.2890457195194E-8</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B153" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1240715717136483E-9</v>
+        <f t="shared" si="3"/>
+        <v>1.6112096809299592E-2</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
       </c>
       <c r="H153" s="7">
-        <v>2.3805425376457999E-5</v>
+        <v>1.1246482998649701E-5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="B154" s="6">
-        <f t="shared" si="2"/>
-        <v>2.464410656174567E-9</v>
+        <f t="shared" si="3"/>
+        <v>1.6275934317512379E-4</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
       <c r="H154" s="7">
-        <v>1.87788092000502E-5</v>
+        <v>1.13608440140076E-7</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B155" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4759164040222705E-9</v>
+        <f t="shared" si="3"/>
+        <v>8.480050952262979E-7</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
       <c r="H155" s="7">
-        <v>1.1246482998649701E-5</v>
+        <v>5.91920157823671E-10</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B156" s="6">
-        <f t="shared" si="2"/>
-        <v>6.432929484385866E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.4842744945246866E-7</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
         <v>20</v>
       </c>
       <c r="H156" s="7">
-        <v>49.018922671020299</v>
+        <v>1.7340605134972201E-10</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>126</v>
+      <c r="A157" t="s">
+        <v>127</v>
       </c>
       <c r="B157" s="6">
-        <f t="shared" si="2"/>
-        <v>2.7215205154044493E-10</v>
+        <f t="shared" si="3"/>
+        <v>5.4041874156982982E-12</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
       <c r="H157" s="7">
-        <v>2.0737986327381901E-6</v>
+        <v>3.7722031223824099E-15</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B158" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7570055181010894E-10</v>
+        <f t="shared" si="3"/>
+        <v>1.3568081523620814E-3</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
       </c>
       <c r="H158" s="7">
-        <v>1.33883820479303E-6</v>
+        <v>9.4707225251787704E-7</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -4137,104 +4124,104 @@
         <v>128</v>
       </c>
       <c r="B159" s="6">
-        <f t="shared" si="2"/>
-        <v>2.1750347006644095E-11</v>
+        <f t="shared" si="3"/>
+        <v>1.6052785195184096E-4</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
       </c>
       <c r="H159" s="7">
-        <v>1.65737644190628E-7</v>
+        <v>1.12050826106265E-7</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B160" s="6">
-        <f t="shared" si="2"/>
-        <v>1.6916610492380577E-12</v>
+        <f t="shared" si="3"/>
+        <v>2.0224627428737551E-5</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
         <v>20</v>
       </c>
       <c r="H160" s="7">
-        <v>1.2890457195194E-8</v>
+        <v>1.4117090483222401E-8</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="B161" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4759164040222705E-9</v>
+        <f t="shared" si="3"/>
+        <v>0.15009467918624972</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
         <v>20</v>
       </c>
       <c r="H161" s="7">
-        <v>1.1246482998649701E-5</v>
+        <v>1.04768316478935E-4</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="B162" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4909244112870866E-11</v>
+        <f t="shared" si="3"/>
+        <v>1.9406778366555546</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D162" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
       </c>
       <c r="H162" s="7">
-        <v>1.13608440140076E-7</v>
+        <v>1.3546219684582299E-3</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B163" s="6">
-        <f t="shared" si="2"/>
-        <v>7.7679810738014566E-14</v>
+        <f t="shared" si="3"/>
+        <v>0.83366603934948746</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
       </c>
       <c r="H163" s="7">
-        <v>5.91920157823671E-10</v>
+        <v>5.8191128374328696E-4</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -4242,732 +4229,768 @@
         <v>130</v>
       </c>
       <c r="B164" s="6">
-        <f t="shared" si="2"/>
-        <v>2.275669965219449E-14</v>
+        <f t="shared" si="3"/>
+        <v>8.6240689298277395</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
       </c>
       <c r="H164" s="7">
-        <v>1.7340605134972201E-10</v>
+        <v>6.0197282666840596E-3</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B165" s="6">
-        <f t="shared" si="2"/>
-        <v>2.7282808493725065E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.5023669353487676</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
       </c>
       <c r="H165" s="7">
-        <v>2.0789500072218501E-2</v>
+        <v>5.2367636060460998E-3</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B166" s="6">
-        <f t="shared" si="2"/>
-        <v>4.9503977984021124E-19</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
       </c>
       <c r="H166" s="7">
-        <v>3.7722031223824099E-15</v>
+        <v>3.69591112394996E-7</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B167" s="6">
-        <f t="shared" si="2"/>
-        <v>1.2428769718082375E-10</v>
+        <f t="shared" si="3"/>
+        <v>8.480050952262979E-7</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
       </c>
       <c r="H167" s="7">
-        <v>9.4707225251787704E-7</v>
+        <v>5.91920157823671E-10</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="B168" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4704832822344487E-11</v>
+        <f t="shared" si="3"/>
+        <v>15.554279670777351</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
       </c>
       <c r="H168" s="7">
-        <v>1.12050826106265E-7</v>
+        <v>1.08571183467985E-2</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B169" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8526365463546458E-12</v>
+        <f t="shared" si="3"/>
+        <v>2.6902275316475353E-2</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
       </c>
       <c r="H169" s="7">
-        <v>1.4117090483222401E-8</v>
+        <v>1.8778187938711E-5</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B170" s="6">
-        <f t="shared" si="2"/>
-        <v>1.3749122897498032E-8</v>
+        <f t="shared" si="3"/>
+        <v>6.4522126810696676E-2</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D170" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
       </c>
       <c r="H170" s="7">
-        <v>1.04768316478935E-4</v>
+        <v>4.5037403312670698E-5</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B171" s="6">
-        <f t="shared" ref="B171:B190" si="3">H171*0.01/76.2</f>
-        <v>1.7777191187115878E-7</v>
+        <f t="shared" si="3"/>
+        <v>6.4522126810696676E-2</v>
       </c>
       <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
         <v>64</v>
       </c>
-      <c r="D171" t="s">
-        <v>66</v>
-      </c>
       <c r="F171" t="s">
         <v>20</v>
       </c>
       <c r="H171" s="7">
-        <v>1.3546219684582299E-3</v>
+        <v>4.5037403312670698E-5</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="B172" s="6">
         <f t="shared" si="3"/>
-        <v>7.6366310202531106E-8</v>
+        <v>3.3012519552004376</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
       </c>
       <c r="H172" s="7">
-        <v>5.8191128374328696E-4</v>
+        <v>2.3043229213339598E-3</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="B173" s="6">
         <f t="shared" si="3"/>
-        <v>7.8999058617901046E-7</v>
+        <v>2.0867303322877969E-4</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
       </c>
       <c r="H173" s="7">
-        <v>6.0197282666840596E-3</v>
+        <v>1.4565687807496199E-7</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B174" s="6">
         <f t="shared" si="3"/>
-        <v>6.8723931837875318E-7</v>
+        <v>3.3012151305475075</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
       </c>
       <c r="H174" s="7">
-        <v>5.2367636060460998E-3</v>
+        <v>2.3042972171789999E-3</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>136</v>
-      </c>
-      <c r="B175" s="12">
-        <v>9.1603000000000003E-8</v>
+        <v>33</v>
+      </c>
+      <c r="B175" s="6">
+        <f t="shared" si="3"/>
+        <v>36.568705588887461</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
       </c>
       <c r="H175" s="7">
-        <v>3.69591112394996E-7</v>
+        <v>2.55254999120085E-2</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B176" s="6">
         <f t="shared" si="3"/>
-        <v>8.0104146242208516E-8</v>
+        <v>3.6630593987519973E-4</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
         <v>20</v>
       </c>
       <c r="H176" s="7">
-        <v>6.1039359436562896E-4</v>
+        <v>2.5568698933915598E-7</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B177" s="6">
         <f t="shared" si="3"/>
-        <v>7.7679810738014566E-14</v>
+        <v>3.222419361859932E-3</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
       </c>
       <c r="H177" s="7">
-        <v>5.91920157823671E-10</v>
+        <v>2.24929659972995E-6</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B178" s="6">
         <f t="shared" si="3"/>
-        <v>9.6886130348398687E-9</v>
+        <v>5.006452698579927E-4</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
       </c>
       <c r="H178" s="7">
-        <v>7.3827231325479805E-5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>30</v>
-      </c>
-      <c r="B179" s="6">
-        <f t="shared" si="3"/>
-        <v>1.4248186806822178E-6</v>
-      </c>
-      <c r="C179" t="s">
-        <v>7</v>
-      </c>
-      <c r="D179" t="s">
-        <v>44</v>
-      </c>
-      <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="H179" s="7">
-        <v>1.08571183467985E-2</v>
+        <v>3.4945783794958899E-7</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>139</v>
-      </c>
-      <c r="B180" s="6">
-        <f t="shared" si="3"/>
-        <v>6.9028381168060753E-9</v>
-      </c>
-      <c r="C180" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" t="s">
-        <v>27</v>
-      </c>
-      <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="H180" s="7">
-        <v>5.2599626450062298E-5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>38</v>
-      </c>
-      <c r="B181" s="6">
-        <f t="shared" si="3"/>
-        <v>2.4643291258150918E-9</v>
-      </c>
-      <c r="C181" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" t="s">
-        <v>44</v>
-      </c>
-      <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="H181" s="7">
-        <v>1.8778187938711E-5</v>
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>62</v>
-      </c>
-      <c r="B182" s="6">
-        <f t="shared" si="3"/>
-        <v>5.9104203822402483E-9</v>
-      </c>
-      <c r="C182" t="s">
-        <v>65</v>
-      </c>
-      <c r="D182" t="s">
-        <v>66</v>
-      </c>
-      <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="H182" s="7">
-        <v>4.5037403312670698E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>63</v>
-      </c>
-      <c r="B183" s="6">
-        <f t="shared" si="3"/>
-        <v>5.9104203822402483E-9</v>
-      </c>
-      <c r="C183" t="s">
-        <v>65</v>
-      </c>
-      <c r="D183" t="s">
-        <v>66</v>
-      </c>
-      <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="H183" s="7">
-        <v>4.5037403312670698E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>21</v>
-      </c>
-      <c r="B184" s="6">
-        <f t="shared" si="3"/>
-        <v>3.0240458285222569E-7</v>
-      </c>
-      <c r="C184" t="s">
-        <v>22</v>
-      </c>
-      <c r="D184" t="s">
-        <v>45</v>
-      </c>
-      <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="H184" s="7">
-        <v>2.3043229213339598E-3</v>
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>21</v>
-      </c>
-      <c r="B185" s="6">
-        <f t="shared" si="3"/>
-        <v>1.9115075862855906E-11</v>
-      </c>
-      <c r="C185" t="s">
-        <v>22</v>
-      </c>
-      <c r="D185" t="s">
-        <v>44</v>
-      </c>
-      <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="H185" s="7">
-        <v>1.4565687807496199E-7</v>
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>21</v>
-      </c>
-      <c r="B186" s="6">
-        <f t="shared" si="3"/>
-        <v>3.0240120960354332E-7</v>
-      </c>
-      <c r="C186" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" t="s">
-        <v>43</v>
-      </c>
-      <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="H186" s="7">
-        <v>2.3042972171789999E-3</v>
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>33</v>
-      </c>
-      <c r="B187" s="6">
-        <f t="shared" si="3"/>
-        <v>3.3498031380588585E-6</v>
-      </c>
-      <c r="C187" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" t="s">
-        <v>46</v>
-      </c>
-      <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="H187" s="7">
-        <v>2.55254999120085E-2</v>
-      </c>
+      <c r="A187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>32</v>
-      </c>
-      <c r="B188" s="6">
-        <f t="shared" si="3"/>
-        <v>3.3554723010387924E-11</v>
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="H188" s="7">
-        <v>2.5568698933915598E-7</v>
+        <v>11</v>
+      </c>
+      <c r="G188" t="s">
+        <v>5</v>
+      </c>
+      <c r="H188" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B189" s="6">
-        <f t="shared" si="3"/>
-        <v>2.9518328080445537E-10</v>
+        <f>H189*0.09/0.8121/$H$212</f>
+        <v>1.0151685725046852E-4</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="E189" t="s">
+        <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="H189" s="7">
-        <v>2.24929659972995E-6</v>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>95</v>
+      </c>
+      <c r="H189" s="6">
+        <v>5.8020734791427803E-10</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B190" s="6">
-        <f t="shared" si="3"/>
-        <v>4.5860608654801704E-11</v>
+        <f t="shared" ref="B190:B211" si="4">H190*0.09/0.8121/$H$212</f>
+        <v>2.741912028400325E-2</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
       </c>
-      <c r="D190" t="s">
-        <v>44</v>
+      <c r="E190" t="s">
+        <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="H190" s="7">
-        <v>3.4945783794958899E-7</v>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>83</v>
+      </c>
+      <c r="H190" s="6">
+        <v>1.5671067340937299E-7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>50</v>
+      </c>
+      <c r="B191" s="6">
+        <f t="shared" si="4"/>
+        <v>7093.2341500717639</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>3</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>56</v>
+      </c>
+      <c r="H191" s="6">
+        <v>4.0540523867814399E-2</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>68</v>
+      <c r="A192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4752567578147181E-2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>3</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>86</v>
+      </c>
+      <c r="H192" s="6">
+        <v>8.4316519849745797E-8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="6">
+        <f t="shared" si="4"/>
+        <v>5455.4822398130927</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>3</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>55</v>
+      </c>
+      <c r="H193" s="2">
+        <v>3.1180150446794799E-2</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" t="s">
-        <v>142</v>
+        <v>45</v>
+      </c>
+      <c r="B194" s="6">
+        <f t="shared" si="4"/>
+        <v>2729.7332271548257</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>51</v>
+      </c>
+      <c r="H194" s="6">
+        <v>1.5601460871994001E-2</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2</v>
-      </c>
-      <c r="B195" t="s">
-        <v>106</v>
+        <v>46</v>
+      </c>
+      <c r="B195" s="6">
+        <f t="shared" si="4"/>
+        <v>0.91423865634244217</v>
+      </c>
+      <c r="C195" t="s">
+        <v>57</v>
+      </c>
+      <c r="E195" t="s">
+        <v>3</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>52</v>
+      </c>
+      <c r="H195" s="6">
+        <v>5.2252207221940298E-6</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B196" s="6">
+        <f t="shared" si="4"/>
+        <v>6.5587903738681619E-2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>96</v>
+      </c>
+      <c r="H196" s="6">
+        <v>3.7485974954471699E-7</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="B197" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2589762922634297E-2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s">
+        <v>84</v>
+      </c>
+      <c r="H197" s="6">
+        <v>1.8626285748625699E-7</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="B198" s="6">
+        <f t="shared" si="4"/>
+        <v>463.82936070929202</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" t="s">
+        <v>3</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s">
+        <v>25</v>
+      </c>
+      <c r="H198" s="6">
+        <v>2.6509607423910999E-3</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199"/>
+      <c r="A199" t="s">
+        <v>70</v>
+      </c>
+      <c r="B199" s="6">
+        <f t="shared" si="4"/>
+        <v>4.567950068138836E-2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s">
+        <v>85</v>
+      </c>
+      <c r="H199" s="6">
+        <v>2.6107567415139299E-7</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>9</v>
-      </c>
-      <c r="B200" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="B200" s="6">
+        <f t="shared" si="4"/>
+        <v>156643.03128997152</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E200" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>5</v>
-      </c>
-      <c r="H200" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="H200" s="6">
+        <v>0.89527434374539006</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B201" s="6">
-        <f>H201*0.09/0.8121</f>
-        <v>6.4300777382446765E-11</v>
+        <f t="shared" si="4"/>
+        <v>61322.570747143101</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H201" s="6">
-        <v>5.8020734791427803E-10</v>
+        <v>0.35048175351509298</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B202" s="6">
-        <f t="shared" ref="B202:B265" si="4">H202*0.09/0.8121</f>
-        <v>1.736727078788766E-8</v>
+        <f t="shared" si="4"/>
+        <v>0.26954825270497235</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H202" s="6">
-        <v>1.5671067340937299E-7</v>
+        <v>1.54057051284611E-6</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B203" s="6">
         <f t="shared" si="4"/>
-        <v>4.4928545106554555E-3</v>
+        <v>9205.1696724063804</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H203" s="6">
-        <v>4.0540523867814399E-2</v>
+        <v>5.2611036505498199E-2</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B204" s="6">
         <f t="shared" si="4"/>
-        <v>9.3442763039984252E-9</v>
+        <v>1.1401403860350441E-4</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E204" t="s">
         <v>3</v>
@@ -4976,22 +4999,22 @@
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H204" s="6">
-        <v>8.4316519849745797E-8</v>
+        <v>6.5163347994433803E-10</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B205" s="6">
         <f t="shared" si="4"/>
-        <v>3.4555024506976134E-3</v>
+        <v>4.974092972672592E-5</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E205" t="s">
         <v>3</v>
@@ -5000,19 +5023,19 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>57</v>
-      </c>
-      <c r="H205" s="2">
-        <v>3.1180150446794799E-2</v>
+        <v>54</v>
+      </c>
+      <c r="H205" s="6">
+        <v>2.84288281780915E-10</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B206" s="6">
         <f t="shared" si="4"/>
-        <v>1.7290130260798667E-3</v>
+        <v>-20749833.479528625</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5024,22 +5047,22 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="H206" s="6">
-        <v>1.5601460871994001E-2</v>
+        <v>-118.593169439006</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B207" s="6">
         <f t="shared" si="4"/>
-        <v>5.7907876492730291E-7</v>
+        <v>3.1248620415529949E-4</v>
       </c>
       <c r="C207" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E207" t="s">
         <v>3</v>
@@ -5048,91 +5071,91 @@
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H207" s="6">
-        <v>5.2252207221940298E-6</v>
+        <v>1.7859771931809801E-9</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B208" s="6">
         <f t="shared" si="4"/>
-        <v>4.1543378228080937E-8</v>
+        <v>248.72314590785399</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>98</v>
-      </c>
-      <c r="H208" s="6">
-        <v>3.7485974954471699E-7</v>
+        <v>93</v>
+      </c>
+      <c r="H208" s="2">
+        <v>1.4215471278433999E-3</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B209" s="6">
         <f t="shared" si="4"/>
-        <v>2.0642355835196563E-8</v>
+        <v>8740.9250487155969</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>86</v>
-      </c>
-      <c r="H209" s="6">
-        <v>1.8626285748625699E-7</v>
+        <v>97</v>
+      </c>
+      <c r="H209" s="2">
+        <v>4.9957702377644797E-2</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B210" s="6">
         <f t="shared" si="4"/>
-        <v>2.9378951707326558E-4</v>
+        <v>-11848542.673059383</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="H210" s="6">
-        <v>2.6509607423910999E-3</v>
+        <v>-67.718915923721696</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B211" s="6">
         <f t="shared" si="4"/>
-        <v>2.8933395731591388E-8</v>
+        <v>6.8144907513998418E-2</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -5144,591 +5167,559 @@
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H211" s="6">
-        <v>2.6107567415139299E-7</v>
+        <v>3.8947399607741801E-7</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>104</v>
-      </c>
-      <c r="B212" s="6">
-        <f t="shared" si="4"/>
-        <v>9.9217696019067977E-2</v>
+        <v>66</v>
+      </c>
+      <c r="B212" s="12">
+        <f>H212/H212</f>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G212" t="s">
-        <v>92</v>
-      </c>
-      <c r="H212" s="6">
-        <v>0.89527434374539006</v>
+        <v>65</v>
+      </c>
+      <c r="H212" s="12">
+        <v>6.3340000000000005E-7</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B213" s="6">
-        <f t="shared" si="4"/>
-        <v>3.8841716311240441E-2</v>
+        <f>H213*0.09/0.8121/$H$212</f>
+        <v>0.18489016151185533</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
-      </c>
-      <c r="E213" t="s">
-        <v>106</v>
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>42</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
-      </c>
-      <c r="G213" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H213" s="6">
-        <v>0.35048175351509298</v>
+        <v>1.0567174080415201E-6</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B214" s="6">
-        <f t="shared" si="4"/>
-        <v>1.707318632633295E-7</v>
+        <f t="shared" ref="B214:B267" si="5">H214*0.09/0.8121/$H$212</f>
+        <v>1.1035837361704857E-3</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
       </c>
-      <c r="E214" t="s">
-        <v>3</v>
+      <c r="D214" t="s">
+        <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
-      </c>
-      <c r="G214" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H214" s="6">
-        <v>1.54057051284611E-6</v>
+        <v>6.3073996783115798E-9</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="B215" s="6">
-        <f t="shared" si="4"/>
-        <v>5.8305544705022014E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.276878021278633E-3</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
-      <c r="E215" t="s">
-        <v>14</v>
+      <c r="D215" t="s">
+        <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
-      </c>
-      <c r="G215" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H215" s="6">
-        <v>5.2611036505498199E-2</v>
+        <v>4.7305497587336797E-8</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B216" s="6">
-        <f t="shared" si="4"/>
-        <v>7.2216492051459696E-11</v>
+        <f t="shared" si="5"/>
+        <v>6.3360284703460968E-3</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
-      </c>
-      <c r="E216" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
-      </c>
-      <c r="G216" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H216" s="6">
-        <v>6.5163347994433803E-10</v>
+        <v>3.6212806174827699E-8</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="B217" s="6">
-        <f t="shared" si="4"/>
-        <v>3.15059048889082E-11</v>
+        <f t="shared" si="5"/>
+        <v>2.2881396560808968E-6</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
-      </c>
-      <c r="E217" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
-      </c>
-      <c r="G217" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H217" s="6">
-        <v>2.84288281780915E-10</v>
+        <v>1.30775861021452E-11</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B218" s="6">
-        <f t="shared" si="4"/>
-        <v>-13.142944525933432</v>
+        <f t="shared" si="5"/>
+        <v>1.4354715473383784E-2</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
       </c>
-      <c r="E218" t="s">
-        <v>3</v>
+      <c r="D218" t="s">
+        <v>43</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="H218" s="6">
-        <v>-118.593169439006</v>
+        <v>8.2042644152457905E-8</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B219" s="6">
-        <f t="shared" si="4"/>
-        <v>1.9792876171196672E-10</v>
+        <f t="shared" si="5"/>
+        <v>22.374153059279706</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
-      <c r="E219" t="s">
-        <v>3</v>
+      <c r="D219" t="s">
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H219" s="6">
-        <v>1.7859771931809801E-9</v>
+        <v>1.2787677199584401E-4</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B220" s="6">
-        <f t="shared" si="4"/>
-        <v>1.5754124061803472E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.5179186808524114E-2</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
-      <c r="E220" t="s">
-        <v>14</v>
+      <c r="D220" t="s">
+        <v>43</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
-      </c>
-      <c r="G220" t="s">
-        <v>95</v>
-      </c>
-      <c r="H220" s="2">
-        <v>1.4215471278433999E-3</v>
+        <v>20</v>
+      </c>
+      <c r="H220" s="6">
+        <v>3.1536998391557802E-7</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B221" s="6">
-        <f t="shared" si="4"/>
-        <v>5.5365019258564593E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.0697105489376552E-4</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
-      <c r="E221" t="s">
-        <v>3</v>
+      <c r="D221" t="s">
+        <v>43</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" t="s">
-        <v>99</v>
-      </c>
-      <c r="H221" s="2">
-        <v>4.9957702377644797E-2</v>
+        <v>20</v>
+      </c>
+      <c r="H221" s="6">
+        <v>3.46906982307136E-9</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B222" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.5048669291158134</v>
+        <f t="shared" si="5"/>
+        <v>6.7805072820432217E-4</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
       </c>
-      <c r="E222" t="s">
-        <v>106</v>
+      <c r="D222" t="s">
+        <v>42</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
-      </c>
-      <c r="G222" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="H222" s="6">
-        <v>-67.718915923721696</v>
+        <v>3.8753171189306E-9</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>76</v>
+      <c r="A223" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B223" s="6">
-        <f t="shared" si="4"/>
-        <v>4.3162984419366603E-8</v>
+        <f t="shared" si="5"/>
+        <v>1473.0191424763393</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
       </c>
-      <c r="E223" t="s">
-        <v>3</v>
+      <c r="D223" t="s">
+        <v>42</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
-      </c>
-      <c r="G223" t="s">
-        <v>91</v>
-      </c>
-      <c r="H223" s="6">
-        <v>3.8947399607741801E-7</v>
+        <v>20</v>
+      </c>
+      <c r="H223" s="9">
+        <v>8.41886316451366E-3</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>68</v>
-      </c>
-      <c r="B224" s="12">
-        <v>6.3340000000000005E-7</v>
+        <v>19</v>
+      </c>
+      <c r="B224" s="6">
+        <f t="shared" si="5"/>
+        <v>6847.4249886422931</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
       </c>
-      <c r="E224" t="s">
-        <v>106</v>
+      <c r="D224" t="s">
+        <v>43</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" t="s">
-        <v>67</v>
+        <v>20</v>
+      </c>
+      <c r="H224" s="7">
+        <v>3.9135631266636398E-2</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B225" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1710942830160917E-7</v>
+        <f t="shared" si="5"/>
+        <v>1199.5475393157442</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
         <v>20</v>
       </c>
-      <c r="H225" s="6">
-        <v>1.0567174080415201E-6</v>
+      <c r="H225">
+        <v>6.8558692155560597E-3</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B226" s="6">
-        <f t="shared" si="4"/>
-        <v>6.9900993849038565E-10</v>
+        <f t="shared" si="5"/>
+        <v>0.55179186808524094</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F226" t="s">
         <v>20</v>
       </c>
-      <c r="H226" s="6">
-        <v>6.3073996783115798E-9</v>
+      <c r="H226" s="7">
+        <v>3.1536998391557799E-6</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B227" s="6">
-        <f t="shared" si="4"/>
-        <v>5.2425745386778862E-9</v>
+        <f t="shared" si="5"/>
+        <v>1.1738297265090631E-3</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F227" t="s">
         <v>20</v>
       </c>
-      <c r="H227" s="6">
-        <v>4.7305497587336797E-8</v>
+      <c r="H227" s="7">
+        <v>6.7088821597422201E-9</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B228" s="6">
-        <f t="shared" si="4"/>
-        <v>4.0132404331172179E-9</v>
+        <f t="shared" si="5"/>
+        <v>0.11035837361704856</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F228" t="s">
         <v>20</v>
       </c>
-      <c r="H228" s="6">
-        <v>3.6212806174827699E-8</v>
+      <c r="H228" s="7">
+        <v>6.3073996783115805E-7</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>118</v>
+      <c r="A229" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B229" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4493076581616401E-12</v>
+        <f t="shared" si="5"/>
+        <v>1.6772033996133781E-3</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F229" t="s">
         <v>20</v>
       </c>
-      <c r="H229" s="6">
-        <v>1.30775861021452E-11</v>
+      <c r="H229" s="7">
+        <v>9.5858536479467105E-9</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B230" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0922767808412895E-9</v>
+        <f t="shared" si="5"/>
+        <v>22.373887989738972</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F230" t="s">
         <v>20</v>
       </c>
-      <c r="H230" s="6">
-        <v>8.2042644152457905E-8</v>
+      <c r="H230">
+        <v>1.27875257022869E-4</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B231" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4171788547747766E-5</v>
+        <f t="shared" si="5"/>
+        <v>0.27589593404262047</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F231" t="s">
         <v>20</v>
       </c>
       <c r="H231" s="6">
-        <v>1.2787677199584401E-4</v>
+        <v>1.5768499195778899E-6</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B232" s="6">
-        <f t="shared" si="4"/>
-        <v>3.4950496924519175E-8</v>
+        <f t="shared" si="5"/>
+        <v>1.6998721031437136E-2</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
         <v>20</v>
       </c>
       <c r="H232" s="6">
-        <v>3.1536998391557802E-7</v>
+        <v>9.7154138876174502E-8</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B233" s="6">
-        <f t="shared" si="4"/>
-        <v>3.8445546616971109E-10</v>
+        <f t="shared" si="5"/>
+        <v>6.9458400948994221E-11</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F233" t="s">
         <v>20</v>
       </c>
       <c r="H233" s="6">
-        <v>3.46906982307136E-9</v>
+        <v>3.9698110931026202E-16</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B234" s="6">
-        <f t="shared" si="4"/>
-        <v>4.2947733124461767E-10</v>
+        <f t="shared" si="5"/>
+        <v>7.3343787633849784</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F234" t="s">
         <v>20</v>
       </c>
       <c r="H234" s="6">
-        <v>3.8753171189306E-9</v>
+        <v>4.1918756807089403E-5</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="s">
-        <v>121</v>
+      <c r="A235" t="s">
+        <v>29</v>
       </c>
       <c r="B235" s="6">
-        <f t="shared" si="4"/>
-        <v>9.3301032484451344E-4</v>
+        <f t="shared" si="5"/>
+        <v>11.095787130595255</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F235" t="s">
         <v>20</v>
       </c>
-      <c r="H235" s="9">
-        <v>8.41886316451366E-3</v>
+      <c r="H235" s="6">
+        <v>6.3416632453270098E-5</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B236" s="6">
-        <f t="shared" si="4"/>
-        <v>4.3371589878060286E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.7528647841714768</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F236" t="s">
         <v>20</v>
       </c>
-      <c r="H236" s="7">
-        <v>3.9135631266636398E-2</v>
+      <c r="H236" s="6">
+        <v>5.0025942494914798E-5</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B237" s="6">
-        <f t="shared" si="4"/>
-        <v>7.5979341140259237E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.2420227468097886</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F237" t="s">
         <v>20</v>
       </c>
-      <c r="H237">
-        <v>6.8558692155560597E-3</v>
+      <c r="H237" s="6">
+        <v>2.99601484719799E-5</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -5736,578 +5727,577 @@
         <v>122</v>
       </c>
       <c r="B238" s="6">
-        <f t="shared" si="4"/>
-        <v>3.4950496924519166E-7</v>
+        <f t="shared" si="5"/>
+        <v>22893668.691202644</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F238" t="s">
         <v>20</v>
       </c>
-      <c r="H238" s="7">
-        <v>3.1536998391557799E-6</v>
+      <c r="H238" s="6">
+        <v>130.84600090187999</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B239" s="6">
-        <f t="shared" si="4"/>
-        <v>7.4350374877084065E-10</v>
+        <f t="shared" si="5"/>
+        <v>0.62403689443764121</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
         <v>20</v>
       </c>
-      <c r="H239" s="7">
-        <v>6.7088821597422201E-9</v>
+      <c r="H239" s="6">
+        <v>3.5666075697064099E-6</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B240" s="6">
-        <f t="shared" si="4"/>
-        <v>6.9900993849038562E-8</v>
+        <f t="shared" si="5"/>
+        <v>7.7250861531933876E-2</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F240" t="s">
         <v>20</v>
       </c>
-      <c r="H240" s="7">
-        <v>6.3073996783115805E-7</v>
+      <c r="H240" s="6">
+        <v>4.4151797748180999E-7</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
-        <v>123</v>
+      <c r="A241" t="s">
+        <v>124</v>
       </c>
       <c r="B241" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0623406333151139E-9</v>
+        <f t="shared" si="5"/>
+        <v>6.0082845314484287E-3</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
         <v>20</v>
       </c>
-      <c r="H241" s="7">
-        <v>9.5858536479467105E-9</v>
+      <c r="H241" s="6">
+        <v>3.4339625239826703E-8</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B242" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4171620652700665E-5</v>
+        <f t="shared" si="5"/>
+        <v>5.2420227468097886</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F242" t="s">
         <v>20</v>
       </c>
-      <c r="H242">
-        <v>1.27875257022869E-4</v>
+      <c r="H242" s="6">
+        <v>2.99601484719799E-5</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B243" s="6">
-        <f t="shared" si="4"/>
-        <v>2.5832975984071405E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.2953267925213647E-2</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F243" t="s">
         <v>20</v>
       </c>
       <c r="H243" s="6">
-        <v>0.23309955329627099</v>
+        <v>3.0264801313222901E-7</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B244" s="6">
-        <f t="shared" si="4"/>
-        <v>1.7475248462259583E-7</v>
+        <f t="shared" si="5"/>
+        <v>2.7589593404262055E-4</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F244" t="s">
         <v>20</v>
       </c>
       <c r="H244" s="6">
-        <v>1.5768499195778899E-6</v>
+        <v>1.57684991957789E-9</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B245" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0766989901312282E-8</v>
+        <f t="shared" si="5"/>
+        <v>8.0825131351627681E-5</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F245" t="s">
         <v>20</v>
       </c>
       <c r="H245" s="6">
-        <v>9.7154138876174502E-8</v>
+        <v>4.61946285341045E-10</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B246" s="6">
-        <f t="shared" si="4"/>
-        <v>4.3994951161092939E-17</v>
+        <f t="shared" si="5"/>
+        <v>1.7582362926694162E-9</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F246" t="s">
         <v>20</v>
       </c>
       <c r="H246" s="6">
-        <v>3.9698110931026202E-16</v>
+        <v>1.00489873702394E-14</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="B247" s="6">
-        <f t="shared" si="4"/>
-        <v>4.6455955087280454E-6</v>
+        <f t="shared" si="5"/>
+        <v>0.44143349446819208</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F247" t="s">
         <v>20</v>
       </c>
       <c r="H247" s="6">
-        <v>4.1918756807089403E-5</v>
+        <v>2.5229598713246199E-6</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B248" s="6">
-        <f t="shared" si="4"/>
-        <v>7.0280715685190346E-6</v>
+        <f t="shared" si="5"/>
+        <v>5.2227258896705125E-2</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F248" t="s">
         <v>20</v>
       </c>
       <c r="H248" s="6">
-        <v>6.3416632453270098E-5</v>
+        <v>2.98498596134878E-7</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B249" s="6">
-        <f t="shared" si="4"/>
-        <v>5.5440645542942143E-6</v>
+        <f t="shared" si="5"/>
+        <v>6.5800223448262687E-3</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F249" t="s">
         <v>20</v>
       </c>
       <c r="H249" s="6">
-        <v>5.0025942494914798E-5</v>
+        <v>3.7607323722491603E-8</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B250" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3202972078293201E-6</v>
+        <f t="shared" si="5"/>
+        <v>48.832857186863002</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F250" t="s">
         <v>20</v>
       </c>
-      <c r="H250" s="6">
-        <v>2.99601484719799E-5</v>
+      <c r="H250" s="2">
+        <v>2.7909830275341498E-4</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B251" s="6">
-        <f t="shared" si="4"/>
-        <v>14.500849749007756</v>
+        <f t="shared" si="5"/>
+        <v>631.39375863893247</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D251" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F251" t="s">
         <v>20</v>
       </c>
-      <c r="H251" s="6">
-        <v>130.84600090187999</v>
+      <c r="H251" s="2">
+        <v>3.6086548393206102E-3</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B252" s="6">
-        <f t="shared" si="4"/>
-        <v>2.4513050837379274E-7</v>
+        <f t="shared" si="5"/>
+        <v>271.23076488657267</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F252" t="s">
         <v>20</v>
       </c>
       <c r="H252" s="6">
-        <v>2.2118942872261901E-6</v>
+        <v>1.55018670819691E-3</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B253" s="6">
-        <f t="shared" si="4"/>
-        <v>3.9526496893680195E-7</v>
+        <f t="shared" si="5"/>
+        <v>2805.8151608249559</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F253" t="s">
         <v>20</v>
       </c>
       <c r="H253" s="6">
-        <v>3.5666075697064099E-6</v>
+        <v>1.6036297983332299E-2</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B254" s="6">
-        <f t="shared" si="4"/>
-        <v>4.8930695694326925E-8</v>
+        <f t="shared" si="5"/>
+        <v>2440.8727551408833</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F254" t="s">
         <v>20</v>
       </c>
       <c r="H254" s="6">
-        <v>4.4151797748180999E-7</v>
+        <v>1.3950513700028601E-2</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B255" s="6">
-        <f t="shared" si="4"/>
-        <v>3.8056474222194348E-9</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F255" t="s">
         <v>20</v>
       </c>
       <c r="H255" s="6">
-        <v>3.4339625239826703E-8</v>
+        <v>2.72574047508097E-6</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B256" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3202972078293201E-6</v>
+        <f t="shared" si="5"/>
+        <v>2.7589593404262055E-4</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F256" t="s">
         <v>20</v>
       </c>
       <c r="H256" s="6">
-        <v>2.99601484719799E-5</v>
+        <v>1.57684991957789E-9</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B257" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3540599903830328E-8</v>
+        <f t="shared" si="5"/>
+        <v>5060.53860087254</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F257" t="s">
         <v>20</v>
       </c>
       <c r="H257" s="6">
-        <v>3.0264801313222901E-7</v>
+        <v>2.89228977349625E-2</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="B258" s="6">
-        <f t="shared" si="4"/>
-        <v>1.7475248462259587E-10</v>
+        <f t="shared" si="5"/>
+        <v>8.7525752122162004</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F258" t="s">
         <v>20</v>
       </c>
       <c r="H258" s="6">
-        <v>1.57684991957789E-9</v>
+        <v>5.0024287481346102E-5</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="B259" s="6">
-        <f t="shared" si="4"/>
-        <v>5.1194638198120977E-11</v>
+        <f t="shared" si="5"/>
+        <v>20.992081938025514</v>
       </c>
       <c r="C259" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D259" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F259" t="s">
         <v>20</v>
       </c>
-      <c r="H259" s="6">
-        <v>4.61946285341045E-10</v>
+      <c r="H259" s="2">
+        <v>1.1997771127223099E-4</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B260" s="6">
-        <f t="shared" si="4"/>
-        <v>1.8124613428687625E-3</v>
+        <f t="shared" si="5"/>
+        <v>20.992081938025514</v>
       </c>
       <c r="C260" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D260" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F260" t="s">
         <v>20</v>
       </c>
       <c r="H260" s="6">
-        <v>1.63544428504858E-2</v>
+        <v>1.1997771127223099E-4</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="B261" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1136668677768083E-15</v>
+        <f t="shared" si="5"/>
+        <v>1074.0524989970691</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D261" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F261" t="s">
         <v>20</v>
       </c>
       <c r="H261" s="6">
-        <v>1.00489873702394E-14</v>
+        <v>6.1386174556828698E-3</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B262" s="6">
-        <f t="shared" si="4"/>
-        <v>2.7960397539615287E-7</v>
+        <f t="shared" si="5"/>
+        <v>6.7891150343616327E-2</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D262" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F262" t="s">
         <v>20</v>
       </c>
       <c r="H262" s="6">
-        <v>2.5229598713246199E-6</v>
+        <v>3.8802367759013098E-7</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B263" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3080745785173031E-8</v>
+        <f t="shared" si="5"/>
+        <v>1074.0405182058325</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F263" t="s">
         <v>20</v>
       </c>
       <c r="H263" s="6">
-        <v>2.98498596134878E-7</v>
+        <v>6.1385489809162403E-3</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B264" s="6">
-        <f t="shared" si="4"/>
-        <v>4.1677861532129591E-9</v>
+        <f t="shared" si="5"/>
+        <v>11942.367029305999</v>
       </c>
       <c r="C264" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
       </c>
       <c r="H264" s="6">
-        <v>3.7607323722491603E-8</v>
+        <v>6.8255157710376907E-2</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B265" s="6">
-        <f t="shared" si="4"/>
-        <v>3.093073174215903E-5</v>
+        <f t="shared" si="5"/>
+        <v>0.1211654292197253</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D265" t="s">
         <v>44</v>
@@ -6315,478 +6305,101 @@
       <c r="F265" t="s">
         <v>20</v>
       </c>
-      <c r="H265" s="2">
-        <v>2.7909830275341498E-4</v>
+      <c r="H265" s="6">
+        <v>6.9250639007688098E-7</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="B266" s="6">
-        <f t="shared" ref="B266:B285" si="5">H266*0.09/0.8121</f>
-        <v>3.9992480672189985E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.0484045493619594</v>
       </c>
       <c r="C266" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F266" t="s">
         <v>20</v>
       </c>
-      <c r="H266" s="2">
-        <v>3.6086548393206102E-3</v>
+      <c r="H266" s="6">
+        <v>5.9920296943959903E-6</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B267" s="6">
         <f t="shared" si="5"/>
-        <v>1.7179756647915515E-4</v>
+        <v>0.16288344861257056</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
       </c>
       <c r="D267" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
       </c>
       <c r="H267" s="6">
-        <v>1.55018670819691E-3</v>
+        <v>9.3094069594234795E-7</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>134</v>
-      </c>
-      <c r="B268" s="6">
-        <f t="shared" si="5"/>
-        <v>1.7772033228665273E-3</v>
-      </c>
-      <c r="C268" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" t="s">
-        <v>45</v>
-      </c>
-      <c r="F268" t="s">
-        <v>20</v>
-      </c>
-      <c r="H268" s="6">
-        <v>1.6036297983332299E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>135</v>
-      </c>
-      <c r="B269" s="6">
-        <f t="shared" si="5"/>
-        <v>1.5460488031062355E-3</v>
-      </c>
-      <c r="C269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" t="s">
-        <v>45</v>
-      </c>
-      <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="H269" s="6">
-        <v>1.3950513700028601E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>136</v>
-      </c>
-      <c r="B270" s="12">
-        <v>6.3340000000000005E-7</v>
-      </c>
-      <c r="C270" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270" t="s">
-        <v>27</v>
-      </c>
-      <c r="F270" t="s">
-        <v>20</v>
-      </c>
-      <c r="H270" s="6">
-        <v>2.72574047508097E-6</v>
-      </c>
+      <c r="A268" s="8"/>
+      <c r="B268" s="7"/>
+    </row>
+    <row r="270" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>36</v>
-      </c>
-      <c r="B271" s="6">
-        <f t="shared" si="5"/>
-        <v>7.2150733312708901E-5</v>
-      </c>
-      <c r="C271" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" t="s">
-        <v>27</v>
-      </c>
-      <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="H271" s="6">
-        <v>6.5104011692501001E-4</v>
-      </c>
+      <c r="B271"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>137</v>
-      </c>
-      <c r="B272" s="6">
-        <f t="shared" si="5"/>
-        <v>1.7475248462259587E-10</v>
-      </c>
-      <c r="C272" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" t="s">
-        <v>45</v>
-      </c>
-      <c r="F272" t="s">
-        <v>20</v>
-      </c>
-      <c r="H272" s="6">
-        <v>1.57684991957789E-9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>138</v>
-      </c>
-      <c r="B273" s="6">
-        <f t="shared" si="5"/>
-        <v>8.7266460981070249E-6</v>
-      </c>
-      <c r="C273" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" t="s">
-        <v>27</v>
-      </c>
-      <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="H273" s="6">
-        <v>7.8743436625252394E-5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>30</v>
-      </c>
-      <c r="B274" s="6">
-        <f t="shared" si="5"/>
-        <v>3.2053451497926671E-3</v>
-      </c>
-      <c r="C274" t="s">
-        <v>7</v>
-      </c>
-      <c r="D274" t="s">
-        <v>44</v>
-      </c>
-      <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="H274" s="6">
-        <v>2.89228977349625E-2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>139</v>
-      </c>
-      <c r="B275" s="6">
-        <f t="shared" si="5"/>
-        <v>6.2133925134840259E-6</v>
-      </c>
-      <c r="C275" t="s">
-        <v>7</v>
-      </c>
-      <c r="D275" t="s">
-        <v>27</v>
-      </c>
-      <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="H275" s="6">
-        <v>5.6065511780004198E-5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>38</v>
-      </c>
-      <c r="B276" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5438811394177421E-6</v>
-      </c>
-      <c r="C276" t="s">
-        <v>7</v>
-      </c>
-      <c r="D276" t="s">
-        <v>44</v>
-      </c>
-      <c r="F276" t="s">
-        <v>20</v>
-      </c>
-      <c r="H276" s="6">
-        <v>5.0024287481346102E-5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>62</v>
-      </c>
-      <c r="B277" s="6">
-        <f t="shared" si="5"/>
-        <v>1.3296384699545361E-5</v>
-      </c>
-      <c r="C277" t="s">
-        <v>65</v>
-      </c>
-      <c r="D277" t="s">
-        <v>66</v>
-      </c>
-      <c r="F277" t="s">
-        <v>20</v>
-      </c>
-      <c r="H277" s="2">
-        <v>1.1997771127223099E-4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>63</v>
-      </c>
-      <c r="B278" s="6">
-        <f t="shared" si="5"/>
-        <v>1.3296384699545361E-5</v>
-      </c>
-      <c r="C278" t="s">
-        <v>65</v>
-      </c>
-      <c r="D278" t="s">
-        <v>66</v>
-      </c>
-      <c r="F278" t="s">
-        <v>20</v>
-      </c>
-      <c r="H278" s="6">
-        <v>1.1997771127223099E-4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>21</v>
-      </c>
-      <c r="B279" s="6">
-        <f t="shared" si="5"/>
-        <v>6.8030485286474352E-4</v>
-      </c>
-      <c r="C279" t="s">
-        <v>22</v>
-      </c>
-      <c r="D279" t="s">
-        <v>45</v>
-      </c>
-      <c r="F279" t="s">
-        <v>20</v>
-      </c>
-      <c r="H279" s="6">
-        <v>6.1386174556828698E-3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>21</v>
-      </c>
-      <c r="B280" s="6">
-        <f t="shared" si="5"/>
-        <v>4.3002254627646582E-8</v>
-      </c>
-      <c r="C280" t="s">
-        <v>22</v>
-      </c>
-      <c r="D280" t="s">
-        <v>44</v>
-      </c>
-      <c r="F280" t="s">
-        <v>20</v>
-      </c>
-      <c r="H280" s="6">
-        <v>3.8802367759013098E-7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>21</v>
-      </c>
-      <c r="B281" s="6">
-        <f t="shared" si="5"/>
-        <v>6.802972642315744E-4</v>
-      </c>
-      <c r="C281" t="s">
-        <v>22</v>
-      </c>
-      <c r="D281" t="s">
-        <v>43</v>
-      </c>
-      <c r="F281" t="s">
-        <v>20</v>
-      </c>
-      <c r="H281" s="6">
-        <v>6.1385489809162403E-3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>33</v>
-      </c>
-      <c r="B282" s="6">
-        <f t="shared" si="5"/>
-        <v>7.5642952763624203E-3</v>
-      </c>
-      <c r="C282" t="s">
-        <v>22</v>
-      </c>
-      <c r="D282" t="s">
-        <v>46</v>
-      </c>
-      <c r="F282" t="s">
-        <v>20</v>
-      </c>
-      <c r="H282" s="6">
-        <v>6.8255157710376907E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>32</v>
-      </c>
-      <c r="B283" s="6">
-        <f t="shared" si="5"/>
-        <v>7.6746182867774008E-8</v>
-      </c>
-      <c r="C283" t="s">
-        <v>22</v>
-      </c>
-      <c r="D283" t="s">
-        <v>46</v>
-      </c>
-      <c r="F283" t="s">
-        <v>20</v>
-      </c>
-      <c r="H283" s="6">
-        <v>6.9250639007688098E-7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>140</v>
-      </c>
-      <c r="B284" s="6">
-        <f t="shared" si="5"/>
-        <v>6.6405944156586509E-7</v>
-      </c>
-      <c r="C284" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" t="s">
-        <v>45</v>
-      </c>
-      <c r="F284" t="s">
-        <v>20</v>
-      </c>
-      <c r="H284" s="6">
-        <v>5.9920296943959903E-6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>140</v>
-      </c>
-      <c r="B285" s="6">
-        <f t="shared" si="5"/>
-        <v>1.031703763512022E-7</v>
-      </c>
-      <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" t="s">
-        <v>44</v>
-      </c>
-      <c r="F285" t="s">
-        <v>20</v>
-      </c>
-      <c r="H285" s="6">
-        <v>9.3094069594234795E-7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
-      <c r="B286" s="7"/>
-    </row>
-    <row r="288" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B289"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B290"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B291"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B292"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B293"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="3"/>
-      <c r="B294"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B295"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="6"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="6"/>
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B277"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="6"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19"/>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6799,28 +6412,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10">
         <v>5.8415999999999997</v>
@@ -6839,7 +6452,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>0.84019999999999995</v>
@@ -6858,7 +6471,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>1500</v>
@@ -6877,7 +6490,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6885,23 +6498,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14" s="10">
         <v>5.8415999999999997</v>
@@ -6920,7 +6533,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15">
         <v>0.84019999999999995</v>
@@ -6939,7 +6552,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>1500</v>
@@ -6958,23 +6571,23 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
         <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="10">
         <v>5.8415999999999997</v>
@@ -6993,7 +6606,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21">
         <v>0.84019999999999995</v>
@@ -7012,7 +6625,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>1500</v>

--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D9A5AF-8D3E-48B7-A521-D5C2F9932CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3705" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="30240" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rhenium!$A$1:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="143">
   <si>
     <t>Activity</t>
   </si>
@@ -150,6 +148,9 @@
     <t>COD, Chemical Oxygen Demand</t>
   </si>
   <si>
+    <t>Selenium</t>
+  </si>
+  <si>
     <t>BOD5, Biological Oxygen Demand</t>
   </si>
   <si>
@@ -162,6 +163,9 @@
     <t>Fluorine</t>
   </si>
   <si>
+    <t>Copper</t>
+  </si>
+  <si>
     <t>Cyanide</t>
   </si>
   <si>
@@ -339,6 +343,9 @@
     <t>Rhenium, in ground</t>
   </si>
   <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -411,6 +418,9 @@
     <t>Gangue</t>
   </si>
   <si>
+    <t>Gold</t>
+  </si>
+  <si>
     <t>Iron ion</t>
   </si>
   <si>
@@ -442,6 +452,12 @@
   </si>
   <si>
     <t>Selenium IV</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Tellurium</t>
   </si>
   <si>
     <t>Zinc II</t>
@@ -456,7 +472,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,8 +563,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Per cent 2" xfId="2"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -826,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R298"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -860,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -868,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -876,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -892,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -932,40 +948,37 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12">
-        <f>0.00000041581/H11</f>
-        <v>1</v>
+        <v>4.1581000000000002E-7</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4.1581000000000002E-7</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6">
-        <f>H12*0.07/0.9509/$H$11</f>
-        <v>7.5784534816423303E-5</v>
+        <f>H12*0.07/0.9509</f>
+        <v>3.1511967422016977E-11</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -977,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H12" s="7">
         <v>4.2806756887994201E-10</v>
@@ -986,11 +999,11 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509/$H$11</f>
-        <v>2.0468967736776197E-2</v>
+        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509</f>
+        <v>8.5112014746289104E-9</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1002,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>1.1561859260320899E-7</v>
@@ -1011,11 +1024,11 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>7574.2638534545513</v>
+        <v>3.149454652904937E-3</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1027,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>4.2783091849247203E-2</v>
@@ -1037,11 +1050,11 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>1.5753017169421294E-2</v>
+        <v>6.550262069217069E-9</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1053,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>8.8980631451693004E-8</v>
@@ -1061,11 +1074,11 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>5825.4473288128647</v>
+        <v>2.4222792537936773E-3</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1077,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>3.2904933463320102E-2</v>
@@ -1085,11 +1098,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>2037.8050345122117</v>
+        <v>8.4733971140052281E-4</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1101,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>1.1510504736725101E-2</v>
@@ -1109,14 +1122,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.68249897759501399</v>
+        <v>2.8378989987378276E-7</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -1125,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>3.8550830827139996E-6</v>
@@ -1133,11 +1146,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>7.0035766196542087E-2</v>
+        <v>2.9121571942184168E-8</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1149,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>3.9559575371175598E-7</v>
@@ -1158,11 +1171,11 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>3.4799847019721657E-2</v>
+        <v>1.4470124389270461E-8</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1174,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>1.96566304025104E-7</v>
@@ -1187,7 +1200,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>495.28408151531085</v>
+        <v>2.0594407393488142E-4</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1208,11 +1221,11 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>3.4100737587298736E-2</v>
+        <v>1.4179427696174688E-8</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1224,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>1.9261739708989301E-7</v>
@@ -1234,23 +1247,23 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>116937.41886882656</v>
+        <v>4.8623748139846774E-2</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7">
         <v>0.66051888723114704</v>
@@ -1264,13 +1277,13 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>65481.178427797509</v>
+        <v>2.7227728802062482E-2</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1285,11 +1298,11 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>0.28782774458452803</v>
+        <v>1.1968165447569261E-7</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1301,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>1.62578978915623E-6</v>
@@ -1310,11 +1323,11 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>9829.4208874972064</v>
+        <v>4.0871714992302133E-3</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1326,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" s="7">
         <v>5.55213054088287E-2</v>
@@ -1335,11 +1348,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>8.5113951634554127E-5</v>
+        <v>3.5391232229163953E-11</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1351,7 +1364,7 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H27" s="7">
         <v>4.8076461038159999E-10</v>
@@ -1360,11 +1373,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>3.7132682421164448E-5</v>
+        <v>1.544014067754439E-11</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1376,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H28" s="7">
         <v>2.09743282432528E-10</v>
@@ -1385,11 +1398,11 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>-15490200.547525952</v>
+        <v>-6.4409802896667658</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1401,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H29" s="7">
         <v>-87.496116534916098</v>
@@ -1410,11 +1423,11 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
-        <v>3.3367754549774132E-4</v>
+        <v>1.3874646019341583E-10</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1426,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H30" s="7">
         <v>1.88477155711313E-9</v>
@@ -1435,11 +1448,11 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>265.59037721154476</v>
+        <v>1.1043513474833243E-4</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1451,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H31" s="7">
         <v>1.50018242331699E-3</v>
@@ -1460,11 +1473,11 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>6525.2900515601223</v>
+        <v>2.7132808563392146E-3</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1476,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H32" s="7">
         <v>3.6857982375613697E-2</v>
@@ -1485,23 +1498,23 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>-8773923.1011663582</v>
+        <v>-3.6482849646959834</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H33" s="7">
         <v>-49.559345327563001</v>
@@ -1510,11 +1523,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
-        <v>5.087165083642041E-2</v>
+        <v>2.115294113429197E-8</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1526,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H34" s="7">
         <v>2.87347596065689E-7</v>
@@ -1535,17 +1548,17 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
-        <v>0.13847202668331651</v>
+        <v>5.7578053415189837E-8</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -1557,17 +1570,17 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" si="0"/>
-        <v>8.2384918467582344E-4</v>
+        <v>3.4256472948005415E-10</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
@@ -1579,17 +1592,17 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" si="0"/>
-        <v>6.1788688850686812E-3</v>
+        <v>2.5692354711004083E-9</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -1601,17 +1614,17 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B38" s="6">
         <f t="shared" si="0"/>
-        <v>4.7299826178038608E-3</v>
+        <v>1.9667740723090234E-9</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -1623,17 +1636,17 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>1.7081458599852634E-6</v>
+        <v>7.1026413004047242E-13</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
@@ -1645,17 +1658,17 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" si="0"/>
-        <v>1.0716106310190961E-2</v>
+        <v>4.4558641648405037E-9</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
@@ -1667,17 +1680,17 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="6">
         <f t="shared" si="0"/>
-        <v>16.702790328954471</v>
+        <v>6.9451872466825583E-6</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -1693,13 +1706,13 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" si="0"/>
-        <v>4.1192459233791091E-2</v>
+        <v>1.7128236474002673E-8</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
@@ -1711,17 +1724,17 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B43" s="6">
         <f t="shared" si="0"/>
-        <v>4.531170515717034E-4</v>
+        <v>1.8841060121402999E-10</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -1733,17 +1746,17 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B44" s="6">
         <f t="shared" si="0"/>
-        <v>5.0617956870078963E-4</v>
+        <v>2.1047452646147537E-10</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
@@ -1755,17 +1768,17 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B45" s="6">
         <f t="shared" si="0"/>
-        <v>1099.6407248190355</v>
+        <v>4.5724160978700317E-4</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
@@ -1781,13 +1794,13 @@
       </c>
       <c r="B46" s="6">
         <f t="shared" si="0"/>
-        <v>5111.7512057556696</v>
+        <v>2.1255172688652651E-3</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
@@ -1799,17 +1812,17 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="6">
         <f t="shared" si="0"/>
-        <v>895.48824421285246</v>
+        <v>3.7235296682614622E-4</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
@@ -1821,17 +1834,17 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B48" s="6">
         <f t="shared" si="0"/>
-        <v>0.41192459233791096</v>
+        <v>1.7128236474002675E-7</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
@@ -1843,17 +1856,17 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B49" s="6">
         <f t="shared" si="0"/>
-        <v>8.7628933939213585E-4</v>
+        <v>3.6436987021264404E-10</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
@@ -1865,17 +1878,17 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" si="0"/>
-        <v>8.2384918467582544E-2</v>
+        <v>3.4256472948005499E-8</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
@@ -1887,17 +1900,17 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" si="0"/>
-        <v>1.2520686994734256E-3</v>
+        <v>5.2062268592804513E-10</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -1913,13 +1926,13 @@
       </c>
       <c r="B52" s="6">
         <f t="shared" si="0"/>
-        <v>16.702592448795588</v>
+        <v>6.9451049661336942E-6</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -1931,708 +1944,711 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B53" s="6">
         <f t="shared" si="0"/>
-        <v>0.20596229616895548</v>
+        <v>2.0081760163705165E-2</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="H53" s="7">
-        <v>1.16337429022351E-6</v>
-      </c>
-      <c r="L53" s="6"/>
+        <v>0.27279636770953197</v>
+      </c>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="0"/>
-        <v>1.2689913781148619E-2</v>
+        <v>8.5641182370013377E-8</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="7">
-        <v>7.1678747580240596E-8</v>
-      </c>
-      <c r="L54" s="2"/>
+        <v>1.16337429022351E-6</v>
+      </c>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B55" s="6">
         <f t="shared" si="0"/>
-        <v>5.185220216209793E-11</v>
+        <v>5.276593049339407E-9</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="7">
-        <v>2.9288622242476801E-16</v>
-      </c>
-      <c r="L55" s="6"/>
+        <v>7.1678747580240596E-8</v>
+      </c>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B56" s="6">
         <f t="shared" si="0"/>
-        <v>5.4752727557276648</v>
+        <v>2.1560664181021941E-17</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="7">
-        <v>3.0926978745418101E-5</v>
-      </c>
-      <c r="L56" s="2"/>
+        <v>2.9288622242476801E-16</v>
+      </c>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" si="0"/>
-        <v>8.2832456489420867</v>
+        <v>2.2766731645591203E-6</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="7">
-        <v>4.6787762647974799E-5</v>
+        <v>3.0926978745418101E-5</v>
       </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" si="0"/>
-        <v>6.5342033229306526</v>
+        <v>3.4442563732866091E-6</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="7">
-        <v>3.69083288271106E-5</v>
-      </c>
-      <c r="L58" s="6"/>
+        <v>4.6787762647974799E-5</v>
+      </c>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" si="0"/>
-        <v>3.9132836272101557</v>
+        <v>2.716987083707795E-6</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="7">
-        <v>2.21041115142467E-5</v>
-      </c>
-      <c r="L59" s="2"/>
+        <v>3.69083288271106E-5</v>
+      </c>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" si="0"/>
-        <v>17071478.326140258</v>
+        <v>1.6271824650302548E-6</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="7">
-        <v>96.427935355932505</v>
+        <v>2.21041115142467E-5</v>
       </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="0"/>
-        <v>0.46585707077751004</v>
+        <v>7.0984914027923818</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="7">
-        <v>2.63138520565338E-6</v>
+        <v>96.427935355932505</v>
       </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="6">
         <f t="shared" si="0"/>
-        <v>5.7669442927307732E-2</v>
+        <v>1.9060488262470242E-7</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="7">
-        <v>3.2574480126258397E-7</v>
-      </c>
-      <c r="L62" s="2"/>
+        <v>2.58923118411185E-6</v>
+      </c>
+      <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B63" s="6">
         <f t="shared" si="0"/>
-        <v>4.4853146619492036E-3</v>
+        <v>1.9370802859999645E-7</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7">
-        <v>2.5335218427520999E-8</v>
-      </c>
-      <c r="L63" s="6"/>
+        <v>2.63138520565338E-6</v>
+      </c>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B64" s="6">
         <f t="shared" si="0"/>
-        <v>3.9132836272101557</v>
+        <v>2.3979531063603829E-8</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="H64" s="7">
-        <v>2.21041115142467E-5</v>
+        <v>3.2574480126258397E-7</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B65" s="6">
         <f t="shared" si="0"/>
-        <v>3.9530762529621233E-2</v>
-      </c>
-      <c r="C65" s="8" t="s">
+        <v>1.8650386895850984E-9</v>
+      </c>
+      <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="7">
-        <v>2.23288794382863E-7</v>
-      </c>
-      <c r="L65" s="2"/>
+        <v>2.5335218427520999E-8</v>
+      </c>
+      <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" si="0"/>
-        <v>2.0596229616895545E-4</v>
-      </c>
-      <c r="C66" s="8" t="s">
+        <v>1.6271824650302548E-6</v>
+      </c>
+      <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="H66" s="7">
-        <v>1.16337429022351E-9</v>
+        <v>2.21041115142467E-5</v>
       </c>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="0"/>
-        <v>6.0337712837649404E-5</v>
+        <v>1.6437286367441806E-8</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="7">
-        <v>3.40816475402991E-10</v>
+        <v>2.23288794382863E-7</v>
       </c>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="0"/>
-        <v>1.3125615109276808E-9</v>
+        <v>8.564118237001337E-11</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="7">
-        <v>7.4139798621081407E-15</v>
+        <v>1.16337429022351E-9</v>
       </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="0"/>
-        <v>0.3295396738703294</v>
+        <v>2.5089024375023E-11</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="H69" s="7">
-        <v>1.8613988643576201E-6</v>
+        <v>3.40816475402991E-10</v>
       </c>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B70" s="6">
         <f t="shared" si="0"/>
-        <v>3.898878105001051E-2</v>
+        <v>3.1182633185486143E-4</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="7">
-        <v>2.2022742183611699E-7</v>
+        <v>4.2359379851541097E-3</v>
       </c>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" si="0"/>
-        <v>4.9121293348748452E-3</v>
+        <v>5.4577620185883896E-16</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="7">
-        <v>2.7746073357806499E-8</v>
-      </c>
-      <c r="L71" s="6"/>
+        <v>7.4139798621081407E-15</v>
+      </c>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" si="0"/>
-        <v>36.454786583202235</v>
+        <v>1.3702589179202168E-7</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="7">
-        <v>2.0591420010045001E-4</v>
+        <v>1.8613988643576201E-6</v>
       </c>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" si="0"/>
-        <v>471.34912940012015</v>
+        <v>1.6211925048404871E-8</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="7">
-        <v>2.6624069990631E-3</v>
+        <v>2.2022742183611699E-7</v>
       </c>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="B74" s="6">
         <f t="shared" si="0"/>
-        <v>202.47964625339696</v>
+        <v>2.0425124987343096E-9</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="7">
-        <v>1.14370260541045E-3</v>
-      </c>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.7746073357806499E-8</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" si="0"/>
-        <v>2094.6018474484154</v>
-      </c>
-      <c r="C75" s="5" t="s">
+        <v>1.5158264809161323E-5</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="H75" s="7">
-        <v>1.18313205033274E-2</v>
-      </c>
+        <v>2.0591420010045001E-4</v>
+      </c>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="B76" s="6">
         <f t="shared" si="0"/>
-        <v>1822.1644296773231</v>
+        <v>1.9599168149586396E-4</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="7">
-        <v>1.02924626957325E-2</v>
-      </c>
+        <v>2.6624069990631E-3</v>
+      </c>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>133</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" ref="B77:B88" si="1">H77*0.07/0.9509/$H$11</f>
-        <v>2.0596229616895545E-4</v>
+        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509</f>
+        <v>8.4193061708624998E-5</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="H77" s="7">
-        <v>1.16337429022351E-9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.14370260541045E-3</v>
+      </c>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="B78" s="6">
         <f t="shared" si="1"/>
-        <v>3777.8017777033665</v>
-      </c>
-      <c r="C78" s="8" t="s">
+        <v>8.7095639418752571E-4</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="7">
-        <v>2.1338844747270901E-2</v>
+        <v>1.18313205033274E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B79" s="6">
         <f t="shared" si="1"/>
-        <v>6.5339871511881444</v>
+        <v>7.5767419150412772E-4</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="H79" s="7">
-        <v>3.6907107784948099E-5</v>
+        <v>1.02924626957325E-2</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B80" s="6">
         <f t="shared" si="1"/>
-        <v>15.671044273724918</v>
+        <v>5.6101878732224454E-5</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="7">
-        <v>8.8517609038745603E-5</v>
+        <v>7.6210394980674603E-4</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="B81" s="6">
         <f t="shared" si="1"/>
-        <v>15.671044273724918</v>
+        <v>8.564118237001337E-11</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="H81" s="7">
-        <v>8.8517609038745603E-5</v>
+        <v>1.16337429022351E-9</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="B82" s="6">
         <f t="shared" si="1"/>
-        <v>801.80347589054361</v>
+        <v>6.7855338214394308E-6</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="7">
-        <v>4.5289723751074798E-3</v>
+        <v>9.21766301543822E-5</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B83" s="6">
         <f t="shared" si="1"/>
-        <v>5.0682215607290811E-2</v>
+        <v>1.5708477571868369E-3</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="7">
-        <v>2.8627757461355301E-7</v>
+        <v>2.1338844747270901E-2</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B84" s="6">
         <f t="shared" si="1"/>
-        <v>801.79453197014232</v>
-      </c>
-      <c r="C84" t="s">
-        <v>22</v>
+        <v>4.8329695505373162E-6</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="7">
-        <v>4.5289218555354897E-3</v>
+        <v>6.5652439222941899E-5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B85" s="6">
         <f t="shared" si="1"/>
-        <v>8899.8549622233986</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
+        <v>2.7168971973355424E-6</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D85" t="s">
         <v>44</v>
@@ -2641,327 +2657,309 @@
         <v>20</v>
       </c>
       <c r="H85" s="7">
-        <v>5.0270669158180903E-2</v>
+        <v>3.6907107784948099E-5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B86" s="6">
         <f t="shared" si="1"/>
-        <v>8.9820480457371191E-2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>22</v>
+        <v>6.5161769194575589E-6</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="7">
-        <v>5.0734935298016596E-7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.8517609038745603E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="B87" s="6">
         <f t="shared" si="1"/>
-        <v>0.78265672544203291</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>7</v>
+        <v>6.5161769194575589E-6</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="7">
-        <v>4.4208223028493503E-6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.8517609038745603E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="B88" s="6">
         <f t="shared" si="1"/>
-        <v>0.12159602569199424</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>7</v>
+        <v>3.3339790331004697E-4</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="H88" s="7">
+        <v>4.5289723751074798E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1074172071667593E-8</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="7">
+        <v>2.8627757461355301E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="6">
+        <f t="shared" si="1"/>
+        <v>3.333941843385049E-4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="7">
+        <v>4.5289218555354897E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7006486918421113E-3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="7">
+        <v>5.0270669158180903E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7348253978979514E-8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="7">
+        <v>5.0734935298016596E-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="6">
+        <f t="shared" si="1"/>
+        <v>3.254364930060517E-7</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="7">
+        <v>4.4208223028493503E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0560843442988125E-8</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="7">
         <v>6.8683294328482002E-7</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="12">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="12">
+        <v>4.1581000000000002E-7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
         <v>27</v>
       </c>
-      <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98"/>
+      <c r="B98" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="6">
-        <f>H100*0.01/76.2/$H$123</f>
-        <v>3.1202638958231059E-7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>95</v>
-      </c>
-      <c r="H100" s="6">
-        <v>2.17799056640602E-10</v>
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="6">
-        <f t="shared" ref="B101:B122" si="2">H101*0.01/76.2/$H$123</f>
-        <v>8.4276536325706154E-5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>83</v>
-      </c>
-      <c r="H101" s="6">
-        <v>5.8826274704672697E-8</v>
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" s="6">
-        <f t="shared" si="2"/>
-        <v>45.756993533221056</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s">
-        <v>56</v>
-      </c>
-      <c r="H102" s="6">
-        <v>3.1939061435112201E-2</v>
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" s="6">
-        <f t="shared" si="2"/>
-        <v>9.516577699114299E-5</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>86</v>
-      </c>
-      <c r="H103" s="6">
-        <v>6.6427126503263895E-8</v>
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" s="6">
-        <f t="shared" si="2"/>
-        <v>35.192193051346642</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>55</v>
-      </c>
-      <c r="H104" s="6">
-        <v>2.45646737058287E-2</v>
-      </c>
+      <c r="A104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>45</v>
-      </c>
-      <c r="B105" s="6">
-        <f t="shared" si="2"/>
-        <v>8.3902203679385412</v>
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>51</v>
-      </c>
-      <c r="H105" s="6">
-        <v>5.8564984954957702E-3</v>
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B106" s="6">
-        <f t="shared" si="2"/>
-        <v>2.8100415525205437E-3</v>
+        <f>H106*0.01/76.2</f>
+        <v>2.8582553364908397E-14</v>
       </c>
       <c r="C106" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
@@ -2970,70 +2968,70 @@
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H106" s="6">
-        <v>1.9614507608768098E-6</v>
+        <v>2.17799056640602E-10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" si="2"/>
-        <v>4.2309406735121363E-4</v>
+        <f t="shared" ref="B107:B170" si="2">H107*0.01/76.2</f>
+        <v>7.7199835570436614E-12</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H107" s="6">
-        <v>2.9532594618898798E-7</v>
+        <v>5.8826274704672697E-8</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B108" s="6">
         <f t="shared" si="2"/>
-        <v>2.102298528077067E-4</v>
+        <v>4.1914778786236484E-6</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H108" s="6">
-        <v>1.4674356127539201E-7</v>
+        <v>3.1939061435112201E-2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B109" s="6">
         <f t="shared" si="2"/>
-        <v>2.9920677379976981</v>
+        <v>8.7174706697196712E-12</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
@@ -3042,19 +3040,19 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H109" s="6">
-        <v>2.08850774324898E-3</v>
+        <v>6.6427126503263895E-8</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B110" s="6">
         <f t="shared" si="2"/>
-        <v>1.4040239287914415E-4</v>
+        <v>3.2237104600825065E-6</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3066,67 +3064,67 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H110" s="6">
-        <v>9.8002956609200806E-8</v>
+        <v>2.45646737058287E-2</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B111" s="6">
         <f t="shared" si="2"/>
-        <v>481.46446639937579</v>
+        <v>7.6856935636427419E-7</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H111" s="6">
-        <v>0.33606935210873501</v>
+        <v>5.8564984954957702E-3</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B112" s="6">
         <f t="shared" si="2"/>
-        <v>395.5792821373488</v>
+        <v>2.5740823633553939E-10</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H112" s="6">
-        <v>0.27612021724000202</v>
+        <v>1.9614507608768098E-6</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B113" s="6">
         <f t="shared" si="2"/>
-        <v>1.7388002982796954E-3</v>
+        <v>3.8756685851573222E-11</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -3138,19 +3136,19 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H113" s="6">
-        <v>1.21370844677166E-6</v>
+        <v>2.9532594618898798E-7</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B114" s="6">
         <f t="shared" si="2"/>
-        <v>59.380654897490146</v>
+        <v>1.9257685206744357E-11</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -3162,22 +3160,22 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H114" s="6">
-        <v>4.1448579514979898E-2</v>
+        <v>1.4674356127539201E-7</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B115" s="6">
         <f t="shared" si="2"/>
-        <v>3.5043824041337021E-7</v>
+        <v>2.7408238100380316E-7</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E115" t="s">
         <v>3</v>
@@ -3186,22 +3184,22 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H115" s="6">
-        <v>2.4461109932078497E-10</v>
+        <v>2.08850774324898E-3</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B116" s="6">
         <f t="shared" si="2"/>
-        <v>1.5288576830944114E-7</v>
+        <v>1.2861280394908242E-11</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
         <v>3</v>
@@ -3210,25 +3208,25 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="H116" s="6">
-        <v>1.06716538162507E-10</v>
+        <v>9.8002956609200806E-8</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B117" s="6">
         <f t="shared" si="2"/>
-        <v>-63777.54198080796</v>
+        <v>4.4103589515582022E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -3236,116 +3234,116 @@
       <c r="G117" t="s">
         <v>92</v>
       </c>
-      <c r="H117" s="2">
-        <v>-44.517672036877798</v>
+      <c r="H117" s="6">
+        <v>0.33606935210873501</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B118" s="6">
         <f t="shared" si="2"/>
-        <v>2.0157841853578447E-6</v>
+        <v>3.6236248981627562E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H118" s="6">
-        <v>1.40704731593277E-9</v>
+        <v>0.27612021724000202</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B119" s="6">
         <f t="shared" si="2"/>
-        <v>1.6044618206707519</v>
+        <v>1.5927932372331495E-10</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H119" s="6">
-        <v>1.1199381931308401E-3</v>
+        <v>1.21370844677166E-6</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B120" s="6">
         <f t="shared" si="2"/>
-        <v>26.866466894567971</v>
+        <v>5.43944613057479E-6</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="H120" s="6">
-        <v>1.8753193128106499E-2</v>
+        <v>4.1448579514979898E-2</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B121" s="6">
         <f t="shared" si="2"/>
-        <v>-35728.942600814684</v>
+        <v>3.2101194136585955E-14</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H121" s="6">
-        <v>-24.9393328674557</v>
+        <v>2.4461109932078497E-10</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B122" s="6">
         <f t="shared" si="2"/>
-        <v>2.0945299170907049E-4</v>
+        <v>1.4004795034449737E-14</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E122" t="s">
         <v>3</v>
@@ -3354,202 +3352,217 @@
         <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H122" s="6">
-        <v>1.4620130068438801E-7</v>
+        <v>1.06716538162507E-10</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>66</v>
-      </c>
-      <c r="B123" s="12">
-        <f>0.000000091603/H123</f>
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="B123" s="6">
+        <f t="shared" si="2"/>
+        <v>-5.842214178067952E-3</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>65</v>
-      </c>
-      <c r="H123" s="12">
-        <v>9.1603000000000003E-8</v>
+        <v>94</v>
+      </c>
+      <c r="H123" s="2">
+        <v>-44.517672036877798</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B124" s="6">
-        <f>H124*0.01/76.2/$H$123</f>
-        <v>5.6993268113568246E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8465187873133465E-13</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
-      <c r="D124" t="s">
-        <v>42</v>
+      <c r="E124" t="s">
+        <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="H124" s="7">
-        <v>3.9782148063234802E-7</v>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>93</v>
+      </c>
+      <c r="H124" s="6">
+        <v>1.40704731593277E-9</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B125" s="6">
-        <f t="shared" ref="B125:B178" si="3">H125*0.01/76.2/$H$123</f>
-        <v>3.3920203809051997E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.469735161589029E-7</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
-      <c r="D125" t="s">
-        <v>43</v>
+      <c r="E125" t="s">
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="7">
-        <v>2.3676806312946898E-9</v>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>95</v>
+      </c>
+      <c r="H125" s="6">
+        <v>1.1199381931308401E-3</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B126" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5440152856788896E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.46104896694311E-6</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
-      <c r="D126" t="s">
-        <v>43</v>
+      <c r="E126" t="s">
+        <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="H126" s="7">
-        <v>1.7757604734710101E-8</v>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>99</v>
+      </c>
+      <c r="H126" s="6">
+        <v>1.8753193128106499E-2</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B127" s="6">
-        <f t="shared" si="3"/>
-        <v>1.9474677816463676E-5</v>
+        <f t="shared" si="2"/>
+        <v>-3.2728783290624278E-3</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
-      <c r="D127" t="s">
-        <v>42</v>
+      <c r="E127" t="s">
+        <v>103</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="7">
-        <v>1.3593614509604001E-8</v>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>96</v>
+      </c>
+      <c r="H127" s="6">
+        <v>-24.9393328674557</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B128" s="6">
-        <f t="shared" si="3"/>
-        <v>7.0329201975343907E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.9186522399525986E-11</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
-      <c r="D128" t="s">
-        <v>43</v>
+      <c r="E128" t="s">
+        <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" s="7">
-        <v>4.9090828070731402E-12</v>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>91</v>
+      </c>
+      <c r="H128" s="6">
+        <v>1.4620130068438801E-7</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>116</v>
-      </c>
-      <c r="B129" s="6">
-        <f t="shared" si="3"/>
-        <v>4.4121244135742472E-5</v>
+        <v>68</v>
+      </c>
+      <c r="B129" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
-      <c r="D129" t="s">
-        <v>43</v>
+      <c r="E129" t="s">
+        <v>103</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="7">
-        <v>3.0797284048436102E-8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>67</v>
+      </c>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B130" s="6">
-        <f t="shared" si="3"/>
-        <v>6.8770117477379489E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2207543390071923E-11</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
       </c>
       <c r="H130" s="7">
-        <v>4.8002563923156597E-5</v>
+        <v>3.9782148063234802E-7</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="B131" s="6">
-        <f t="shared" si="3"/>
-        <v>1.6960101904525926E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.1071924295205902E-13</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="H131" s="7">
-        <v>1.1838403156473399E-7</v>
+        <v>2.3676806312946898E-9</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3557,20 +3570,20 @@
         <v>117</v>
       </c>
       <c r="B132" s="6">
-        <f t="shared" si="3"/>
-        <v>1.8656112094978467E-6</v>
+        <f t="shared" si="2"/>
+        <v>2.3303943221404332E-12</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
       <c r="H132" s="7">
-        <v>1.3022243472120701E-9</v>
+        <v>1.7757604734710101E-8</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3578,20 +3591,20 @@
         <v>117</v>
       </c>
       <c r="B133" s="6">
-        <f t="shared" si="3"/>
-        <v>2.0840846181166974E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.7839389120215222E-12</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
       <c r="H133" s="7">
-        <v>1.45472203294288E-9</v>
+        <v>1.3593614509604001E-8</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -3599,104 +3612,104 @@
         <v>118</v>
       </c>
       <c r="B134" s="6">
-        <f t="shared" si="3"/>
-        <v>4.5275322469697423</v>
+        <f t="shared" si="2"/>
+        <v>6.442365888547428E-16</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
       </c>
       <c r="H134" s="7">
-        <v>3.1602847875140702E-3</v>
+        <v>4.9090828070731402E-12</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B135" s="6">
-        <f t="shared" si="3"/>
-        <v>21.046527197648054</v>
+        <f t="shared" si="2"/>
+        <v>4.0416383265664179E-12</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
       </c>
       <c r="H135" s="7">
-        <v>1.4690788735352499E-2</v>
+        <v>3.0797284048436102E-8</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B136" s="6">
-        <f t="shared" si="3"/>
-        <v>3.6869786748969497</v>
+        <f t="shared" si="2"/>
+        <v>6.2995490712803937E-9</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
       </c>
       <c r="H136" s="7">
-        <v>2.5735659035811798E-3</v>
+        <v>4.8002563923156597E-5</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B137" s="6">
-        <f t="shared" si="3"/>
-        <v>1.6960101904525929E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.5535962147602885E-11</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
         <v>20</v>
       </c>
       <c r="H137" s="7">
-        <v>1.1838403156473401E-6</v>
+        <v>1.1838403156473399E-7</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B138" s="6">
-        <f t="shared" si="3"/>
-        <v>3.6079313472376361E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.7089558362363125E-13</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
         <v>20</v>
       </c>
       <c r="H138" s="7">
-        <v>2.5183896942316898E-9</v>
+        <v>1.3022243472120701E-9</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -3704,419 +3717,419 @@
         <v>120</v>
       </c>
       <c r="B139" s="6">
-        <f t="shared" si="3"/>
-        <v>3.3920203809051992E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.9090840327334385E-13</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
       <c r="H139" s="7">
-        <v>2.36768063129469E-7</v>
+        <v>1.45472203294288E-9</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B140" s="6">
-        <f t="shared" si="3"/>
-        <v>5.155121381322326E-6</v>
+        <f t="shared" si="2"/>
+        <v>4.1473553641916932E-7</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
       </c>
       <c r="H140" s="7">
-        <v>3.5983513292667102E-9</v>
+        <v>3.1602847875140702E-3</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B141" s="6">
-        <f t="shared" si="3"/>
-        <v>6.8769302748732011E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9279250308861546E-6</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
       </c>
       <c r="H141" s="7">
-        <v>4.8001995230453797E-5</v>
+        <v>1.4690788735352499E-2</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B142" s="6">
-        <f t="shared" si="3"/>
-        <v>8.4800509522629938E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.377383075565853E-7</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
       </c>
       <c r="H142" s="7">
-        <v>5.9192015782367205E-7</v>
+        <v>2.5735659035811798E-3</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B143" s="6">
-        <f t="shared" si="3"/>
-        <v>5.2247968412475058E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.5535962147602887E-10</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
       </c>
       <c r="H143" s="7">
-        <v>3.6469858356718201E-8</v>
+        <v>1.1838403156473401E-6</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>40</v>
+      <c r="A144" t="s">
+        <v>122</v>
       </c>
       <c r="B144" s="6">
-        <f t="shared" si="3"/>
-        <v>2.1349019917748745E-13</v>
+        <f t="shared" si="2"/>
+        <v>3.3049733520100919E-13</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
       </c>
       <c r="H144" s="7">
-        <v>1.4901933149024601E-16</v>
+        <v>2.5183896942316898E-9</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B145" s="6">
-        <f t="shared" si="3"/>
-        <v>2.2543248356495158E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1071924295205899E-11</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
         <v>20</v>
       </c>
       <c r="H145" s="7">
-        <v>1.5735522345504199E-5</v>
+        <v>2.36768063129469E-7</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B146" s="6">
-        <f t="shared" si="3"/>
-        <v>3.4104467885480258E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7222458389326908E-13</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
         <v>20</v>
       </c>
       <c r="H146" s="7">
-        <v>2.3805425376457999E-5</v>
+        <v>3.5983513292667102E-9</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B147" s="6">
-        <f t="shared" si="3"/>
-        <v>2.6903165356752148E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.2994744396920993E-9</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
         <v>20</v>
       </c>
       <c r="H147" s="7">
-        <v>1.87788092000502E-5</v>
+        <v>4.8001995230453797E-5</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B148" s="6">
-        <f t="shared" si="3"/>
-        <v>1.6112096809299592E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.8707756148051313E-5</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
         <v>20</v>
       </c>
       <c r="H148" s="7">
-        <v>1.1246482998649701E-5</v>
+        <v>0.218753101848151</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B149" s="6">
-        <f t="shared" si="3"/>
-        <v>70226.187836488607</v>
+        <f t="shared" si="2"/>
+        <v>7.7679810738014708E-11</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
       <c r="H149" s="7">
-        <v>49.018922671020299</v>
+        <v>5.9192015782367205E-7</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B150" s="6">
-        <f t="shared" si="3"/>
-        <v>1.9180654761318835E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.7860706504879529E-12</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="D150" t="s">
+        <v>44</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" s="7">
+        <v>3.6469858356718201E-8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" s="7">
-        <v>1.33883820479303E-6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>124</v>
-      </c>
       <c r="B151" s="6">
-        <f t="shared" si="3"/>
-        <v>2.3744142666336357E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.9556342715255383E-20</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
         <v>20</v>
       </c>
       <c r="H151" s="7">
-        <v>1.65737644190628E-7</v>
+        <v>1.4901933149024601E-16</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B152" s="6">
-        <f t="shared" si="3"/>
-        <v>1.8467310560113289E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.0650291792000261E-9</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F152" t="s">
         <v>20</v>
       </c>
       <c r="H152" s="7">
-        <v>1.2890457195194E-8</v>
+        <v>1.5735522345504199E-5</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B153" s="6">
-        <f t="shared" si="3"/>
-        <v>1.6112096809299592E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1240715717136483E-9</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
       </c>
       <c r="H153" s="7">
-        <v>1.1246482998649701E-5</v>
+        <v>2.3805425376457999E-5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B154" s="6">
-        <f t="shared" si="3"/>
-        <v>1.6275934317512379E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.464410656174567E-9</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
       <c r="H154" s="7">
-        <v>1.13608440140076E-7</v>
+        <v>1.87788092000502E-5</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="B155" s="6">
-        <f t="shared" si="3"/>
-        <v>8.480050952262979E-7</v>
+        <f t="shared" si="2"/>
+        <v>1.4759164040222705E-9</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
       <c r="H155" s="7">
-        <v>5.91920157823671E-10</v>
+        <v>1.1246482998649701E-5</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156" s="6">
+        <f t="shared" si="2"/>
+        <v>6.432929484385866E-3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" s="7">
+        <v>49.018922671020299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B156" s="6">
-        <f t="shared" si="3"/>
-        <v>2.4842744945246866E-7</v>
-      </c>
-      <c r="C156" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156" t="s">
-        <v>42</v>
-      </c>
-      <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156" s="7">
-        <v>1.7340605134972201E-10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>127</v>
-      </c>
       <c r="B157" s="6">
-        <f t="shared" si="3"/>
-        <v>5.4041874156982982E-12</v>
+        <f t="shared" si="2"/>
+        <v>2.7215205154044493E-10</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
       <c r="H157" s="7">
-        <v>3.7722031223824099E-15</v>
+        <v>2.0737986327381901E-6</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B158" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3568081523620814E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.7570055181010894E-10</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
       </c>
       <c r="H158" s="7">
-        <v>9.4707225251787704E-7</v>
+        <v>1.33883820479303E-6</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -4124,104 +4137,104 @@
         <v>128</v>
       </c>
       <c r="B159" s="6">
-        <f t="shared" si="3"/>
-        <v>1.6052785195184096E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.1750347006644095E-11</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
       </c>
       <c r="H159" s="7">
-        <v>1.12050826106265E-7</v>
+        <v>1.65737644190628E-7</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B160" s="6">
-        <f t="shared" si="3"/>
-        <v>2.0224627428737551E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.6916610492380577E-12</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
         <v>20</v>
       </c>
       <c r="H160" s="7">
-        <v>1.4117090483222401E-8</v>
+        <v>1.2890457195194E-8</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B161" s="6">
-        <f t="shared" si="3"/>
-        <v>0.15009467918624972</v>
+        <f t="shared" si="2"/>
+        <v>1.4759164040222705E-9</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
         <v>20</v>
       </c>
       <c r="H161" s="7">
-        <v>1.04768316478935E-4</v>
+        <v>1.1246482998649701E-5</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B162" s="6">
-        <f t="shared" si="3"/>
-        <v>1.9406778366555546</v>
+        <f t="shared" si="2"/>
+        <v>1.4909244112870866E-11</v>
       </c>
       <c r="C162" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
       </c>
       <c r="H162" s="7">
-        <v>1.3546219684582299E-3</v>
+        <v>1.13608440140076E-7</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B163" s="6">
-        <f t="shared" si="3"/>
-        <v>0.83366603934948746</v>
+        <f t="shared" si="2"/>
+        <v>7.7679810738014566E-14</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
       </c>
       <c r="H163" s="7">
-        <v>5.8191128374328696E-4</v>
+        <v>5.91920157823671E-10</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -4229,768 +4242,732 @@
         <v>130</v>
       </c>
       <c r="B164" s="6">
-        <f t="shared" si="3"/>
-        <v>8.6240689298277395</v>
+        <f t="shared" si="2"/>
+        <v>2.275669965219449E-14</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
       </c>
       <c r="H164" s="7">
-        <v>6.0197282666840596E-3</v>
+        <v>1.7340605134972201E-10</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B165" s="6">
-        <f t="shared" si="3"/>
-        <v>7.5023669353487676</v>
+        <f t="shared" si="2"/>
+        <v>2.7282808493725065E-6</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
       </c>
       <c r="H165" s="7">
-        <v>5.2367636060460998E-3</v>
+        <v>2.0789500072218501E-2</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B166" s="6">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4.9503977984021124E-19</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
         <v>20</v>
       </c>
       <c r="H166" s="7">
-        <v>3.69591112394996E-7</v>
+        <v>3.7722031223824099E-15</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="6">
-        <f t="shared" si="3"/>
-        <v>8.480050952262979E-7</v>
+        <f t="shared" si="2"/>
+        <v>1.2428769718082375E-10</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
       </c>
       <c r="H167" s="7">
-        <v>5.91920157823671E-10</v>
+        <v>9.4707225251787704E-7</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B168" s="6">
-        <f t="shared" si="3"/>
-        <v>15.554279670777351</v>
+        <f t="shared" si="2"/>
+        <v>1.4704832822344487E-11</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
       </c>
       <c r="H168" s="7">
-        <v>1.08571183467985E-2</v>
+        <v>1.12050826106265E-7</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B169" s="6">
-        <f t="shared" si="3"/>
-        <v>2.6902275316475353E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8526365463546458E-12</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
       </c>
       <c r="H169" s="7">
-        <v>1.8778187938711E-5</v>
+        <v>1.4117090483222401E-8</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B170" s="6">
-        <f t="shared" si="3"/>
-        <v>6.4522126810696676E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3749122897498032E-8</v>
       </c>
       <c r="C170" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
       </c>
       <c r="H170" s="7">
-        <v>4.5037403312670698E-5</v>
+        <v>1.04768316478935E-4</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B171" s="6">
-        <f t="shared" si="3"/>
-        <v>6.4522126810696676E-2</v>
+        <f t="shared" ref="B171:B190" si="3">H171*0.01/76.2</f>
+        <v>1.7777191187115878E-7</v>
       </c>
       <c r="C171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D171" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
       </c>
       <c r="H171" s="7">
-        <v>4.5037403312670698E-5</v>
+        <v>1.3546219684582299E-3</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="B172" s="6">
         <f t="shared" si="3"/>
-        <v>3.3012519552004376</v>
+        <v>7.6366310202531106E-8</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
       </c>
       <c r="H172" s="7">
-        <v>2.3043229213339598E-3</v>
+        <v>5.8191128374328696E-4</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="B173" s="6">
         <f t="shared" si="3"/>
-        <v>2.0867303322877969E-4</v>
+        <v>7.8999058617901046E-7</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
       </c>
       <c r="H173" s="7">
-        <v>1.4565687807496199E-7</v>
+        <v>6.0197282666840596E-3</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B174" s="6">
         <f t="shared" si="3"/>
-        <v>3.3012151305475075</v>
+        <v>6.8723931837875318E-7</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
       </c>
       <c r="H174" s="7">
-        <v>2.3042972171789999E-3</v>
+        <v>5.2367636060460998E-3</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>33</v>
-      </c>
-      <c r="B175" s="6">
-        <f t="shared" si="3"/>
-        <v>36.568705588887461</v>
+        <v>136</v>
+      </c>
+      <c r="B175" s="12">
+        <v>9.1603000000000003E-8</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
       </c>
       <c r="H175" s="7">
-        <v>2.55254999120085E-2</v>
+        <v>3.69591112394996E-7</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B176" s="6">
         <f t="shared" si="3"/>
-        <v>3.6630593987519973E-4</v>
+        <v>8.0104146242208516E-8</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F176" t="s">
         <v>20</v>
       </c>
       <c r="H176" s="7">
-        <v>2.5568698933915598E-7</v>
+        <v>6.1039359436562896E-4</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B177" s="6">
         <f t="shared" si="3"/>
-        <v>3.222419361859932E-3</v>
+        <v>7.7679810738014566E-14</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
       </c>
       <c r="H177" s="7">
-        <v>2.24929659972995E-6</v>
+        <v>5.91920157823671E-10</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B178" s="6">
         <f t="shared" si="3"/>
-        <v>5.006452698579927E-4</v>
+        <v>9.6886130348398687E-9</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
       </c>
       <c r="H178" s="7">
-        <v>3.4945783794958899E-7</v>
+        <v>7.3827231325479805E-5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" s="6">
+        <f t="shared" si="3"/>
+        <v>1.4248186806822178E-6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>44</v>
+      </c>
+      <c r="F179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" s="7">
+        <v>1.08571183467985E-2</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>66</v>
+      <c r="A180" t="s">
+        <v>139</v>
+      </c>
+      <c r="B180" s="6">
+        <f t="shared" si="3"/>
+        <v>6.9028381168060753E-9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" s="7">
+        <v>5.2599626450062298E-5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>38</v>
+      </c>
+      <c r="B181" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4643291258150918E-9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>44</v>
+      </c>
+      <c r="F181" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" s="7">
+        <v>1.8778187938711E-5</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" t="s">
-        <v>136</v>
+        <v>62</v>
+      </c>
+      <c r="B182" s="6">
+        <f t="shared" si="3"/>
+        <v>5.9104203822402483E-9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>65</v>
+      </c>
+      <c r="D182" t="s">
+        <v>66</v>
+      </c>
+      <c r="F182" t="s">
+        <v>20</v>
+      </c>
+      <c r="H182" s="7">
+        <v>4.5037403312670698E-5</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" t="s">
-        <v>103</v>
+        <v>63</v>
+      </c>
+      <c r="B183" s="6">
+        <f t="shared" si="3"/>
+        <v>5.9104203822402483E-9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" t="s">
+        <v>66</v>
+      </c>
+      <c r="F183" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" s="7">
+        <v>4.5037403312670698E-5</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B184" s="6">
+        <f t="shared" si="3"/>
+        <v>3.0240458285222569E-7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" t="s">
+        <v>45</v>
+      </c>
+      <c r="F184" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" s="7">
+        <v>2.3043229213339598E-3</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="B185" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9115075862855906E-11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+      <c r="F185" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" s="7">
+        <v>1.4565687807496199E-7</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="B186" s="6">
+        <f t="shared" si="3"/>
+        <v>3.0240120960354332E-7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" t="s">
+        <v>43</v>
+      </c>
+      <c r="F186" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" s="7">
+        <v>2.3042972171789999E-3</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187"/>
+      <c r="A187" t="s">
+        <v>33</v>
+      </c>
+      <c r="B187" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3498031380588585E-6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" t="s">
+        <v>46</v>
+      </c>
+      <c r="F187" t="s">
+        <v>20</v>
+      </c>
+      <c r="H187" s="7">
+        <v>2.55254999120085E-2</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B188" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3554723010387924E-11</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s">
-        <v>5</v>
-      </c>
-      <c r="H188" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H188" s="7">
+        <v>2.5568698933915598E-7</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B189" s="6">
-        <f>H189*0.09/0.8121/$H$212</f>
-        <v>1.0151685725046852E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.9518328080445537E-10</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s">
-        <v>95</v>
-      </c>
-      <c r="H189" s="6">
-        <v>5.8020734791427803E-10</v>
+        <v>20</v>
+      </c>
+      <c r="H189" s="7">
+        <v>2.24929659972995E-6</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>140</v>
+      </c>
+      <c r="B190" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5860608654801704E-11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>44</v>
+      </c>
+      <c r="F190" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190" s="7">
+        <v>3.4945783794958899E-7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B190" s="6">
-        <f t="shared" ref="B190:B211" si="4">H190*0.09/0.8121/$H$212</f>
-        <v>2.741912028400325E-2</v>
-      </c>
-      <c r="C190" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" t="s">
-        <v>14</v>
-      </c>
-      <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s">
-        <v>83</v>
-      </c>
-      <c r="H190" s="6">
-        <v>1.5671067340937299E-7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>50</v>
-      </c>
-      <c r="B191" s="6">
-        <f t="shared" si="4"/>
-        <v>7093.2341500717639</v>
-      </c>
-      <c r="C191" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" t="s">
-        <v>3</v>
-      </c>
-      <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s">
-        <v>56</v>
-      </c>
-      <c r="H191" s="6">
-        <v>4.0540523867814399E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>71</v>
-      </c>
-      <c r="B192" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4752567578147181E-2</v>
-      </c>
-      <c r="C192" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" t="s">
-        <v>3</v>
-      </c>
-      <c r="F192" t="s">
-        <v>13</v>
-      </c>
-      <c r="G192" t="s">
-        <v>86</v>
-      </c>
-      <c r="H192" s="6">
-        <v>8.4316519849745797E-8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>49</v>
-      </c>
-      <c r="B193" s="6">
-        <f t="shared" si="4"/>
-        <v>5455.4822398130927</v>
-      </c>
-      <c r="C193" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" t="s">
-        <v>3</v>
-      </c>
-      <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s">
-        <v>55</v>
-      </c>
-      <c r="H193" s="2">
-        <v>3.1180150446794799E-2</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>45</v>
-      </c>
-      <c r="B194" s="6">
-        <f t="shared" si="4"/>
-        <v>2729.7332271548257</v>
-      </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" t="s">
-        <v>3</v>
-      </c>
-      <c r="F194" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" t="s">
-        <v>51</v>
-      </c>
-      <c r="H194" s="6">
-        <v>1.5601460871994001E-2</v>
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>46</v>
-      </c>
-      <c r="B195" s="6">
-        <f t="shared" si="4"/>
-        <v>0.91423865634244217</v>
-      </c>
-      <c r="C195" t="s">
-        <v>57</v>
-      </c>
-      <c r="E195" t="s">
-        <v>3</v>
-      </c>
-      <c r="F195" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" t="s">
-        <v>52</v>
-      </c>
-      <c r="H195" s="6">
-        <v>5.2252207221940298E-6</v>
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>81</v>
-      </c>
-      <c r="B196" s="6">
-        <f t="shared" si="4"/>
-        <v>6.5587903738681619E-2</v>
-      </c>
-      <c r="C196" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" t="s">
-        <v>3</v>
-      </c>
-      <c r="F196" t="s">
-        <v>13</v>
-      </c>
-      <c r="G196" t="s">
-        <v>96</v>
-      </c>
-      <c r="H196" s="6">
-        <v>3.7485974954471699E-7</v>
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>69</v>
-      </c>
-      <c r="B197" s="6">
-        <f t="shared" si="4"/>
-        <v>3.2589762922634297E-2</v>
-      </c>
-      <c r="C197" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" t="s">
-        <v>14</v>
-      </c>
-      <c r="F197" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" t="s">
-        <v>84</v>
-      </c>
-      <c r="H197" s="6">
-        <v>1.8626285748625699E-7</v>
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>24</v>
-      </c>
-      <c r="B198" s="6">
-        <f t="shared" si="4"/>
-        <v>463.82936070929202</v>
-      </c>
-      <c r="C198" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" t="s">
-        <v>3</v>
-      </c>
-      <c r="F198" t="s">
-        <v>13</v>
-      </c>
-      <c r="G198" t="s">
-        <v>25</v>
-      </c>
-      <c r="H198" s="6">
-        <v>2.6509607423910999E-3</v>
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>70</v>
-      </c>
-      <c r="B199" s="6">
-        <f t="shared" si="4"/>
-        <v>4.567950068138836E-2</v>
-      </c>
-      <c r="C199" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" t="s">
-        <v>3</v>
-      </c>
-      <c r="F199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s">
-        <v>85</v>
-      </c>
-      <c r="H199" s="6">
-        <v>2.6107567415139299E-7</v>
-      </c>
+      <c r="A199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>101</v>
-      </c>
-      <c r="B200" s="6">
-        <f t="shared" si="4"/>
-        <v>156643.03128997152</v>
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
       </c>
       <c r="E200" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G200" t="s">
-        <v>90</v>
-      </c>
-      <c r="H200" s="6">
-        <v>0.89527434374539006</v>
+        <v>5</v>
+      </c>
+      <c r="H200" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B201" s="6">
-        <f t="shared" si="4"/>
-        <v>61322.570747143101</v>
+        <f>H201*0.09/0.8121</f>
+        <v>6.4300777382446765E-11</v>
       </c>
       <c r="C201" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E201" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="H201" s="6">
-        <v>0.35048175351509298</v>
+        <v>5.8020734791427803E-10</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B202" s="6">
-        <f t="shared" si="4"/>
-        <v>0.26954825270497235</v>
+        <f t="shared" ref="B202:B265" si="4">H202*0.09/0.8121</f>
+        <v>1.736727078788766E-8</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H202" s="6">
-        <v>1.54057051284611E-6</v>
+        <v>1.5671067340937299E-7</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B203" s="6">
         <f t="shared" si="4"/>
-        <v>9205.1696724063804</v>
+        <v>4.4928545106554555E-3</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H203" s="6">
-        <v>5.2611036505498199E-2</v>
+        <v>4.0540523867814399E-2</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B204" s="6">
         <f t="shared" si="4"/>
-        <v>1.1401403860350441E-4</v>
+        <v>9.3442763039984252E-9</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E204" t="s">
         <v>3</v>
@@ -4999,22 +4976,22 @@
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H204" s="6">
-        <v>6.5163347994433803E-10</v>
+        <v>8.4316519849745797E-8</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B205" s="6">
         <f t="shared" si="4"/>
-        <v>4.974092972672592E-5</v>
+        <v>3.4555024506976134E-3</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E205" t="s">
         <v>3</v>
@@ -5023,19 +5000,19 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>54</v>
-      </c>
-      <c r="H205" s="6">
-        <v>2.84288281780915E-10</v>
+        <v>57</v>
+      </c>
+      <c r="H205" s="2">
+        <v>3.1180150446794799E-2</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B206" s="6">
         <f t="shared" si="4"/>
-        <v>-20749833.479528625</v>
+        <v>1.7290130260798667E-3</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5047,22 +5024,22 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="H206" s="6">
-        <v>-118.593169439006</v>
+        <v>1.5601460871994001E-2</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B207" s="6">
         <f t="shared" si="4"/>
-        <v>3.1248620415529949E-4</v>
+        <v>5.7907876492730291E-7</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E207" t="s">
         <v>3</v>
@@ -5071,91 +5048,91 @@
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H207" s="6">
-        <v>1.7859771931809801E-9</v>
+        <v>5.2252207221940298E-6</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B208" s="6">
         <f t="shared" si="4"/>
-        <v>248.72314590785399</v>
+        <v>4.1543378228080937E-8</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>93</v>
-      </c>
-      <c r="H208" s="2">
-        <v>1.4215471278433999E-3</v>
+        <v>98</v>
+      </c>
+      <c r="H208" s="6">
+        <v>3.7485974954471699E-7</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B209" s="6">
         <f t="shared" si="4"/>
-        <v>8740.9250487155969</v>
+        <v>2.0642355835196563E-8</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>97</v>
-      </c>
-      <c r="H209" s="2">
-        <v>4.9957702377644797E-2</v>
+        <v>86</v>
+      </c>
+      <c r="H209" s="6">
+        <v>1.8626285748625699E-7</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B210" s="6">
         <f t="shared" si="4"/>
-        <v>-11848542.673059383</v>
+        <v>2.9378951707326558E-4</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="H210" s="6">
-        <v>-67.718915923721696</v>
+        <v>2.6509607423910999E-3</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B211" s="6">
         <f t="shared" si="4"/>
-        <v>6.8144907513998418E-2</v>
+        <v>2.8933395731591388E-8</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -5167,559 +5144,591 @@
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H211" s="6">
-        <v>3.8947399607741801E-7</v>
+        <v>2.6107567415139299E-7</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>66</v>
-      </c>
-      <c r="B212" s="12">
-        <f>H212/H212</f>
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="B212" s="6">
+        <f t="shared" si="4"/>
+        <v>9.9217696019067977E-2</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E212" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>65</v>
-      </c>
-      <c r="H212" s="12">
-        <v>6.3340000000000005E-7</v>
+        <v>92</v>
+      </c>
+      <c r="H212" s="6">
+        <v>0.89527434374539006</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B213" s="6">
-        <f>H213*0.09/0.8121/$H$212</f>
-        <v>0.18489016151185533</v>
+        <f t="shared" si="4"/>
+        <v>3.8841716311240441E-2</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
-      </c>
-      <c r="D213" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="E213" t="s">
+        <v>106</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G213" t="s">
+        <v>16</v>
       </c>
       <c r="H213" s="6">
-        <v>1.0567174080415201E-6</v>
+        <v>0.35048175351509298</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B214" s="6">
-        <f t="shared" ref="B214:B267" si="5">H214*0.09/0.8121/$H$212</f>
-        <v>1.1035837361704857E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.707318632633295E-7</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
       </c>
-      <c r="D214" t="s">
-        <v>43</v>
+      <c r="E214" t="s">
+        <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G214" t="s">
+        <v>90</v>
       </c>
       <c r="H214" s="6">
-        <v>6.3073996783115798E-9</v>
+        <v>1.54057051284611E-6</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="B215" s="6">
-        <f t="shared" si="5"/>
-        <v>8.276878021278633E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.8305544705022014E-3</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
-      <c r="D215" t="s">
-        <v>43</v>
+      <c r="E215" t="s">
+        <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G215" t="s">
+        <v>55</v>
       </c>
       <c r="H215" s="6">
-        <v>4.7305497587336797E-8</v>
+        <v>5.2611036505498199E-2</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B216" s="6">
-        <f t="shared" si="5"/>
-        <v>6.3360284703460968E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.2216492051459696E-11</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>3</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>89</v>
       </c>
       <c r="H216" s="6">
-        <v>3.6212806174827699E-8</v>
+        <v>6.5163347994433803E-10</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B217" s="6">
-        <f t="shared" si="5"/>
-        <v>2.2881396560808968E-6</v>
+        <f t="shared" si="4"/>
+        <v>3.15059048889082E-11</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
-      </c>
-      <c r="D217" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="E217" t="s">
+        <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G217" t="s">
+        <v>56</v>
       </c>
       <c r="H217" s="6">
-        <v>1.30775861021452E-11</v>
+        <v>2.84288281780915E-10</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B218" s="6">
-        <f t="shared" si="5"/>
-        <v>1.4354715473383784E-2</v>
+        <f t="shared" si="4"/>
+        <v>-13.142944525933432</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
       </c>
-      <c r="D218" t="s">
-        <v>43</v>
+      <c r="E218" t="s">
+        <v>3</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G218" t="s">
+        <v>94</v>
       </c>
       <c r="H218" s="6">
-        <v>8.2042644152457905E-8</v>
+        <v>-118.593169439006</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B219" s="6">
-        <f t="shared" si="5"/>
-        <v>22.374153059279706</v>
+        <f t="shared" si="4"/>
+        <v>1.9792876171196672E-10</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
-      <c r="D219" t="s">
-        <v>42</v>
+      <c r="E219" t="s">
+        <v>3</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>93</v>
       </c>
       <c r="H219" s="6">
-        <v>1.2787677199584401E-4</v>
+        <v>1.7859771931809801E-9</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B220" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5179186808524114E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.5754124061803472E-4</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
-      <c r="D220" t="s">
-        <v>43</v>
+      <c r="E220" t="s">
+        <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="H220" s="6">
-        <v>3.1536998391557802E-7</v>
+        <v>13</v>
+      </c>
+      <c r="G220" t="s">
+        <v>95</v>
+      </c>
+      <c r="H220" s="2">
+        <v>1.4215471278433999E-3</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B221" s="6">
-        <f t="shared" si="5"/>
-        <v>6.0697105489376552E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.5365019258564593E-3</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
-      <c r="D221" t="s">
-        <v>43</v>
+      <c r="E221" t="s">
+        <v>3</v>
       </c>
       <c r="F221" t="s">
-        <v>20</v>
-      </c>
-      <c r="H221" s="6">
-        <v>3.46906982307136E-9</v>
+        <v>13</v>
+      </c>
+      <c r="G221" t="s">
+        <v>99</v>
+      </c>
+      <c r="H221" s="2">
+        <v>4.9957702377644797E-2</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B222" s="6">
-        <f t="shared" si="5"/>
-        <v>6.7805072820432217E-4</v>
+        <f t="shared" si="4"/>
+        <v>-7.5048669291158134</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
       </c>
-      <c r="D222" t="s">
-        <v>42</v>
+      <c r="E222" t="s">
+        <v>106</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>96</v>
       </c>
       <c r="H222" s="6">
-        <v>3.8753171189306E-9</v>
+        <v>-67.718915923721696</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="s">
-        <v>118</v>
+      <c r="A223" t="s">
+        <v>76</v>
       </c>
       <c r="B223" s="6">
-        <f t="shared" si="5"/>
-        <v>1473.0191424763393</v>
+        <f t="shared" si="4"/>
+        <v>4.3162984419366603E-8</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
       </c>
-      <c r="D223" t="s">
-        <v>42</v>
+      <c r="E223" t="s">
+        <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="H223" s="9">
-        <v>8.41886316451366E-3</v>
+        <v>13</v>
+      </c>
+      <c r="G223" t="s">
+        <v>91</v>
+      </c>
+      <c r="H223" s="6">
+        <v>3.8947399607741801E-7</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>19</v>
-      </c>
-      <c r="B224" s="6">
-        <f t="shared" si="5"/>
-        <v>6847.4249886422931</v>
+        <v>68</v>
+      </c>
+      <c r="B224" s="12">
+        <v>6.3340000000000005E-7</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
       </c>
-      <c r="D224" t="s">
-        <v>43</v>
+      <c r="E224" t="s">
+        <v>106</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="H224" s="7">
-        <v>3.9135631266636398E-2</v>
+        <v>12</v>
+      </c>
+      <c r="G224" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B225" s="6">
-        <f t="shared" si="5"/>
-        <v>1199.5475393157442</v>
+        <f t="shared" si="4"/>
+        <v>1.1710942830160917E-7</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F225" t="s">
         <v>20</v>
       </c>
-      <c r="H225">
-        <v>6.8558692155560597E-3</v>
+      <c r="H225" s="6">
+        <v>1.0567174080415201E-6</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B226" s="6">
-        <f t="shared" si="5"/>
-        <v>0.55179186808524094</v>
+        <f t="shared" si="4"/>
+        <v>6.9900993849038565E-10</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F226" t="s">
         <v>20</v>
       </c>
-      <c r="H226" s="7">
-        <v>3.1536998391557799E-6</v>
+      <c r="H226" s="6">
+        <v>6.3073996783115798E-9</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B227" s="6">
-        <f t="shared" si="5"/>
-        <v>1.1738297265090631E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.2425745386778862E-9</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F227" t="s">
         <v>20</v>
       </c>
-      <c r="H227" s="7">
-        <v>6.7088821597422201E-9</v>
+      <c r="H227" s="6">
+        <v>4.7305497587336797E-8</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B228" s="6">
-        <f t="shared" si="5"/>
-        <v>0.11035837361704856</v>
+        <f t="shared" si="4"/>
+        <v>4.0132404331172179E-9</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F228" t="s">
         <v>20</v>
       </c>
-      <c r="H228" s="7">
-        <v>6.3073996783115805E-7</v>
+      <c r="H228" s="6">
+        <v>3.6212806174827699E-8</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
-        <v>120</v>
+      <c r="A229" t="s">
+        <v>118</v>
       </c>
       <c r="B229" s="6">
-        <f t="shared" si="5"/>
-        <v>1.6772033996133781E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.4493076581616401E-12</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F229" t="s">
         <v>20</v>
       </c>
-      <c r="H229" s="7">
-        <v>9.5858536479467105E-9</v>
+      <c r="H229" s="6">
+        <v>1.30775861021452E-11</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B230" s="6">
-        <f t="shared" si="5"/>
-        <v>22.373887989738972</v>
+        <f t="shared" si="4"/>
+        <v>9.0922767808412895E-9</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
         <v>20</v>
       </c>
-      <c r="H230">
-        <v>1.27875257022869E-4</v>
+      <c r="H230" s="6">
+        <v>8.2042644152457905E-8</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B231" s="6">
-        <f t="shared" si="5"/>
-        <v>0.27589593404262047</v>
+        <f t="shared" si="4"/>
+        <v>1.4171788547747766E-5</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F231" t="s">
         <v>20</v>
       </c>
       <c r="H231" s="6">
-        <v>1.5768499195778899E-6</v>
+        <v>1.2787677199584401E-4</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="B232" s="6">
-        <f t="shared" si="5"/>
-        <v>1.6998721031437136E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.4950496924519175E-8</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F232" t="s">
         <v>20</v>
       </c>
       <c r="H232" s="6">
-        <v>9.7154138876174502E-8</v>
+        <v>3.1536998391557802E-7</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B233" s="6">
-        <f t="shared" si="5"/>
-        <v>6.9458400948994221E-11</v>
+        <f t="shared" si="4"/>
+        <v>3.8445546616971109E-10</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F233" t="s">
         <v>20</v>
       </c>
       <c r="H233" s="6">
-        <v>3.9698110931026202E-16</v>
+        <v>3.46906982307136E-9</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B234" s="6">
-        <f t="shared" si="5"/>
-        <v>7.3343787633849784</v>
+        <f t="shared" si="4"/>
+        <v>4.2947733124461767E-10</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F234" t="s">
         <v>20</v>
       </c>
       <c r="H234" s="6">
-        <v>4.1918756807089403E-5</v>
+        <v>3.8753171189306E-9</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>29</v>
+      <c r="A235" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B235" s="6">
-        <f t="shared" si="5"/>
-        <v>11.095787130595255</v>
+        <f t="shared" si="4"/>
+        <v>9.3301032484451344E-4</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F235" t="s">
         <v>20</v>
       </c>
-      <c r="H235" s="6">
-        <v>6.3416632453270098E-5</v>
+      <c r="H235" s="9">
+        <v>8.41886316451366E-3</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B236" s="6">
-        <f t="shared" si="5"/>
-        <v>8.7528647841714768</v>
+        <f t="shared" si="4"/>
+        <v>4.3371589878060286E-3</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F236" t="s">
         <v>20</v>
       </c>
-      <c r="H236" s="6">
-        <v>5.0025942494914798E-5</v>
+      <c r="H236" s="7">
+        <v>3.9135631266636398E-2</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B237" s="6">
-        <f t="shared" si="5"/>
-        <v>5.2420227468097886</v>
+        <f t="shared" si="4"/>
+        <v>7.5979341140259237E-4</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
         <v>20</v>
       </c>
-      <c r="H237" s="6">
-        <v>2.99601484719799E-5</v>
+      <c r="H237">
+        <v>6.8558692155560597E-3</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -5727,577 +5736,578 @@
         <v>122</v>
       </c>
       <c r="B238" s="6">
-        <f t="shared" si="5"/>
-        <v>22893668.691202644</v>
+        <f t="shared" si="4"/>
+        <v>3.4950496924519166E-7</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F238" t="s">
         <v>20</v>
       </c>
-      <c r="H238" s="6">
-        <v>130.84600090187999</v>
+      <c r="H238" s="7">
+        <v>3.1536998391557799E-6</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B239" s="6">
-        <f t="shared" si="5"/>
-        <v>0.62403689443764121</v>
+        <f t="shared" si="4"/>
+        <v>7.4350374877084065E-10</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F239" t="s">
         <v>20</v>
       </c>
-      <c r="H239" s="6">
-        <v>3.5666075697064099E-6</v>
+      <c r="H239" s="7">
+        <v>6.7088821597422201E-9</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B240" s="6">
-        <f t="shared" si="5"/>
-        <v>7.7250861531933876E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.9900993849038562E-8</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F240" t="s">
         <v>20</v>
       </c>
-      <c r="H240" s="6">
-        <v>4.4151797748180999E-7</v>
+      <c r="H240" s="7">
+        <v>6.3073996783115805E-7</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>124</v>
+      <c r="A241" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B241" s="6">
-        <f t="shared" si="5"/>
-        <v>6.0082845314484287E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.0623406333151139E-9</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F241" t="s">
         <v>20</v>
       </c>
-      <c r="H241" s="6">
-        <v>3.4339625239826703E-8</v>
+      <c r="H241" s="7">
+        <v>9.5858536479467105E-9</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B242" s="6">
-        <f t="shared" si="5"/>
-        <v>5.2420227468097886</v>
+        <f t="shared" si="4"/>
+        <v>1.4171620652700665E-5</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F242" t="s">
         <v>20</v>
       </c>
-      <c r="H242" s="6">
-        <v>2.99601484719799E-5</v>
+      <c r="H242">
+        <v>1.27875257022869E-4</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B243" s="6">
-        <f t="shared" si="5"/>
-        <v>5.2953267925213647E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5832975984071405E-2</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F243" t="s">
         <v>20</v>
       </c>
       <c r="H243" s="6">
-        <v>3.0264801313222901E-7</v>
+        <v>0.23309955329627099</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B244" s="6">
-        <f t="shared" si="5"/>
-        <v>2.7589593404262055E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.7475248462259583E-7</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F244" t="s">
         <v>20</v>
       </c>
       <c r="H244" s="6">
-        <v>1.57684991957789E-9</v>
+        <v>1.5768499195778899E-6</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B245" s="6">
-        <f t="shared" si="5"/>
-        <v>8.0825131351627681E-5</v>
+        <f t="shared" si="4"/>
+        <v>1.0766989901312282E-8</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F245" t="s">
         <v>20</v>
       </c>
       <c r="H245" s="6">
-        <v>4.61946285341045E-10</v>
+        <v>9.7154138876174502E-8</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B246" s="6">
-        <f t="shared" si="5"/>
-        <v>1.7582362926694162E-9</v>
+        <f t="shared" si="4"/>
+        <v>4.3994951161092939E-17</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F246" t="s">
         <v>20</v>
       </c>
       <c r="H246" s="6">
-        <v>1.00489873702394E-14</v>
+        <v>3.9698110931026202E-16</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="B247" s="6">
-        <f t="shared" si="5"/>
-        <v>0.44143349446819208</v>
+        <f t="shared" si="4"/>
+        <v>4.6455955087280454E-6</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F247" t="s">
         <v>20</v>
       </c>
       <c r="H247" s="6">
-        <v>2.5229598713246199E-6</v>
+        <v>4.1918756807089403E-5</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="B248" s="6">
-        <f t="shared" si="5"/>
-        <v>5.2227258896705125E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.0280715685190346E-6</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F248" t="s">
         <v>20</v>
       </c>
       <c r="H248" s="6">
-        <v>2.98498596134878E-7</v>
+        <v>6.3416632453270098E-5</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B249" s="6">
-        <f t="shared" si="5"/>
-        <v>6.5800223448262687E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.5440645542942143E-6</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F249" t="s">
         <v>20</v>
       </c>
       <c r="H249" s="6">
-        <v>3.7607323722491603E-8</v>
+        <v>5.0025942494914798E-5</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B250" s="6">
-        <f t="shared" si="5"/>
-        <v>48.832857186863002</v>
+        <f t="shared" si="4"/>
+        <v>3.3202972078293201E-6</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
         <v>20</v>
       </c>
-      <c r="H250" s="2">
-        <v>2.7909830275341498E-4</v>
+      <c r="H250" s="6">
+        <v>2.99601484719799E-5</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="B251" s="6">
-        <f t="shared" si="5"/>
-        <v>631.39375863893247</v>
+        <f t="shared" si="4"/>
+        <v>14.500849749007756</v>
       </c>
       <c r="C251" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F251" t="s">
         <v>20</v>
       </c>
-      <c r="H251" s="2">
-        <v>3.6086548393206102E-3</v>
+      <c r="H251" s="6">
+        <v>130.84600090187999</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B252" s="6">
-        <f t="shared" si="5"/>
-        <v>271.23076488657267</v>
+        <f t="shared" si="4"/>
+        <v>2.4513050837379274E-7</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F252" t="s">
         <v>20</v>
       </c>
       <c r="H252" s="6">
-        <v>1.55018670819691E-3</v>
+        <v>2.2118942872261901E-6</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B253" s="6">
-        <f t="shared" si="5"/>
-        <v>2805.8151608249559</v>
+        <f t="shared" si="4"/>
+        <v>3.9526496893680195E-7</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F253" t="s">
         <v>20</v>
       </c>
       <c r="H253" s="6">
-        <v>1.6036297983332299E-2</v>
+        <v>3.5666075697064099E-6</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B254" s="6">
-        <f t="shared" si="5"/>
-        <v>2440.8727551408833</v>
+        <f t="shared" si="4"/>
+        <v>4.8930695694326925E-8</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
         <v>20</v>
       </c>
       <c r="H254" s="6">
-        <v>1.3950513700028601E-2</v>
+        <v>4.4151797748180999E-7</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B255" s="6">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3.8056474222194348E-9</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F255" t="s">
         <v>20</v>
       </c>
       <c r="H255" s="6">
-        <v>2.72574047508097E-6</v>
+        <v>3.4339625239826703E-8</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B256" s="6">
-        <f t="shared" si="5"/>
-        <v>2.7589593404262055E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.3202972078293201E-6</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F256" t="s">
         <v>20</v>
       </c>
       <c r="H256" s="6">
-        <v>1.57684991957789E-9</v>
+        <v>2.99601484719799E-5</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B257" s="6">
-        <f t="shared" si="5"/>
-        <v>5060.53860087254</v>
+        <f t="shared" si="4"/>
+        <v>3.3540599903830328E-8</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
         <v>20</v>
       </c>
       <c r="H257" s="6">
-        <v>2.89228977349625E-2</v>
+        <v>3.0264801313222901E-7</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B258" s="6">
-        <f t="shared" si="5"/>
-        <v>8.7525752122162004</v>
+        <f t="shared" si="4"/>
+        <v>1.7475248462259587E-10</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F258" t="s">
         <v>20</v>
       </c>
       <c r="H258" s="6">
-        <v>5.0024287481346102E-5</v>
+        <v>1.57684991957789E-9</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B259" s="6">
-        <f t="shared" si="5"/>
-        <v>20.992081938025514</v>
+        <f t="shared" si="4"/>
+        <v>5.1194638198120977E-11</v>
       </c>
       <c r="C259" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F259" t="s">
         <v>20</v>
       </c>
-      <c r="H259" s="2">
-        <v>1.1997771127223099E-4</v>
+      <c r="H259" s="6">
+        <v>4.61946285341045E-10</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B260" s="6">
-        <f t="shared" si="5"/>
-        <v>20.992081938025514</v>
+        <f t="shared" si="4"/>
+        <v>1.8124613428687625E-3</v>
       </c>
       <c r="C260" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D260" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F260" t="s">
         <v>20</v>
       </c>
       <c r="H260" s="6">
-        <v>1.1997771127223099E-4</v>
+        <v>1.63544428504858E-2</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="B261" s="6">
-        <f t="shared" si="5"/>
-        <v>1074.0524989970691</v>
+        <f t="shared" si="4"/>
+        <v>1.1136668677768083E-15</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D261" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F261" t="s">
         <v>20</v>
       </c>
       <c r="H261" s="6">
-        <v>6.1386174556828698E-3</v>
+        <v>1.00489873702394E-14</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="B262" s="6">
-        <f t="shared" si="5"/>
-        <v>6.7891150343616327E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.7960397539615287E-7</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F262" t="s">
         <v>20</v>
       </c>
       <c r="H262" s="6">
-        <v>3.8802367759013098E-7</v>
+        <v>2.5229598713246199E-6</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="B263" s="6">
-        <f t="shared" si="5"/>
-        <v>1074.0405182058325</v>
+        <f t="shared" si="4"/>
+        <v>3.3080745785173031E-8</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F263" t="s">
         <v>20</v>
       </c>
       <c r="H263" s="6">
-        <v>6.1385489809162403E-3</v>
+        <v>2.98498596134878E-7</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B264" s="6">
-        <f t="shared" si="5"/>
-        <v>11942.367029305999</v>
+        <f t="shared" si="4"/>
+        <v>4.1677861532129591E-9</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
       </c>
       <c r="H264" s="6">
-        <v>6.8255157710376907E-2</v>
+        <v>3.7607323722491603E-8</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B265" s="6">
-        <f t="shared" si="5"/>
-        <v>0.1211654292197253</v>
+        <f t="shared" si="4"/>
+        <v>3.093073174215903E-5</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D265" t="s">
         <v>44</v>
@@ -6305,101 +6315,478 @@
       <c r="F265" t="s">
         <v>20</v>
       </c>
-      <c r="H265" s="6">
-        <v>6.9250639007688098E-7</v>
+      <c r="H265" s="2">
+        <v>2.7909830275341498E-4</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="B266" s="6">
-        <f t="shared" si="5"/>
-        <v>1.0484045493619594</v>
+        <f t="shared" ref="B266:B285" si="5">H266*0.09/0.8121</f>
+        <v>3.9992480672189985E-4</v>
       </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D266" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F266" t="s">
         <v>20</v>
       </c>
-      <c r="H266" s="6">
-        <v>5.9920296943959903E-6</v>
+      <c r="H266" s="2">
+        <v>3.6086548393206102E-3</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B267" s="6">
         <f t="shared" si="5"/>
-        <v>0.16288344861257056</v>
+        <v>1.7179756647915515E-4</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
       </c>
       <c r="D267" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
       </c>
       <c r="H267" s="6">
+        <v>1.55018670819691E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>134</v>
+      </c>
+      <c r="B268" s="6">
+        <f t="shared" si="5"/>
+        <v>1.7772033228665273E-3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" t="s">
+        <v>45</v>
+      </c>
+      <c r="F268" t="s">
+        <v>20</v>
+      </c>
+      <c r="H268" s="6">
+        <v>1.6036297983332299E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>135</v>
+      </c>
+      <c r="B269" s="6">
+        <f t="shared" si="5"/>
+        <v>1.5460488031062355E-3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>45</v>
+      </c>
+      <c r="F269" t="s">
+        <v>20</v>
+      </c>
+      <c r="H269" s="6">
+        <v>1.3950513700028601E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>136</v>
+      </c>
+      <c r="B270" s="12">
+        <v>6.3340000000000005E-7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" t="s">
+        <v>27</v>
+      </c>
+      <c r="F270" t="s">
+        <v>20</v>
+      </c>
+      <c r="H270" s="6">
+        <v>2.72574047508097E-6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>36</v>
+      </c>
+      <c r="B271" s="6">
+        <f t="shared" si="5"/>
+        <v>7.2150733312708901E-5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>27</v>
+      </c>
+      <c r="F271" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" s="6">
+        <v>6.5104011692501001E-4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>137</v>
+      </c>
+      <c r="B272" s="6">
+        <f t="shared" si="5"/>
+        <v>1.7475248462259587E-10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>45</v>
+      </c>
+      <c r="F272" t="s">
+        <v>20</v>
+      </c>
+      <c r="H272" s="6">
+        <v>1.57684991957789E-9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>138</v>
+      </c>
+      <c r="B273" s="6">
+        <f t="shared" si="5"/>
+        <v>8.7266460981070249E-6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" t="s">
+        <v>27</v>
+      </c>
+      <c r="F273" t="s">
+        <v>20</v>
+      </c>
+      <c r="H273" s="6">
+        <v>7.8743436625252394E-5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2053451497926671E-3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>44</v>
+      </c>
+      <c r="F274" t="s">
+        <v>20</v>
+      </c>
+      <c r="H274" s="6">
+        <v>2.89228977349625E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>139</v>
+      </c>
+      <c r="B275" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2133925134840259E-6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" t="s">
+        <v>20</v>
+      </c>
+      <c r="H275" s="6">
+        <v>5.6065511780004198E-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>38</v>
+      </c>
+      <c r="B276" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5438811394177421E-6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" t="s">
+        <v>44</v>
+      </c>
+      <c r="F276" t="s">
+        <v>20</v>
+      </c>
+      <c r="H276" s="6">
+        <v>5.0024287481346102E-5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>62</v>
+      </c>
+      <c r="B277" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3296384699545361E-5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>65</v>
+      </c>
+      <c r="D277" t="s">
+        <v>66</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+      <c r="H277" s="2">
+        <v>1.1997771127223099E-4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>63</v>
+      </c>
+      <c r="B278" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3296384699545361E-5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>65</v>
+      </c>
+      <c r="D278" t="s">
+        <v>66</v>
+      </c>
+      <c r="F278" t="s">
+        <v>20</v>
+      </c>
+      <c r="H278" s="6">
+        <v>1.1997771127223099E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="6">
+        <f t="shared" si="5"/>
+        <v>6.8030485286474352E-4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" t="s">
+        <v>45</v>
+      </c>
+      <c r="F279" t="s">
+        <v>20</v>
+      </c>
+      <c r="H279" s="6">
+        <v>6.1386174556828698E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>21</v>
+      </c>
+      <c r="B280" s="6">
+        <f t="shared" si="5"/>
+        <v>4.3002254627646582E-8</v>
+      </c>
+      <c r="C280" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280" t="s">
+        <v>44</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+      <c r="H280" s="6">
+        <v>3.8802367759013098E-7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="6">
+        <f t="shared" si="5"/>
+        <v>6.802972642315744E-4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" t="s">
+        <v>43</v>
+      </c>
+      <c r="F281" t="s">
+        <v>20</v>
+      </c>
+      <c r="H281" s="6">
+        <v>6.1385489809162403E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>33</v>
+      </c>
+      <c r="B282" s="6">
+        <f t="shared" si="5"/>
+        <v>7.5642952763624203E-3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>22</v>
+      </c>
+      <c r="D282" t="s">
+        <v>46</v>
+      </c>
+      <c r="F282" t="s">
+        <v>20</v>
+      </c>
+      <c r="H282" s="6">
+        <v>6.8255157710376907E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>32</v>
+      </c>
+      <c r="B283" s="6">
+        <f t="shared" si="5"/>
+        <v>7.6746182867774008E-8</v>
+      </c>
+      <c r="C283" t="s">
+        <v>22</v>
+      </c>
+      <c r="D283" t="s">
+        <v>46</v>
+      </c>
+      <c r="F283" t="s">
+        <v>20</v>
+      </c>
+      <c r="H283" s="6">
+        <v>6.9250639007688098E-7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>140</v>
+      </c>
+      <c r="B284" s="6">
+        <f t="shared" si="5"/>
+        <v>6.6405944156586509E-7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" t="s">
+        <v>45</v>
+      </c>
+      <c r="F284" t="s">
+        <v>20</v>
+      </c>
+      <c r="H284" s="6">
+        <v>5.9920296943959903E-6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>140</v>
+      </c>
+      <c r="B285" s="6">
+        <f t="shared" si="5"/>
+        <v>1.031703763512022E-7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" t="s">
+        <v>44</v>
+      </c>
+      <c r="F285" t="s">
+        <v>20</v>
+      </c>
+      <c r="H285" s="6">
         <v>9.3094069594234795E-7</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
-      <c r="B268" s="7"/>
-    </row>
-    <row r="270" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B271"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B272"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B273"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B274"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B275"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
-      <c r="B276"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B277"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="6"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="6"/>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="7"/>
+    </row>
+    <row r="288" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B290"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B292"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="3"/>
+      <c r="B294"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B295"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="6"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6412,28 +6799,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B5" s="10">
         <v>5.8415999999999997</v>
@@ -6452,7 +6839,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0.84019999999999995</v>
@@ -6471,7 +6858,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>1500</v>
@@ -6490,7 +6877,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6498,23 +6885,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B14" s="10">
         <v>5.8415999999999997</v>
@@ -6533,7 +6920,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>0.84019999999999995</v>
@@ -6552,7 +6939,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>1500</v>
@@ -6571,23 +6958,23 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B20" s="10">
         <v>5.8415999999999997</v>
@@ -6606,7 +6993,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>0.84019999999999995</v>
@@ -6625,7 +7012,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>1500</v>
